--- a/escenarios_montecarlo/escenario_008.xlsx
+++ b/escenarios_montecarlo/escenario_008.xlsx
@@ -693,148 +693,148 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>22.40184486832388</v>
+        <v>16.06034108752439</v>
       </c>
       <c r="D2" t="n">
-        <v>13.66728537420086</v>
+        <v>17.81717576341537</v>
       </c>
       <c r="E2" t="n">
-        <v>28.08968029731145</v>
+        <v>32.49899612232164</v>
       </c>
       <c r="F2" t="n">
-        <v>22.83318846828866</v>
+        <v>50.98972589667606</v>
       </c>
       <c r="G2" t="n">
-        <v>31.19451818366601</v>
+        <v>26.2238818770679</v>
       </c>
       <c r="H2" t="n">
-        <v>20.03224503220934</v>
+        <v>40.88832174586261</v>
       </c>
       <c r="I2" t="n">
-        <v>344.8507385517119</v>
+        <v>196.452683753493</v>
       </c>
       <c r="J2" t="n">
-        <v>73.34879042488723</v>
+        <v>255.7504327410917</v>
       </c>
       <c r="K2" t="n">
-        <v>29.91465984340478</v>
+        <v>20.39780095238209</v>
       </c>
       <c r="L2" t="n">
-        <v>16.79358691040834</v>
+        <v>195.7680681438298</v>
       </c>
       <c r="M2" t="n">
-        <v>64.82093492038993</v>
+        <v>49.1525440024426</v>
       </c>
       <c r="N2" t="n">
-        <v>54.58378711554242</v>
+        <v>24.73650581072317</v>
       </c>
       <c r="O2" t="n">
-        <v>34.39562571088772</v>
+        <v>59.36154034563982</v>
       </c>
       <c r="P2" t="n">
-        <v>39.75396751752421</v>
+        <v>47.18233136782857</v>
       </c>
       <c r="Q2" t="n">
-        <v>77.11504833504341</v>
+        <v>84.52678545446726</v>
       </c>
       <c r="R2" t="n">
-        <v>95.38401673790439</v>
+        <v>81.61575696681348</v>
       </c>
       <c r="S2" t="n">
-        <v>53.66328292870092</v>
+        <v>33.70633285152113</v>
       </c>
       <c r="T2" t="n">
-        <v>68.21449175687546</v>
+        <v>91.27565745195263</v>
       </c>
       <c r="U2" t="n">
-        <v>101.1698964245122</v>
+        <v>22.18771446226725</v>
       </c>
       <c r="V2" t="n">
-        <v>259.5058328131823</v>
+        <v>67.85347217412775</v>
       </c>
       <c r="W2" t="n">
-        <v>28.08250918390922</v>
+        <v>120.7817854563394</v>
       </c>
       <c r="X2" t="n">
-        <v>41.62396695454537</v>
+        <v>85.10814466322618</v>
       </c>
       <c r="Y2" t="n">
-        <v>64.23576949552148</v>
+        <v>74.13096187890889</v>
       </c>
       <c r="Z2" t="n">
-        <v>57.59306869371596</v>
+        <v>60.2484112683026</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.41553908442418</v>
+        <v>56.08450189812514</v>
       </c>
       <c r="AB2" t="n">
-        <v>82.87795876145397</v>
+        <v>58.52123554784313</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.77136343528912</v>
+        <v>132.7740255968108</v>
       </c>
       <c r="AD2" t="n">
-        <v>136.202109612281</v>
+        <v>115.4990871804719</v>
       </c>
       <c r="AE2" t="n">
-        <v>112.8159299825031</v>
+        <v>77.26727155419714</v>
       </c>
       <c r="AF2" t="n">
-        <v>58.76315665187089</v>
+        <v>92.1701398127026</v>
       </c>
       <c r="AG2" t="n">
-        <v>122.8459081899022</v>
+        <v>126.4458605755222</v>
       </c>
       <c r="AH2" t="n">
-        <v>31.73569273459649</v>
+        <v>168.2826150664024</v>
       </c>
       <c r="AI2" t="n">
-        <v>80.87950273183527</v>
+        <v>73.10033156515328</v>
       </c>
       <c r="AJ2" t="n">
-        <v>79.10067098777296</v>
+        <v>59.04752281754312</v>
       </c>
       <c r="AK2" t="n">
-        <v>20.18177154384193</v>
+        <v>27.96856370214897</v>
       </c>
       <c r="AL2" t="n">
-        <v>37.74107246732667</v>
+        <v>34.19176797768243</v>
       </c>
       <c r="AM2" t="n">
-        <v>73.95683043191241</v>
+        <v>90.57771543618131</v>
       </c>
       <c r="AN2" t="n">
-        <v>25.48510174274772</v>
+        <v>61.62140007423103</v>
       </c>
       <c r="AO2" t="n">
-        <v>23.65983804105556</v>
+        <v>28.74613881461077</v>
       </c>
       <c r="AP2" t="n">
-        <v>21.03510759520529</v>
+        <v>18.78301587805293</v>
       </c>
       <c r="AQ2" t="n">
-        <v>24.14529912525638</v>
+        <v>49.4705507339205</v>
       </c>
       <c r="AR2" t="n">
-        <v>23.2316452222646</v>
+        <v>14.79141555541658</v>
       </c>
       <c r="AS2" t="n">
-        <v>42.6407840844376</v>
+        <v>35.10003014498723</v>
       </c>
       <c r="AT2" t="n">
-        <v>25.3738413426341</v>
+        <v>22.97252393455908</v>
       </c>
       <c r="AU2" t="n">
-        <v>16.94629267990956</v>
+        <v>16.84525721362255</v>
       </c>
       <c r="AV2" t="n">
-        <v>12.95345609187043</v>
+        <v>14.27956932196007</v>
       </c>
       <c r="AW2" t="n">
-        <v>11.94363125178445</v>
+        <v>14.24128011671708</v>
       </c>
       <c r="AX2" t="n">
-        <v>13.17787957825251</v>
+        <v>32.04208895325647</v>
       </c>
     </row>
     <row r="3">
@@ -845,148 +845,148 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>2.119359412913543</v>
+        <v>2.103081403807006</v>
       </c>
       <c r="D3" t="n">
-        <v>2.731547195424722</v>
+        <v>2.073973778766139</v>
       </c>
       <c r="E3" t="n">
-        <v>3.049392608368681</v>
+        <v>4.903133049760591</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06940195679750517</v>
+        <v>1.417352912087963</v>
       </c>
       <c r="G3" t="n">
-        <v>2.821730310905536</v>
+        <v>14.58251515596086</v>
       </c>
       <c r="H3" t="n">
-        <v>3.22117252190188</v>
+        <v>5.295817938441542</v>
       </c>
       <c r="I3" t="n">
-        <v>3.375917185718045</v>
+        <v>6.964513823282236</v>
       </c>
       <c r="J3" t="n">
-        <v>2.29567249042505</v>
+        <v>12.20990977905814</v>
       </c>
       <c r="K3" t="n">
-        <v>2.764925510878328</v>
+        <v>2.351029651434011</v>
       </c>
       <c r="L3" t="n">
-        <v>4.768393167077738</v>
+        <v>6.217350037478503</v>
       </c>
       <c r="M3" t="n">
-        <v>3.088997778794729</v>
+        <v>0.6750316929757859</v>
       </c>
       <c r="N3" t="n">
-        <v>4.26017277969517</v>
+        <v>6.768573119486509</v>
       </c>
       <c r="O3" t="n">
-        <v>11.8200970042796</v>
+        <v>4.439433415489289</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9596620093143544</v>
+        <v>9.761830487612263</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.132035917380248</v>
+        <v>3.868849467246028</v>
       </c>
       <c r="R3" t="n">
-        <v>1.720518577533135</v>
+        <v>5.774274216764963</v>
       </c>
       <c r="S3" t="n">
-        <v>8.594295171376151</v>
+        <v>5.113746039238646</v>
       </c>
       <c r="T3" t="n">
-        <v>2.072811984344181</v>
+        <v>3.037210269924089</v>
       </c>
       <c r="U3" t="n">
-        <v>2.665211347588995</v>
+        <v>3.675767181090365</v>
       </c>
       <c r="V3" t="n">
-        <v>3.447558297374581</v>
+        <v>8.012417040098276</v>
       </c>
       <c r="W3" t="n">
-        <v>5.320861225864963</v>
+        <v>15.6128227553815</v>
       </c>
       <c r="X3" t="n">
-        <v>3.452847664516393</v>
+        <v>13.57062885621739</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.1467147837288</v>
+        <v>2.537645070787137</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.921930002136493</v>
+        <v>4.773446443783392</v>
       </c>
       <c r="AA3" t="n">
-        <v>6.774691943641814</v>
+        <v>4.627636696365426</v>
       </c>
       <c r="AB3" t="n">
-        <v>5.242062005573995</v>
+        <v>6.083588186194865</v>
       </c>
       <c r="AC3" t="n">
-        <v>6.610188616149684</v>
+        <v>5.540947079182757</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.863887360632361</v>
+        <v>6.44186067047757</v>
       </c>
       <c r="AE3" t="n">
-        <v>5.065840224677078</v>
+        <v>4.850218037916343</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.407803293788084</v>
+        <v>10.90548396753951</v>
       </c>
       <c r="AG3" t="n">
-        <v>7.081632175239671</v>
+        <v>11.83517960653015</v>
       </c>
       <c r="AH3" t="n">
-        <v>4.927961285020573</v>
+        <v>7.607677885473309</v>
       </c>
       <c r="AI3" t="n">
-        <v>6.074016093775355</v>
+        <v>9.491327556668644</v>
       </c>
       <c r="AJ3" t="n">
-        <v>8.252185908330777</v>
+        <v>4.948502349965658</v>
       </c>
       <c r="AK3" t="n">
-        <v>5.267517557453879</v>
+        <v>2.498257485747065</v>
       </c>
       <c r="AL3" t="n">
-        <v>5.18175960097685</v>
+        <v>2.3443334600833</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.284989432272993</v>
+        <v>6.333805422713344</v>
       </c>
       <c r="AN3" t="n">
-        <v>8.20000216320533</v>
+        <v>3.568067739747988</v>
       </c>
       <c r="AO3" t="n">
-        <v>3.2239453475779</v>
+        <v>3.501590354064226</v>
       </c>
       <c r="AP3" t="n">
-        <v>5.181041304003799</v>
+        <v>2.250374164519661</v>
       </c>
       <c r="AQ3" t="n">
-        <v>4.106933190979699</v>
+        <v>10.21596758792884</v>
       </c>
       <c r="AR3" t="n">
-        <v>4.471211343697513</v>
+        <v>2.646889648277206</v>
       </c>
       <c r="AS3" t="n">
-        <v>3.860053943234414</v>
+        <v>1.595783265224139</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.231945341965392</v>
+        <v>3.434611086437581</v>
       </c>
       <c r="AU3" t="n">
-        <v>2.675714285714286</v>
+        <v>1.615314337449324</v>
       </c>
       <c r="AV3" t="n">
-        <v>3.365609814664057</v>
+        <v>0.267187562719855</v>
       </c>
       <c r="AW3" t="n">
-        <v>1.75375</v>
+        <v>2.753385280808792</v>
       </c>
       <c r="AX3" t="n">
-        <v>2.929296044236495</v>
+        <v>6.41696518815079</v>
       </c>
     </row>
     <row r="4">
@@ -997,148 +997,148 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>7.980348485714286</v>
+        <v>8.031324541891646</v>
       </c>
       <c r="D4" t="n">
-        <v>21.24424417459797</v>
+        <v>9.191334103536303</v>
       </c>
       <c r="E4" t="n">
-        <v>15.02356495468278</v>
+        <v>16.68525225860023</v>
       </c>
       <c r="F4" t="n">
-        <v>10.93771990915973</v>
+        <v>41.73123453403844</v>
       </c>
       <c r="G4" t="n">
-        <v>11.19654387656702</v>
+        <v>19.74211933242097</v>
       </c>
       <c r="H4" t="n">
-        <v>13.89444132194245</v>
+        <v>35.91759755759129</v>
       </c>
       <c r="I4" t="n">
-        <v>105.9429381807737</v>
+        <v>28.2594521735162</v>
       </c>
       <c r="J4" t="n">
-        <v>457.0840199790462</v>
+        <v>12.83777351314828</v>
       </c>
       <c r="K4" t="n">
-        <v>27.55681735760691</v>
+        <v>37.20437006317335</v>
       </c>
       <c r="L4" t="n">
-        <v>40.50093673478116</v>
+        <v>14.61800060577055</v>
       </c>
       <c r="M4" t="n">
-        <v>100.4673386476411</v>
+        <v>116.8987995384657</v>
       </c>
       <c r="N4" t="n">
-        <v>270.6407477191044</v>
+        <v>89.52387086196559</v>
       </c>
       <c r="O4" t="n">
-        <v>97.87093482447301</v>
+        <v>58.85580193896313</v>
       </c>
       <c r="P4" t="n">
-        <v>86.62068950287372</v>
+        <v>72.57796056686448</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.69385928673324</v>
+        <v>13.61422827168236</v>
       </c>
       <c r="R4" t="n">
-        <v>70.06644229093979</v>
+        <v>45.61509985549452</v>
       </c>
       <c r="S4" t="n">
-        <v>100.1688837002555</v>
+        <v>178.1596278728473</v>
       </c>
       <c r="T4" t="n">
-        <v>131.6026368598488</v>
+        <v>58.7681771946576</v>
       </c>
       <c r="U4" t="n">
-        <v>94.64545658514696</v>
+        <v>31.68803344707005</v>
       </c>
       <c r="V4" t="n">
-        <v>44.58478991136457</v>
+        <v>113.6737912432884</v>
       </c>
       <c r="W4" t="n">
-        <v>40.61469234057648</v>
+        <v>81.86832143047799</v>
       </c>
       <c r="X4" t="n">
-        <v>42.17092815136034</v>
+        <v>41.61470567247783</v>
       </c>
       <c r="Y4" t="n">
-        <v>62.62478678438841</v>
+        <v>55.54488983565847</v>
       </c>
       <c r="Z4" t="n">
-        <v>82.23077159271799</v>
+        <v>46.73188012131982</v>
       </c>
       <c r="AA4" t="n">
-        <v>42.35612493685409</v>
+        <v>80.89977448654179</v>
       </c>
       <c r="AB4" t="n">
-        <v>67.97116393995763</v>
+        <v>75.93820472703351</v>
       </c>
       <c r="AC4" t="n">
-        <v>122.6422263371373</v>
+        <v>61.47108038539547</v>
       </c>
       <c r="AD4" t="n">
-        <v>63.06009419977654</v>
+        <v>78.77490305394967</v>
       </c>
       <c r="AE4" t="n">
-        <v>97.53321472100419</v>
+        <v>80.0307489393951</v>
       </c>
       <c r="AF4" t="n">
-        <v>60.62608737967831</v>
+        <v>88.08047696765735</v>
       </c>
       <c r="AG4" t="n">
-        <v>43.3770969248329</v>
+        <v>49.94986891831027</v>
       </c>
       <c r="AH4" t="n">
-        <v>41.39188494148718</v>
+        <v>76.88627904420795</v>
       </c>
       <c r="AI4" t="n">
-        <v>50.1617353194384</v>
+        <v>51.21877375402161</v>
       </c>
       <c r="AJ4" t="n">
-        <v>37.13079277209147</v>
+        <v>32.31720683522043</v>
       </c>
       <c r="AK4" t="n">
-        <v>36.47118992509246</v>
+        <v>40.45638626716653</v>
       </c>
       <c r="AL4" t="n">
-        <v>43.14810509956587</v>
+        <v>65.455771580896</v>
       </c>
       <c r="AM4" t="n">
-        <v>34.03877872260225</v>
+        <v>59.23051369863293</v>
       </c>
       <c r="AN4" t="n">
-        <v>25.73699746872966</v>
+        <v>58.12828068111496</v>
       </c>
       <c r="AO4" t="n">
-        <v>15.25758365158703</v>
+        <v>18.10031232379955</v>
       </c>
       <c r="AP4" t="n">
-        <v>8.219643518207087</v>
+        <v>20.23716017376169</v>
       </c>
       <c r="AQ4" t="n">
-        <v>9.043001391118246</v>
+        <v>15.97049154319547</v>
       </c>
       <c r="AR4" t="n">
-        <v>9.275508070930327</v>
+        <v>16.3804384488691</v>
       </c>
       <c r="AS4" t="n">
-        <v>17.73598204081632</v>
+        <v>14.66732462673636</v>
       </c>
       <c r="AT4" t="n">
-        <v>14.81265830983143</v>
+        <v>10.50669710618081</v>
       </c>
       <c r="AU4" t="n">
-        <v>15.06527443233232</v>
+        <v>18.26300330624445</v>
       </c>
       <c r="AV4" t="n">
-        <v>5.94405</v>
+        <v>15.68572559249646</v>
       </c>
       <c r="AW4" t="n">
-        <v>12.37548134620402</v>
+        <v>7.114241774058432</v>
       </c>
       <c r="AX4" t="n">
-        <v>14.52669658086016</v>
+        <v>11.83413824201466</v>
       </c>
     </row>
     <row r="5">
@@ -1149,148 +1149,148 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>22.44892898591376</v>
+        <v>54.3632100225102</v>
       </c>
       <c r="D5" t="n">
-        <v>15.11560025245471</v>
+        <v>7.969961068706682</v>
       </c>
       <c r="E5" t="n">
-        <v>2.261392979256998</v>
+        <v>13.97820049467912</v>
       </c>
       <c r="F5" t="n">
-        <v>26.31720224305937</v>
+        <v>7.019820692847621</v>
       </c>
       <c r="G5" t="n">
-        <v>33.51902445265665</v>
+        <v>138.844569335979</v>
       </c>
       <c r="H5" t="n">
-        <v>18.91434768827147</v>
+        <v>28.72580533350414</v>
       </c>
       <c r="I5" t="n">
-        <v>17.79331317314417</v>
+        <v>94.64525054159076</v>
       </c>
       <c r="J5" t="n">
-        <v>20.63546882379968</v>
+        <v>20.92855970906171</v>
       </c>
       <c r="K5" t="n">
-        <v>6.2575145671507</v>
+        <v>3.244188353763207</v>
       </c>
       <c r="L5" t="n">
-        <v>9.930252029110996</v>
+        <v>88.30232303354174</v>
       </c>
       <c r="M5" t="n">
-        <v>27.35990187619836</v>
+        <v>47.28529351798866</v>
       </c>
       <c r="N5" t="n">
-        <v>3.532683530992188</v>
+        <v>18.5398953143193</v>
       </c>
       <c r="O5" t="n">
-        <v>86.65816178198673</v>
+        <v>8.502386891614922</v>
       </c>
       <c r="P5" t="n">
-        <v>33.39139775783974</v>
+        <v>131.6020207826689</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.5819561094141</v>
+        <v>34.7804595834876</v>
       </c>
       <c r="R5" t="n">
-        <v>36.75645754137209</v>
+        <v>71.70612967329181</v>
       </c>
       <c r="S5" t="n">
-        <v>78.05106060795814</v>
+        <v>33.24347616139932</v>
       </c>
       <c r="T5" t="n">
-        <v>24.44019838476168</v>
+        <v>9.965563924827308</v>
       </c>
       <c r="U5" t="n">
-        <v>36.52887458479174</v>
+        <v>37.60870861254004</v>
       </c>
       <c r="V5" t="n">
-        <v>112.0064811468264</v>
+        <v>87.72245017426158</v>
       </c>
       <c r="W5" t="n">
-        <v>56.90530431957738</v>
+        <v>75.54295448387269</v>
       </c>
       <c r="X5" t="n">
-        <v>36.44949407927169</v>
+        <v>25.7471517756461</v>
       </c>
       <c r="Y5" t="n">
-        <v>62.97080662382605</v>
+        <v>47.60688580754642</v>
       </c>
       <c r="Z5" t="n">
-        <v>9.81429176967008</v>
+        <v>76.00468358099266</v>
       </c>
       <c r="AA5" t="n">
-        <v>37.16193282764642</v>
+        <v>49.78200751307072</v>
       </c>
       <c r="AB5" t="n">
-        <v>25.5991208181616</v>
+        <v>19.70834828260235</v>
       </c>
       <c r="AC5" t="n">
-        <v>23.98769032598798</v>
+        <v>37.38052895769741</v>
       </c>
       <c r="AD5" t="n">
-        <v>56.08432135501945</v>
+        <v>27.02374154973426</v>
       </c>
       <c r="AE5" t="n">
-        <v>23.13405250603731</v>
+        <v>15.53677203810151</v>
       </c>
       <c r="AF5" t="n">
-        <v>60.42366985188999</v>
+        <v>6.093106326133892</v>
       </c>
       <c r="AG5" t="n">
-        <v>18.02895071575991</v>
+        <v>21.87447975288054</v>
       </c>
       <c r="AH5" t="n">
-        <v>16.8301975279533</v>
+        <v>18.13244502386291</v>
       </c>
       <c r="AI5" t="n">
-        <v>16.98554954588458</v>
+        <v>22.65025997642596</v>
       </c>
       <c r="AJ5" t="n">
-        <v>21.98437710905849</v>
+        <v>93.25814706364856</v>
       </c>
       <c r="AK5" t="n">
-        <v>17.23823210845375</v>
+        <v>74.14589499433794</v>
       </c>
       <c r="AL5" t="n">
-        <v>19.91126691610487</v>
+        <v>12.21243009395315</v>
       </c>
       <c r="AM5" t="n">
-        <v>19.36154143595001</v>
+        <v>21.95036913559455</v>
       </c>
       <c r="AN5" t="n">
-        <v>13.03326566345492</v>
+        <v>29.85970936122751</v>
       </c>
       <c r="AO5" t="n">
-        <v>9.582314910680582</v>
+        <v>20.91748303885911</v>
       </c>
       <c r="AP5" t="n">
-        <v>20.9909114354816</v>
+        <v>17.90769805459558</v>
       </c>
       <c r="AQ5" t="n">
-        <v>9.426309682899323</v>
+        <v>35.27331292656773</v>
       </c>
       <c r="AR5" t="n">
-        <v>19.79217067152018</v>
+        <v>20.30415246728693</v>
       </c>
       <c r="AS5" t="n">
-        <v>27.79431868269402</v>
+        <v>26.81838824263438</v>
       </c>
       <c r="AT5" t="n">
-        <v>9.070691364531035</v>
+        <v>39.29303004425862</v>
       </c>
       <c r="AU5" t="n">
-        <v>7.037824741686638</v>
+        <v>8.735809197476271</v>
       </c>
       <c r="AV5" t="n">
-        <v>21.88247479182084</v>
+        <v>47.66794674763508</v>
       </c>
       <c r="AW5" t="n">
-        <v>22.79179169955333</v>
+        <v>50.13556073522586</v>
       </c>
       <c r="AX5" t="n">
-        <v>13.29622379800198</v>
+        <v>15.59666599742006</v>
       </c>
     </row>
     <row r="6">
@@ -1301,148 +1301,148 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>4.5883893142274</v>
+        <v>0.9524001978916113</v>
       </c>
       <c r="D6" t="n">
-        <v>1.695320627586872</v>
+        <v>6.516689815825649</v>
       </c>
       <c r="E6" t="n">
-        <v>10.08976047140517</v>
+        <v>3.665772533582992</v>
       </c>
       <c r="F6" t="n">
-        <v>14.06120584928588</v>
+        <v>9.362415392188357</v>
       </c>
       <c r="G6" t="n">
-        <v>3.117696765540964</v>
+        <v>5.962820580539475</v>
       </c>
       <c r="H6" t="n">
-        <v>5.759965472843537</v>
+        <v>5.632767423852877</v>
       </c>
       <c r="I6" t="n">
-        <v>13.45147338451332</v>
+        <v>4.702590611335825</v>
       </c>
       <c r="J6" t="n">
-        <v>7.777082034598806</v>
+        <v>11.1171564589799</v>
       </c>
       <c r="K6" t="n">
-        <v>22.35851219888492</v>
+        <v>12.1441162222302</v>
       </c>
       <c r="L6" t="n">
-        <v>8.452124999999999</v>
+        <v>14.25722774819559</v>
       </c>
       <c r="M6" t="n">
-        <v>37.09466312025686</v>
+        <v>10.68636535997916</v>
       </c>
       <c r="N6" t="n">
-        <v>79.70559441894619</v>
+        <v>16.69543809962907</v>
       </c>
       <c r="O6" t="n">
-        <v>42.09304689523668</v>
+        <v>3.812298729203615</v>
       </c>
       <c r="P6" t="n">
-        <v>39.03833101094878</v>
+        <v>26.1988308456588</v>
       </c>
       <c r="Q6" t="n">
-        <v>21.24113349745664</v>
+        <v>16.83730172660194</v>
       </c>
       <c r="R6" t="n">
-        <v>17.3777977134353</v>
+        <v>27.92099406040982</v>
       </c>
       <c r="S6" t="n">
-        <v>9.926422256614153</v>
+        <v>47.1309882555673</v>
       </c>
       <c r="T6" t="n">
-        <v>30.0223889868489</v>
+        <v>30.69251703126947</v>
       </c>
       <c r="U6" t="n">
-        <v>39.20459081074397</v>
+        <v>36.8006596428127</v>
       </c>
       <c r="V6" t="n">
-        <v>12.08144219076264</v>
+        <v>13.54266117871194</v>
       </c>
       <c r="W6" t="n">
-        <v>13.41996484647066</v>
+        <v>40.18287977698995</v>
       </c>
       <c r="X6" t="n">
-        <v>40.15033736181381</v>
+        <v>16.93387094178423</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.68505714093397</v>
+        <v>18.38042414072463</v>
       </c>
       <c r="Z6" t="n">
-        <v>12.26033574499735</v>
+        <v>16.72893528817626</v>
       </c>
       <c r="AA6" t="n">
-        <v>33.39714285714285</v>
+        <v>14.1522489953233</v>
       </c>
       <c r="AB6" t="n">
-        <v>17.41379690982048</v>
+        <v>13.58347929758874</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.6069550528222</v>
+        <v>16.02176672986212</v>
       </c>
       <c r="AD6" t="n">
-        <v>13.23360065068814</v>
+        <v>19.83346355185364</v>
       </c>
       <c r="AE6" t="n">
-        <v>3.963711457952179</v>
+        <v>46.6085273991403</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.608277594762026</v>
+        <v>11.16406738277207</v>
       </c>
       <c r="AG6" t="n">
-        <v>18.43921850384016</v>
+        <v>4.384593677031193</v>
       </c>
       <c r="AH6" t="n">
-        <v>4.459644765873989</v>
+        <v>15.89459363006523</v>
       </c>
       <c r="AI6" t="n">
-        <v>23.35231607870538</v>
+        <v>6.029064183714133</v>
       </c>
       <c r="AJ6" t="n">
-        <v>7.101872151065407</v>
+        <v>3.04151646202502</v>
       </c>
       <c r="AK6" t="n">
-        <v>8.750403649203143</v>
+        <v>2.906996818200119</v>
       </c>
       <c r="AL6" t="n">
-        <v>2.387088877539254</v>
+        <v>13.39465644311259</v>
       </c>
       <c r="AM6" t="n">
-        <v>6.127304075900094</v>
+        <v>2.394027331176646</v>
       </c>
       <c r="AN6" t="n">
-        <v>1.33625</v>
+        <v>1.885060979348643</v>
       </c>
       <c r="AO6" t="n">
-        <v>3.62433853485756</v>
+        <v>1.528713100051568</v>
       </c>
       <c r="AP6" t="n">
-        <v>4.58388832780805</v>
+        <v>3.630147572754423</v>
       </c>
       <c r="AQ6" t="n">
-        <v>5.172215891530278</v>
+        <v>3.428322544241384</v>
       </c>
       <c r="AR6" t="n">
-        <v>1.701183463556872</v>
+        <v>1.568908017558294</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.607346262127613</v>
+        <v>2.737126066257309</v>
       </c>
       <c r="AT6" t="n">
-        <v>4.403939537344069</v>
+        <v>2.541276061643598</v>
       </c>
       <c r="AU6" t="n">
-        <v>2.139006044349332</v>
+        <v>2.477329554580878</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.01529595048557246</v>
+        <v>1.817578114938667</v>
       </c>
       <c r="AW6" t="n">
-        <v>5.996129531530904</v>
+        <v>0.9113775774009003</v>
       </c>
       <c r="AX6" t="n">
-        <v>1.366528679752475</v>
+        <v>1.304545554543517</v>
       </c>
     </row>
     <row r="7">
@@ -1453,148 +1453,148 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>25.55</v>
+        <v>1.603707473219988</v>
       </c>
       <c r="D7" t="n">
-        <v>9.51</v>
+        <v>7.883625607957903</v>
       </c>
       <c r="E7" t="n">
-        <v>16.16</v>
+        <v>4.575894745995947</v>
       </c>
       <c r="F7" t="n">
-        <v>9.91</v>
+        <v>6.274234765678588</v>
       </c>
       <c r="G7" t="n">
-        <v>26.35</v>
+        <v>4.452831204057755</v>
       </c>
       <c r="H7" t="n">
-        <v>8.949999999999999</v>
+        <v>41.17304661345189</v>
       </c>
       <c r="I7" t="n">
-        <v>19.62</v>
+        <v>46.43337321295517</v>
       </c>
       <c r="J7" t="n">
-        <v>1.78</v>
+        <v>29.93361151055742</v>
       </c>
       <c r="K7" t="n">
-        <v>32.47</v>
+        <v>6.922206502024602</v>
       </c>
       <c r="L7" t="n">
-        <v>15.78038919471566</v>
+        <v>20.89977258711633</v>
       </c>
       <c r="M7" t="n">
-        <v>28.35</v>
+        <v>62.1114522949313</v>
       </c>
       <c r="N7" t="n">
-        <v>110.67</v>
+        <v>5.358797618512122</v>
       </c>
       <c r="O7" t="n">
-        <v>30.73</v>
+        <v>22.78289539595741</v>
       </c>
       <c r="P7" t="n">
-        <v>60.1</v>
+        <v>9.822273073494136</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.03</v>
+        <v>17.28666708599915</v>
       </c>
       <c r="R7" t="n">
-        <v>20.33852</v>
+        <v>34.7869717375735</v>
       </c>
       <c r="S7" t="n">
-        <v>17.35</v>
+        <v>5.055627075489133</v>
       </c>
       <c r="T7" t="n">
-        <v>82.29000000000001</v>
+        <v>31.97122422946212</v>
       </c>
       <c r="U7" t="n">
-        <v>42.19</v>
+        <v>14.85570693712803</v>
       </c>
       <c r="V7" t="n">
-        <v>97.52</v>
+        <v>4.020959696740285</v>
       </c>
       <c r="W7" t="n">
-        <v>129.2628571428571</v>
+        <v>20.69942398862375</v>
       </c>
       <c r="X7" t="n">
-        <v>24.03</v>
+        <v>29.2992527844508</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.824674285714282</v>
+        <v>71.28385794637721</v>
       </c>
       <c r="Z7" t="n">
-        <v>1</v>
+        <v>56.00390562477333</v>
       </c>
       <c r="AA7" t="n">
-        <v>7.04</v>
+        <v>6.349411861684091</v>
       </c>
       <c r="AB7" t="n">
-        <v>5.55</v>
+        <v>1.098168504699771</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.03</v>
+        <v>31.10052325538587</v>
       </c>
       <c r="AD7" t="n">
-        <v>23.82</v>
+        <v>21.1293030628012</v>
       </c>
       <c r="AE7" t="n">
-        <v>2</v>
+        <v>0.7697981392833074</v>
       </c>
       <c r="AF7" t="n">
-        <v>10.23</v>
+        <v>3.093426511588763</v>
       </c>
       <c r="AG7" t="n">
-        <v>17.6</v>
+        <v>8.488078161750046</v>
       </c>
       <c r="AH7" t="n">
-        <v>2.25</v>
+        <v>26.94542058956523</v>
       </c>
       <c r="AI7" t="n">
-        <v>6.74</v>
+        <v>0.3732197569311115</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10.68</v>
+        <v>3.121855762035069</v>
       </c>
       <c r="AK7" t="n">
-        <v>5.308878430121251</v>
+        <v>3.549476975404056</v>
       </c>
       <c r="AL7" t="n">
-        <v>4.28</v>
+        <v>10.03388232339532</v>
       </c>
       <c r="AM7" t="n">
-        <v>8.07</v>
+        <v>12.35439608581793</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.85</v>
+        <v>2.612670159557179</v>
       </c>
       <c r="AO7" t="n">
-        <v>11.98</v>
+        <v>6.303006866530994</v>
       </c>
       <c r="AP7" t="n">
-        <v>20.69</v>
+        <v>5.626791705558407</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.52</v>
+        <v>2.147277794741732</v>
       </c>
       <c r="AR7" t="n">
-        <v>21.65</v>
+        <v>4.621150653747605</v>
       </c>
       <c r="AS7" t="n">
-        <v>3.789709554670829</v>
+        <v>1.612186824298534</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.79640862857143</v>
+        <v>6.853329045139911</v>
       </c>
       <c r="AU7" t="n">
-        <v>14</v>
+        <v>4.882339154013865</v>
       </c>
       <c r="AV7" t="n">
-        <v>3.37</v>
+        <v>3.113226500080243</v>
       </c>
       <c r="AW7" t="n">
-        <v>10.96</v>
+        <v>7.530026198542918</v>
       </c>
       <c r="AX7" t="n">
-        <v>1.93</v>
+        <v>11.06061408559901</v>
       </c>
     </row>
     <row r="8">
@@ -1605,148 +1605,148 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.01506321636317</v>
+        <v>11.81129444688035</v>
       </c>
       <c r="D8" t="n">
-        <v>19.54575779076989</v>
+        <v>21.64087243071929</v>
       </c>
       <c r="E8" t="n">
-        <v>28.88452195816621</v>
+        <v>14.27166627739413</v>
       </c>
       <c r="F8" t="n">
-        <v>50.70305648497071</v>
+        <v>28.39543066269753</v>
       </c>
       <c r="G8" t="n">
-        <v>23.09598031245706</v>
+        <v>14.78986075066785</v>
       </c>
       <c r="H8" t="n">
-        <v>15.37598340107538</v>
+        <v>14.60081863152097</v>
       </c>
       <c r="I8" t="n">
-        <v>19.10038238195034</v>
+        <v>35.37247895778025</v>
       </c>
       <c r="J8" t="n">
-        <v>35.52187276806372</v>
+        <v>125.2477145022042</v>
       </c>
       <c r="K8" t="n">
-        <v>15.93807682898287</v>
+        <v>47.31456532709286</v>
       </c>
       <c r="L8" t="n">
-        <v>10.48431861391196</v>
+        <v>108.7588641265401</v>
       </c>
       <c r="M8" t="n">
-        <v>58.52129420801252</v>
+        <v>30.35645770680575</v>
       </c>
       <c r="N8" t="n">
-        <v>186.4728531807068</v>
+        <v>141.9361904940232</v>
       </c>
       <c r="O8" t="n">
-        <v>67.39598936394665</v>
+        <v>36.25794032924288</v>
       </c>
       <c r="P8" t="n">
-        <v>27.70069500920043</v>
+        <v>82.52649177928951</v>
       </c>
       <c r="Q8" t="n">
-        <v>93.71645000000001</v>
+        <v>36.34556026130849</v>
       </c>
       <c r="R8" t="n">
-        <v>54.79834738481088</v>
+        <v>75.32230555413143</v>
       </c>
       <c r="S8" t="n">
-        <v>37.81986700216743</v>
+        <v>75.78542118514989</v>
       </c>
       <c r="T8" t="n">
-        <v>81.53492500000002</v>
+        <v>60.3414311780925</v>
       </c>
       <c r="U8" t="n">
-        <v>93.01117255364075</v>
+        <v>28.05695465548047</v>
       </c>
       <c r="V8" t="n">
-        <v>48.39734708612757</v>
+        <v>94.92303810755553</v>
       </c>
       <c r="W8" t="n">
-        <v>67.96093588163875</v>
+        <v>88.57014659299011</v>
       </c>
       <c r="X8" t="n">
-        <v>87.67152370542122</v>
+        <v>73.28765479467998</v>
       </c>
       <c r="Y8" t="n">
-        <v>62.61955983175955</v>
+        <v>48.27432771021939</v>
       </c>
       <c r="Z8" t="n">
-        <v>47.1082988027807</v>
+        <v>66.70663283771989</v>
       </c>
       <c r="AA8" t="n">
-        <v>63.15134015511184</v>
+        <v>80.60805832911524</v>
       </c>
       <c r="AB8" t="n">
-        <v>100.7849608962909</v>
+        <v>77.11744200711817</v>
       </c>
       <c r="AC8" t="n">
-        <v>126.7592297332548</v>
+        <v>92.72610219908326</v>
       </c>
       <c r="AD8" t="n">
-        <v>111.9475549623868</v>
+        <v>50.56465266275291</v>
       </c>
       <c r="AE8" t="n">
-        <v>86.7705676316007</v>
+        <v>95.38785167410012</v>
       </c>
       <c r="AF8" t="n">
-        <v>109.8982601945619</v>
+        <v>164.449757101523</v>
       </c>
       <c r="AG8" t="n">
-        <v>123.5471473984695</v>
+        <v>102.1758398004073</v>
       </c>
       <c r="AH8" t="n">
-        <v>212.291119525156</v>
+        <v>83.54536312111763</v>
       </c>
       <c r="AI8" t="n">
-        <v>32.49896981494649</v>
+        <v>125.0457053217412</v>
       </c>
       <c r="AJ8" t="n">
-        <v>187.2293059340336</v>
+        <v>91.38386144084186</v>
       </c>
       <c r="AK8" t="n">
-        <v>46.69826193789162</v>
+        <v>106.7924069283809</v>
       </c>
       <c r="AL8" t="n">
-        <v>97.34756173265511</v>
+        <v>76.21564295100397</v>
       </c>
       <c r="AM8" t="n">
-        <v>40.74450685528253</v>
+        <v>20.00208451616999</v>
       </c>
       <c r="AN8" t="n">
-        <v>60.23582431484748</v>
+        <v>33.44193089408621</v>
       </c>
       <c r="AO8" t="n">
-        <v>44.04246258050715</v>
+        <v>26.99429063329849</v>
       </c>
       <c r="AP8" t="n">
-        <v>42.58094363209999</v>
+        <v>40.32046960411422</v>
       </c>
       <c r="AQ8" t="n">
-        <v>19.67714494304165</v>
+        <v>23.04195932380488</v>
       </c>
       <c r="AR8" t="n">
-        <v>46.70805919463658</v>
+        <v>10.99019454428143</v>
       </c>
       <c r="AS8" t="n">
-        <v>22.44974054439405</v>
+        <v>19.77507871343452</v>
       </c>
       <c r="AT8" t="n">
-        <v>26.00459025139358</v>
+        <v>41.51201806976034</v>
       </c>
       <c r="AU8" t="n">
-        <v>20.67232057610142</v>
+        <v>22.17153517000528</v>
       </c>
       <c r="AV8" t="n">
-        <v>14.25940344475502</v>
+        <v>18.65008686025235</v>
       </c>
       <c r="AW8" t="n">
-        <v>22.83424415476471</v>
+        <v>17.80171468648592</v>
       </c>
       <c r="AX8" t="n">
-        <v>22.10975452861586</v>
+        <v>33.02168118630767</v>
       </c>
     </row>
     <row r="9">
@@ -1757,148 +1757,148 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>1.805979032108571</v>
+        <v>1.936096145211849</v>
       </c>
       <c r="D9" t="n">
-        <v>3.658868024830137</v>
+        <v>2.530555983120635</v>
       </c>
       <c r="E9" t="n">
-        <v>2.481574603174604</v>
+        <v>4.85784480488611</v>
       </c>
       <c r="F9" t="n">
-        <v>6.608185888489412</v>
+        <v>0.6997459711399873</v>
       </c>
       <c r="G9" t="n">
-        <v>5.529439769483801</v>
+        <v>4.16717231476621</v>
       </c>
       <c r="H9" t="n">
-        <v>4.175145378434838</v>
+        <v>3.257732475676887</v>
       </c>
       <c r="I9" t="n">
-        <v>3.267416165751807</v>
+        <v>2.241035058198826</v>
       </c>
       <c r="J9" t="n">
-        <v>2.29567249042505</v>
+        <v>0.7551552466804546</v>
       </c>
       <c r="K9" t="n">
-        <v>5.446364026565777</v>
+        <v>23.38241686141029</v>
       </c>
       <c r="L9" t="n">
-        <v>9.768545486389273</v>
+        <v>2.241143224676128</v>
       </c>
       <c r="M9" t="n">
-        <v>5.724881578265284</v>
+        <v>0.818485823145035</v>
       </c>
       <c r="N9" t="n">
-        <v>3.064643586059355</v>
+        <v>23.06503120894281</v>
       </c>
       <c r="O9" t="n">
-        <v>9.077173954775089</v>
+        <v>5.40088374181081</v>
       </c>
       <c r="P9" t="n">
-        <v>4.82032864267278</v>
+        <v>3.802783076113818</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.402557461961801</v>
+        <v>2.795181191733111</v>
       </c>
       <c r="R9" t="n">
-        <v>3.035649766493429</v>
+        <v>1.523373820417863</v>
       </c>
       <c r="S9" t="n">
-        <v>9.568787931529743</v>
+        <v>9.426430293215494</v>
       </c>
       <c r="T9" t="n">
-        <v>2.178160790897221</v>
+        <v>5.460006531882023</v>
       </c>
       <c r="U9" t="n">
-        <v>2.921302989108843</v>
+        <v>3.613290086988361</v>
       </c>
       <c r="V9" t="n">
-        <v>5.940584084247096</v>
+        <v>4.640913475022178</v>
       </c>
       <c r="W9" t="n">
-        <v>0.6325828619780076</v>
+        <v>4.547591430431706</v>
       </c>
       <c r="X9" t="n">
-        <v>6.469063126875407</v>
+        <v>4.978780083210148</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.995924355555218</v>
+        <v>5.295682885889475</v>
       </c>
       <c r="Z9" t="n">
-        <v>6.037704140181513</v>
+        <v>8.112138451613383</v>
       </c>
       <c r="AA9" t="n">
-        <v>3.400523225132771</v>
+        <v>2.429397065645461</v>
       </c>
       <c r="AB9" t="n">
-        <v>4.295945266347004</v>
+        <v>5.245734704982207</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.296500506480635</v>
+        <v>6.883656051485326</v>
       </c>
       <c r="AD9" t="n">
-        <v>3.766544533700519</v>
+        <v>8.876573840532084</v>
       </c>
       <c r="AE9" t="n">
-        <v>3.075742441134091</v>
+        <v>7.186417833374465</v>
       </c>
       <c r="AF9" t="n">
-        <v>7.841932000000001</v>
+        <v>10.8769501779191</v>
       </c>
       <c r="AG9" t="n">
-        <v>5.606073377540284</v>
+        <v>8.624804189476855</v>
       </c>
       <c r="AH9" t="n">
-        <v>2.218424241580637</v>
+        <v>5.105166958583016</v>
       </c>
       <c r="AI9" t="n">
-        <v>5.474002722702547</v>
+        <v>5.249686597491929</v>
       </c>
       <c r="AJ9" t="n">
-        <v>5.548738665176844</v>
+        <v>3.373338443453247</v>
       </c>
       <c r="AK9" t="n">
-        <v>3.60731425656104</v>
+        <v>6.467307972289383</v>
       </c>
       <c r="AL9" t="n">
-        <v>5.804184201565673</v>
+        <v>6.160269285074975</v>
       </c>
       <c r="AM9" t="n">
-        <v>5.746839259515023</v>
+        <v>4.008879884047315</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.076571813423971</v>
+        <v>3.683355351785917</v>
       </c>
       <c r="AO9" t="n">
-        <v>3.278432080013103</v>
+        <v>2.775981327245816</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.913387634867585</v>
+        <v>1.930225446008666</v>
       </c>
       <c r="AQ9" t="n">
-        <v>3.292175139583426</v>
+        <v>1.896628027203499</v>
       </c>
       <c r="AR9" t="n">
-        <v>7.941260268449611</v>
+        <v>1.733437362149894</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.933737024221454</v>
+        <v>3.44461479841009</v>
       </c>
       <c r="AT9" t="n">
-        <v>4.673604172131574</v>
+        <v>0.6433034713268181</v>
       </c>
       <c r="AU9" t="n">
-        <v>4.943309594219016</v>
+        <v>2.371723887962691</v>
       </c>
       <c r="AV9" t="n">
-        <v>6.820174573777388</v>
+        <v>5.169038087118191</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.03327247605723067</v>
+        <v>1.381199286271863</v>
       </c>
       <c r="AX9" t="n">
-        <v>2.686924348579075</v>
+        <v>2.791744711407993</v>
       </c>
     </row>
     <row r="10">
@@ -1909,148 +1909,148 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>7.996519701395651</v>
+        <v>15.79656662335697</v>
       </c>
       <c r="D10" t="n">
-        <v>9.933589210881696</v>
+        <v>11.41680219125005</v>
       </c>
       <c r="E10" t="n">
-        <v>15.53096247238173</v>
+        <v>25.53130503199039</v>
       </c>
       <c r="F10" t="n">
-        <v>15.68798932351503</v>
+        <v>10.58811795849155</v>
       </c>
       <c r="G10" t="n">
-        <v>15.74428420737594</v>
+        <v>5.539778860182878</v>
       </c>
       <c r="H10" t="n">
-        <v>15.53660559988698</v>
+        <v>13.10830841073868</v>
       </c>
       <c r="I10" t="n">
-        <v>128.8118927035721</v>
+        <v>21.05296169344415</v>
       </c>
       <c r="J10" t="n">
-        <v>10.72121890067502</v>
+        <v>25.12199883747038</v>
       </c>
       <c r="K10" t="n">
-        <v>8.939705463718456</v>
+        <v>13.5520813060308</v>
       </c>
       <c r="L10" t="n">
-        <v>9.969983371878874</v>
+        <v>31.06332723013445</v>
       </c>
       <c r="M10" t="n">
-        <v>84.31102308426095</v>
+        <v>42.02911807181086</v>
       </c>
       <c r="N10" t="n">
-        <v>87.80100948180312</v>
+        <v>129.7016038744354</v>
       </c>
       <c r="O10" t="n">
-        <v>74.31704444047831</v>
+        <v>15.01970767312044</v>
       </c>
       <c r="P10" t="n">
-        <v>86.62068950287372</v>
+        <v>71.47852775604849</v>
       </c>
       <c r="Q10" t="n">
-        <v>209.9692385592495</v>
+        <v>23.35233925003706</v>
       </c>
       <c r="R10" t="n">
-        <v>95.29076508585304</v>
+        <v>70.52037663535306</v>
       </c>
       <c r="S10" t="n">
-        <v>155.6644828130329</v>
+        <v>35.37880317915343</v>
       </c>
       <c r="T10" t="n">
-        <v>38.13898301082941</v>
+        <v>30.48524738869517</v>
       </c>
       <c r="U10" t="n">
-        <v>37.14579732523099</v>
+        <v>38.95608363241035</v>
       </c>
       <c r="V10" t="n">
-        <v>49.87798964847116</v>
+        <v>46.61563431655296</v>
       </c>
       <c r="W10" t="n">
-        <v>60.52839108405562</v>
+        <v>90.68607470034384</v>
       </c>
       <c r="X10" t="n">
-        <v>193.4608633694257</v>
+        <v>23.45711405049406</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.4175498923105</v>
+        <v>98.07509677223295</v>
       </c>
       <c r="Z10" t="n">
-        <v>40.5444948020013</v>
+        <v>52.86644735050972</v>
       </c>
       <c r="AA10" t="n">
-        <v>54.8708449680332</v>
+        <v>93.36755415431111</v>
       </c>
       <c r="AB10" t="n">
-        <v>107.0916681336385</v>
+        <v>116.434621236982</v>
       </c>
       <c r="AC10" t="n">
-        <v>31.15654340205784</v>
+        <v>51.02151415213252</v>
       </c>
       <c r="AD10" t="n">
-        <v>57.57183805214504</v>
+        <v>73.3785359560617</v>
       </c>
       <c r="AE10" t="n">
-        <v>92.28961754194002</v>
+        <v>54.98436599599883</v>
       </c>
       <c r="AF10" t="n">
-        <v>95.67477328475765</v>
+        <v>118.7411846071445</v>
       </c>
       <c r="AG10" t="n">
-        <v>121.2612772099953</v>
+        <v>64.79961180370894</v>
       </c>
       <c r="AH10" t="n">
-        <v>74.87465363335689</v>
+        <v>52.77794475423107</v>
       </c>
       <c r="AI10" t="n">
-        <v>48.18061365997735</v>
+        <v>55.02997206065051</v>
       </c>
       <c r="AJ10" t="n">
-        <v>37.13079277209147</v>
+        <v>24.34161739061506</v>
       </c>
       <c r="AK10" t="n">
-        <v>45.11223092854679</v>
+        <v>62.96207898943093</v>
       </c>
       <c r="AL10" t="n">
-        <v>24.2775536697817</v>
+        <v>35.40193370232498</v>
       </c>
       <c r="AM10" t="n">
-        <v>49.62861242857144</v>
+        <v>44.53214853659509</v>
       </c>
       <c r="AN10" t="n">
-        <v>39.53016438019131</v>
+        <v>46.62604816432253</v>
       </c>
       <c r="AO10" t="n">
-        <v>35.61035204567079</v>
+        <v>24.12495982982631</v>
       </c>
       <c r="AP10" t="n">
-        <v>14.83102239692329</v>
+        <v>31.32316179126327</v>
       </c>
       <c r="AQ10" t="n">
-        <v>9.769212392179208</v>
+        <v>14.51957306426005</v>
       </c>
       <c r="AR10" t="n">
-        <v>18.38818896949616</v>
+        <v>17.95776034629168</v>
       </c>
       <c r="AS10" t="n">
-        <v>14.17893494365744</v>
+        <v>19.41782102689589</v>
       </c>
       <c r="AT10" t="n">
-        <v>17.9741048053125</v>
+        <v>11.85545181062119</v>
       </c>
       <c r="AU10" t="n">
-        <v>13.56282420342502</v>
+        <v>22.8106694623181</v>
       </c>
       <c r="AV10" t="n">
-        <v>5.083789160944853</v>
+        <v>11.74247401328808</v>
       </c>
       <c r="AW10" t="n">
-        <v>12.34676602109582</v>
+        <v>17.76452194574405</v>
       </c>
       <c r="AX10" t="n">
-        <v>8.105135040565781</v>
+        <v>7.467207152247068</v>
       </c>
     </row>
     <row r="11">
@@ -2061,148 +2061,148 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>14.47410938151051</v>
+        <v>51.62692749774114</v>
       </c>
       <c r="D11" t="n">
-        <v>16.03042503869492</v>
+        <v>25.8031047721962</v>
       </c>
       <c r="E11" t="n">
-        <v>19.7141583825623</v>
+        <v>80.39016393137443</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>4.73434338729324</v>
       </c>
       <c r="G11" t="n">
-        <v>18.81624669358896</v>
+        <v>16.08548364640031</v>
       </c>
       <c r="H11" t="n">
-        <v>26.08801497581692</v>
+        <v>8.821290805163681</v>
       </c>
       <c r="I11" t="n">
-        <v>22.50043230198792</v>
+        <v>26.90283277175558</v>
       </c>
       <c r="J11" t="n">
-        <v>1.07601085850348</v>
+        <v>8.431940502778199</v>
       </c>
       <c r="K11" t="n">
-        <v>33.56641897263446</v>
+        <v>22.69458932033967</v>
       </c>
       <c r="L11" t="n">
-        <v>112.0930294427081</v>
+        <v>77.77790937381802</v>
       </c>
       <c r="M11" t="n">
-        <v>6.281537215421724</v>
+        <v>26.9958257903492</v>
       </c>
       <c r="N11" t="n">
-        <v>10.3060498468065</v>
+        <v>64.36675377417606</v>
       </c>
       <c r="O11" t="n">
-        <v>89.03942328656669</v>
+        <v>123.0039114505894</v>
       </c>
       <c r="P11" t="n">
-        <v>98.29188631591944</v>
+        <v>188.2740875618179</v>
       </c>
       <c r="Q11" t="n">
-        <v>70.62558954276514</v>
+        <v>29.29919751197002</v>
       </c>
       <c r="R11" t="n">
-        <v>160.1930687643625</v>
+        <v>45.54770815763806</v>
       </c>
       <c r="S11" t="n">
-        <v>44.05203522588315</v>
+        <v>71.31004610632343</v>
       </c>
       <c r="T11" t="n">
-        <v>21.4655898830969</v>
+        <v>69.15419760823126</v>
       </c>
       <c r="U11" t="n">
-        <v>47.66701368294945</v>
+        <v>32.71787342540456</v>
       </c>
       <c r="V11" t="n">
-        <v>205.8231906252874</v>
+        <v>42.50860822836389</v>
       </c>
       <c r="W11" t="n">
-        <v>33.60278182157178</v>
+        <v>27.14209861362117</v>
       </c>
       <c r="X11" t="n">
-        <v>57.91714083721725</v>
+        <v>44.8434297681375</v>
       </c>
       <c r="Y11" t="n">
-        <v>27.59256343605037</v>
+        <v>40.23602551335794</v>
       </c>
       <c r="Z11" t="n">
-        <v>53.34937189312123</v>
+        <v>15.44469992075222</v>
       </c>
       <c r="AA11" t="n">
-        <v>114.0697929112154</v>
+        <v>50.52276177843696</v>
       </c>
       <c r="AB11" t="n">
-        <v>28.44660271545322</v>
+        <v>27.4918032926345</v>
       </c>
       <c r="AC11" t="n">
-        <v>85.71099202934866</v>
+        <v>21.56547561770859</v>
       </c>
       <c r="AD11" t="n">
-        <v>26.10545963428592</v>
+        <v>46.37567054974872</v>
       </c>
       <c r="AE11" t="n">
-        <v>31.93158772003248</v>
+        <v>14.4403124781163</v>
       </c>
       <c r="AF11" t="n">
-        <v>60.56375120115054</v>
+        <v>13.00245595983295</v>
       </c>
       <c r="AG11" t="n">
-        <v>18.85071519339601</v>
+        <v>112.1906144822173</v>
       </c>
       <c r="AH11" t="n">
-        <v>11.8853901946651</v>
+        <v>73.46063378704382</v>
       </c>
       <c r="AI11" t="n">
-        <v>33.98820623311118</v>
+        <v>17.85268351815964</v>
       </c>
       <c r="AJ11" t="n">
-        <v>16.95543982748147</v>
+        <v>35.90128424168752</v>
       </c>
       <c r="AK11" t="n">
-        <v>25.50347473840566</v>
+        <v>9.775398691761005</v>
       </c>
       <c r="AL11" t="n">
-        <v>26.83189537316084</v>
+        <v>13.05321224939339</v>
       </c>
       <c r="AM11" t="n">
-        <v>39.02474096138328</v>
+        <v>12.58766730003896</v>
       </c>
       <c r="AN11" t="n">
-        <v>2.849241801260292</v>
+        <v>22.81045979755632</v>
       </c>
       <c r="AO11" t="n">
-        <v>49.21936203113695</v>
+        <v>37.05638627544129</v>
       </c>
       <c r="AP11" t="n">
-        <v>4.845639788663425</v>
+        <v>12.26538909375722</v>
       </c>
       <c r="AQ11" t="n">
-        <v>8.943603317524692</v>
+        <v>43.57315163965527</v>
       </c>
       <c r="AR11" t="n">
-        <v>28.72047120520481</v>
+        <v>60.81397015749445</v>
       </c>
       <c r="AS11" t="n">
-        <v>21.8474522978441</v>
+        <v>74.83709736212226</v>
       </c>
       <c r="AT11" t="n">
-        <v>29.83114960198002</v>
+        <v>11.88942438236035</v>
       </c>
       <c r="AU11" t="n">
-        <v>31.35660408967098</v>
+        <v>12.59756272708642</v>
       </c>
       <c r="AV11" t="n">
-        <v>21.99024669692058</v>
+        <v>28.45714486744759</v>
       </c>
       <c r="AW11" t="n">
-        <v>4.506782194366852</v>
+        <v>15.42210631998878</v>
       </c>
       <c r="AX11" t="n">
-        <v>35.6687444436244</v>
+        <v>4.576339312434408</v>
       </c>
     </row>
     <row r="12">
@@ -2213,148 +2213,148 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>5.042498280267279</v>
+        <v>2.696313882472443</v>
       </c>
       <c r="D12" t="n">
-        <v>15.03779278813112</v>
+        <v>9.909316610213978</v>
       </c>
       <c r="E12" t="n">
-        <v>4.318020787463547</v>
+        <v>4.00046191139131</v>
       </c>
       <c r="F12" t="n">
-        <v>9.508189759177078</v>
+        <v>4.726076420466981</v>
       </c>
       <c r="G12" t="n">
-        <v>8.936251938148169</v>
+        <v>3.878505054631415</v>
       </c>
       <c r="H12" t="n">
-        <v>29.88839456944339</v>
+        <v>57.03033400232034</v>
       </c>
       <c r="I12" t="n">
-        <v>7.182388626259806</v>
+        <v>15.0435854727904</v>
       </c>
       <c r="J12" t="n">
-        <v>23.24434610170702</v>
+        <v>10.43437103682059</v>
       </c>
       <c r="K12" t="n">
-        <v>11.83034461002705</v>
+        <v>6.409486272512916</v>
       </c>
       <c r="L12" t="n">
-        <v>4.536812135915582</v>
+        <v>78.784091231102</v>
       </c>
       <c r="M12" t="n">
-        <v>15.65361368585207</v>
+        <v>60.80719105279881</v>
       </c>
       <c r="N12" t="n">
-        <v>55.07009626617273</v>
+        <v>73.19715035857649</v>
       </c>
       <c r="O12" t="n">
-        <v>43.91272625166207</v>
+        <v>3.408635530323828</v>
       </c>
       <c r="P12" t="n">
-        <v>12.91162087182345</v>
+        <v>43.97586039491847</v>
       </c>
       <c r="Q12" t="n">
-        <v>93.78337436986251</v>
+        <v>51.53831489642284</v>
       </c>
       <c r="R12" t="n">
-        <v>27.06253127143219</v>
+        <v>8.682674401991571</v>
       </c>
       <c r="S12" t="n">
-        <v>9.926422256614153</v>
+        <v>24.36651602126803</v>
       </c>
       <c r="T12" t="n">
-        <v>40.55973121183241</v>
+        <v>34.33765014912556</v>
       </c>
       <c r="U12" t="n">
-        <v>14.07320794125986</v>
+        <v>7.593757858494298</v>
       </c>
       <c r="V12" t="n">
-        <v>99.27307126341093</v>
+        <v>16.56260722361714</v>
       </c>
       <c r="W12" t="n">
-        <v>24.52354368981227</v>
+        <v>25.39729776149947</v>
       </c>
       <c r="X12" t="n">
-        <v>12.68657238031885</v>
+        <v>10.37195346321099</v>
       </c>
       <c r="Y12" t="n">
-        <v>24.21319607022014</v>
+        <v>10.24670648406341</v>
       </c>
       <c r="Z12" t="n">
-        <v>20.8828383326545</v>
+        <v>11.95412545116086</v>
       </c>
       <c r="AA12" t="n">
-        <v>30.45596719426539</v>
+        <v>18.04000861295729</v>
       </c>
       <c r="AB12" t="n">
-        <v>18.6045019886513</v>
+        <v>10.72700794504192</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.011149115700309</v>
+        <v>17.83243817509879</v>
       </c>
       <c r="AD12" t="n">
-        <v>21.31469089843264</v>
+        <v>26.44144476410928</v>
       </c>
       <c r="AE12" t="n">
-        <v>14.08971185009755</v>
+        <v>11.2901018795478</v>
       </c>
       <c r="AF12" t="n">
-        <v>16.01253220749082</v>
+        <v>11.87985644049225</v>
       </c>
       <c r="AG12" t="n">
-        <v>23.42234810603558</v>
+        <v>34.65337674546527</v>
       </c>
       <c r="AH12" t="n">
-        <v>4.922212949904711</v>
+        <v>9.169188858713841</v>
       </c>
       <c r="AI12" t="n">
-        <v>14.11898747762899</v>
+        <v>6.156674246629755</v>
       </c>
       <c r="AJ12" t="n">
-        <v>5.527025534037206</v>
+        <v>3.24255118812911</v>
       </c>
       <c r="AK12" t="n">
-        <v>1.394018224729264</v>
+        <v>12.58968091554537</v>
       </c>
       <c r="AL12" t="n">
-        <v>2.341298629154129</v>
+        <v>9.050424613288344</v>
       </c>
       <c r="AM12" t="n">
-        <v>4.171379566407334</v>
+        <v>4.735986636359476</v>
       </c>
       <c r="AN12" t="n">
-        <v>1.537936442277873</v>
+        <v>8.382267066992377</v>
       </c>
       <c r="AO12" t="n">
-        <v>6.28621993823715</v>
+        <v>1.110910439491208</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.72957018766085</v>
+        <v>1.553846351028771</v>
       </c>
       <c r="AQ12" t="n">
-        <v>5.012590278171799</v>
+        <v>2.356481410897572</v>
       </c>
       <c r="AR12" t="n">
-        <v>6.112375351754442</v>
+        <v>1.666971727181449</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.369628301717304</v>
+        <v>3.011453261462431</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.827660450030497</v>
+        <v>1.303997749257232</v>
       </c>
       <c r="AU12" t="n">
-        <v>1.274809347918139</v>
+        <v>3.702992324220926</v>
       </c>
       <c r="AV12" t="n">
-        <v>4.934186160601872</v>
+        <v>5.624501344205959</v>
       </c>
       <c r="AW12" t="n">
-        <v>2.886361313769908</v>
+        <v>0.8164042705888519</v>
       </c>
       <c r="AX12" t="n">
-        <v>1.949430288174484</v>
+        <v>2.4204714445645</v>
       </c>
     </row>
     <row r="13">
@@ -2365,148 +2365,148 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>21.38</v>
+        <v>24.97093718989343</v>
       </c>
       <c r="D13" t="n">
-        <v>17.07</v>
+        <v>5.946997229517137</v>
       </c>
       <c r="E13" t="n">
-        <v>2.62</v>
+        <v>12.06454436003875</v>
       </c>
       <c r="F13" t="n">
-        <v>5.48</v>
+        <v>19.35477535752452</v>
       </c>
       <c r="G13" t="n">
-        <v>14.18</v>
+        <v>2.697217893937737</v>
       </c>
       <c r="H13" t="n">
-        <v>27.09</v>
+        <v>40.44260485045351</v>
       </c>
       <c r="I13" t="n">
-        <v>19.62</v>
+        <v>9.150677195272968</v>
       </c>
       <c r="J13" t="n">
-        <v>49.95</v>
+        <v>20.9309477687715</v>
       </c>
       <c r="K13" t="n">
-        <v>65.41</v>
+        <v>45.33513055026019</v>
       </c>
       <c r="L13" t="n">
-        <v>56.47</v>
+        <v>72.467441994803</v>
       </c>
       <c r="M13" t="n">
-        <v>33.7</v>
+        <v>13.96845061178448</v>
       </c>
       <c r="N13" t="n">
-        <v>31.33</v>
+        <v>11.72848364590257</v>
       </c>
       <c r="O13" t="n">
-        <v>19.89448763944402</v>
+        <v>157.7885880661345</v>
       </c>
       <c r="P13" t="n">
-        <v>112.61</v>
+        <v>23.15303581077831</v>
       </c>
       <c r="Q13" t="n">
-        <v>35.58</v>
+        <v>56.08138623362072</v>
       </c>
       <c r="R13" t="n">
-        <v>35.58</v>
+        <v>24.45236826889745</v>
       </c>
       <c r="S13" t="n">
-        <v>53.45</v>
+        <v>39.04912759835996</v>
       </c>
       <c r="T13" t="n">
-        <v>9.1</v>
+        <v>10.00129631937868</v>
       </c>
       <c r="U13" t="n">
-        <v>40.97</v>
+        <v>1.278049635004805</v>
       </c>
       <c r="V13" t="n">
-        <v>32.45</v>
+        <v>7.26292994267809</v>
       </c>
       <c r="W13" t="n">
-        <v>129.2628571428571</v>
+        <v>3.491166949488922</v>
       </c>
       <c r="X13" t="n">
-        <v>9.33</v>
+        <v>3.068311030592977</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.43</v>
+        <v>16.76143198308913</v>
       </c>
       <c r="Z13" t="n">
-        <v>18.9</v>
+        <v>6.537418368249337</v>
       </c>
       <c r="AA13" t="n">
-        <v>18.34</v>
+        <v>10.9015526460406</v>
       </c>
       <c r="AB13" t="n">
-        <v>25.55</v>
+        <v>28.73267483338487</v>
       </c>
       <c r="AC13" t="n">
-        <v>5.05</v>
+        <v>10.81632597184638</v>
       </c>
       <c r="AD13" t="n">
-        <v>19.68</v>
+        <v>19.98785891671557</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.99031737493276</v>
+        <v>1.175276211259442</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.921703539381997</v>
+        <v>14.0448403440073</v>
       </c>
       <c r="AG13" t="n">
-        <v>2.96</v>
+        <v>2.725204982290368</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.0160611158344297</v>
+        <v>6.097787205674699</v>
       </c>
       <c r="AI13" t="n">
-        <v>2.23</v>
+        <v>8.827706000873336</v>
       </c>
       <c r="AJ13" t="n">
-        <v>9.94</v>
+        <v>3.717901342653358</v>
       </c>
       <c r="AK13" t="n">
-        <v>9.83</v>
+        <v>7.934596585038646</v>
       </c>
       <c r="AL13" t="n">
-        <v>2.23</v>
+        <v>2.887714985700777</v>
       </c>
       <c r="AM13" t="n">
-        <v>1</v>
+        <v>36.15844061251124</v>
       </c>
       <c r="AN13" t="n">
-        <v>7.77</v>
+        <v>1.168355343063591</v>
       </c>
       <c r="AO13" t="n">
-        <v>3.79010690633156</v>
+        <v>0.559406442813816</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.01606111583443</v>
+        <v>1.144850177783611</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.321134626690182</v>
+        <v>10.3221943629177</v>
       </c>
       <c r="AR13" t="n">
-        <v>6.61</v>
+        <v>1.484122901117092</v>
       </c>
       <c r="AS13" t="n">
-        <v>14.22</v>
+        <v>1.20235526870689</v>
       </c>
       <c r="AT13" t="n">
-        <v>5.94</v>
+        <v>11.82042160316946</v>
       </c>
       <c r="AU13" t="n">
-        <v>3.28</v>
+        <v>19.36484539324571</v>
       </c>
       <c r="AV13" t="n">
-        <v>11.25</v>
+        <v>3.671097129394393</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.6436819436477933</v>
+        <v>6.533571398058013</v>
       </c>
       <c r="AX13" t="n">
-        <v>58.95</v>
+        <v>1.958811501920757</v>
       </c>
     </row>
     <row r="14">
@@ -2517,148 +2517,148 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>20.28530198383215</v>
+        <v>21.1865198647592</v>
       </c>
       <c r="D14" t="n">
-        <v>14.84531291662529</v>
+        <v>46.50243975903015</v>
       </c>
       <c r="E14" t="n">
-        <v>19.39074278348535</v>
+        <v>25.43727973190959</v>
       </c>
       <c r="F14" t="n">
-        <v>74.79999390569169</v>
+        <v>26.17936170814933</v>
       </c>
       <c r="G14" t="n">
-        <v>20.868798350129</v>
+        <v>43.12060176223599</v>
       </c>
       <c r="H14" t="n">
-        <v>17.44096374992959</v>
+        <v>9.587664824347348</v>
       </c>
       <c r="I14" t="n">
-        <v>22.62832033381497</v>
+        <v>32.85469333315523</v>
       </c>
       <c r="J14" t="n">
-        <v>49.18507053510974</v>
+        <v>53.63353117140829</v>
       </c>
       <c r="K14" t="n">
-        <v>14.54079010774934</v>
+        <v>48.0097845769285</v>
       </c>
       <c r="L14" t="n">
-        <v>70.61615885101163</v>
+        <v>406.3771689622632</v>
       </c>
       <c r="M14" t="n">
-        <v>30.9882441061975</v>
+        <v>38.70378135140605</v>
       </c>
       <c r="N14" t="n">
-        <v>49.48865859244651</v>
+        <v>26.77315683631293</v>
       </c>
       <c r="O14" t="n">
-        <v>34.39562571088772</v>
+        <v>103.882605581608</v>
       </c>
       <c r="P14" t="n">
-        <v>35.90140432329574</v>
+        <v>67.76273778898826</v>
       </c>
       <c r="Q14" t="n">
-        <v>24.50613534669422</v>
+        <v>29.60450696424248</v>
       </c>
       <c r="R14" t="n">
-        <v>85.75590531768574</v>
+        <v>58.10537950707312</v>
       </c>
       <c r="S14" t="n">
-        <v>39.37531696873984</v>
+        <v>42.29271108819885</v>
       </c>
       <c r="T14" t="n">
-        <v>72.60842846974813</v>
+        <v>24.50463134326513</v>
       </c>
       <c r="U14" t="n">
-        <v>41.31453830488172</v>
+        <v>62.36857755413508</v>
       </c>
       <c r="V14" t="n">
-        <v>259.5058328131823</v>
+        <v>91.74933077310584</v>
       </c>
       <c r="W14" t="n">
-        <v>85.16149800858582</v>
+        <v>40.07697057926929</v>
       </c>
       <c r="X14" t="n">
-        <v>70.00384329628621</v>
+        <v>89.47239419254919</v>
       </c>
       <c r="Y14" t="n">
-        <v>102.0160139267385</v>
+        <v>86.18473308739709</v>
       </c>
       <c r="Z14" t="n">
-        <v>119.9791336070159</v>
+        <v>77.57589693116444</v>
       </c>
       <c r="AA14" t="n">
-        <v>70.68554470586727</v>
+        <v>67.11087153372716</v>
       </c>
       <c r="AB14" t="n">
-        <v>78.27727568568505</v>
+        <v>97.49625107996191</v>
       </c>
       <c r="AC14" t="n">
-        <v>105.3039012914574</v>
+        <v>96.51035456104985</v>
       </c>
       <c r="AD14" t="n">
-        <v>98.80893633734684</v>
+        <v>53.48098802009387</v>
       </c>
       <c r="AE14" t="n">
-        <v>142.2233042106196</v>
+        <v>86.57985395143572</v>
       </c>
       <c r="AF14" t="n">
-        <v>53.70920712830244</v>
+        <v>63.36290367049325</v>
       </c>
       <c r="AG14" t="n">
-        <v>189.0290861230362</v>
+        <v>333.1543387412445</v>
       </c>
       <c r="AH14" t="n">
-        <v>77.8923400475222</v>
+        <v>69.69704121261111</v>
       </c>
       <c r="AI14" t="n">
-        <v>47.64975813831254</v>
+        <v>39.20994617425488</v>
       </c>
       <c r="AJ14" t="n">
-        <v>42.22938037851108</v>
+        <v>30.90864126924628</v>
       </c>
       <c r="AK14" t="n">
-        <v>20.18177154384193</v>
+        <v>40.31612843297821</v>
       </c>
       <c r="AL14" t="n">
-        <v>49.84095410656951</v>
+        <v>32.44302743426784</v>
       </c>
       <c r="AM14" t="n">
-        <v>34.75895299409376</v>
+        <v>50.31417132518065</v>
       </c>
       <c r="AN14" t="n">
-        <v>68.47329454955106</v>
+        <v>25.44284115343223</v>
       </c>
       <c r="AO14" t="n">
-        <v>38.7592431491865</v>
+        <v>42.43820857836126</v>
       </c>
       <c r="AP14" t="n">
-        <v>21.60248137926914</v>
+        <v>51.61715212298142</v>
       </c>
       <c r="AQ14" t="n">
-        <v>23.2049661393639</v>
+        <v>51.40323463734389</v>
       </c>
       <c r="AR14" t="n">
-        <v>21.88755868138666</v>
+        <v>21.62202539044136</v>
       </c>
       <c r="AS14" t="n">
-        <v>27.42143842139626</v>
+        <v>24.54350123371993</v>
       </c>
       <c r="AT14" t="n">
-        <v>26.74733367654105</v>
+        <v>29.75898875878196</v>
       </c>
       <c r="AU14" t="n">
-        <v>11.94291444148891</v>
+        <v>25.75484216931418</v>
       </c>
       <c r="AV14" t="n">
-        <v>12.95345609187043</v>
+        <v>22.20367717729</v>
       </c>
       <c r="AW14" t="n">
-        <v>22.78793137747255</v>
+        <v>37.5197106270203</v>
       </c>
       <c r="AX14" t="n">
-        <v>12.391571713596</v>
+        <v>18.87801296882214</v>
       </c>
     </row>
     <row r="15">
@@ -2669,148 +2669,148 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>2.913864656882856</v>
+        <v>13.62690502360785</v>
       </c>
       <c r="D15" t="n">
-        <v>3.192448647095841</v>
+        <v>2.920166509737829</v>
       </c>
       <c r="E15" t="n">
-        <v>2.32862281758269</v>
+        <v>0.784161199004366</v>
       </c>
       <c r="F15" t="n">
-        <v>2.090755685986794</v>
+        <v>1.01123850373285</v>
       </c>
       <c r="G15" t="n">
-        <v>2.822711832321979</v>
+        <v>8.32903212870697</v>
       </c>
       <c r="H15" t="n">
-        <v>5.850498570661903</v>
+        <v>1.380812299087459</v>
       </c>
       <c r="I15" t="n">
-        <v>5.081306164747505</v>
+        <v>1.499808067372298</v>
       </c>
       <c r="J15" t="n">
-        <v>1.686473318896088</v>
+        <v>0.5956582190837283</v>
       </c>
       <c r="K15" t="n">
-        <v>4.595234995443302</v>
+        <v>14.87189845962092</v>
       </c>
       <c r="L15" t="n">
-        <v>9.093352956670261</v>
+        <v>3.990657898285102</v>
       </c>
       <c r="M15" t="n">
-        <v>3.443048020589532</v>
+        <v>6.33018011450313</v>
       </c>
       <c r="N15" t="n">
-        <v>0.8377030179748005</v>
+        <v>4.762083069268113</v>
       </c>
       <c r="O15" t="n">
-        <v>5.279097833613611</v>
+        <v>3.30398434190315</v>
       </c>
       <c r="P15" t="n">
-        <v>5.997444233979924</v>
+        <v>3.781412921664965</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.2879871</v>
+        <v>4.486973007600051</v>
       </c>
       <c r="R15" t="n">
-        <v>5.832030863586902</v>
+        <v>2.216658717339665</v>
       </c>
       <c r="S15" t="n">
-        <v>2.368287085031854</v>
+        <v>5.08534073029948</v>
       </c>
       <c r="T15" t="n">
-        <v>2.839379489346291</v>
+        <v>1.765619171044538</v>
       </c>
       <c r="U15" t="n">
-        <v>5.123510997317479</v>
+        <v>2.944133130449405</v>
       </c>
       <c r="V15" t="n">
-        <v>4.463054183998668</v>
+        <v>5.601749028903268</v>
       </c>
       <c r="W15" t="n">
-        <v>5.604307305768312</v>
+        <v>7.173316757677427</v>
       </c>
       <c r="X15" t="n">
-        <v>1.707323934422307</v>
+        <v>3.076245195127036</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.055839860005549</v>
+        <v>5.467213383255064</v>
       </c>
       <c r="Z15" t="n">
-        <v>3.425041235753002</v>
+        <v>2.08320241874937</v>
       </c>
       <c r="AA15" t="n">
-        <v>4.604870595567194</v>
+        <v>2.639114239562533</v>
       </c>
       <c r="AB15" t="n">
-        <v>4.432646120100062</v>
+        <v>6.476433371902129</v>
       </c>
       <c r="AC15" t="n">
-        <v>4.705855432808567</v>
+        <v>3.07443192276044</v>
       </c>
       <c r="AD15" t="n">
-        <v>7.607284294889419</v>
+        <v>4.632894227619718</v>
       </c>
       <c r="AE15" t="n">
-        <v>5.065840224677078</v>
+        <v>6.642774052266454</v>
       </c>
       <c r="AF15" t="n">
-        <v>6.733531697976622</v>
+        <v>8.772000330217418</v>
       </c>
       <c r="AG15" t="n">
-        <v>8.17306678645531</v>
+        <v>5.679544894763286</v>
       </c>
       <c r="AH15" t="n">
-        <v>5.049976878093613</v>
+        <v>2.550789869434118</v>
       </c>
       <c r="AI15" t="n">
-        <v>4.089566610007958</v>
+        <v>3.546986685034915</v>
       </c>
       <c r="AJ15" t="n">
-        <v>10.10912401735361</v>
+        <v>1.926766515578709</v>
       </c>
       <c r="AK15" t="n">
-        <v>7.052952022599169</v>
+        <v>2.875158849338233</v>
       </c>
       <c r="AL15" t="n">
-        <v>4.572284841363102</v>
+        <v>4.795017864123575</v>
       </c>
       <c r="AM15" t="n">
-        <v>5.826524217144684</v>
+        <v>1.799815655892167</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.158592471358429</v>
+        <v>1.941884086824753</v>
       </c>
       <c r="AO15" t="n">
-        <v>2.700517138435598</v>
+        <v>2.877101028041899</v>
       </c>
       <c r="AP15" t="n">
-        <v>6.655864562812035</v>
+        <v>0.8796541583287261</v>
       </c>
       <c r="AQ15" t="n">
-        <v>4.157806778252218</v>
+        <v>5.685223694622551</v>
       </c>
       <c r="AR15" t="n">
-        <v>7.941260268449611</v>
+        <v>1.905838492425781</v>
       </c>
       <c r="AS15" t="n">
-        <v>3.49142330032178</v>
+        <v>2.153532921475344</v>
       </c>
       <c r="AT15" t="n">
-        <v>3.358044961650402</v>
+        <v>2.093063993200531</v>
       </c>
       <c r="AU15" t="n">
-        <v>3.320946877503122</v>
+        <v>2.693283536245357</v>
       </c>
       <c r="AV15" t="n">
-        <v>3.281787331645395</v>
+        <v>2.725333818692119</v>
       </c>
       <c r="AW15" t="n">
-        <v>2.02217479197028</v>
+        <v>24.87223625312792</v>
       </c>
       <c r="AX15" t="n">
-        <v>3.141237074571989</v>
+        <v>1.388752508349631</v>
       </c>
     </row>
     <row r="16">
@@ -2821,148 +2821,148 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>10.6539830667921</v>
+        <v>13.52256252487553</v>
       </c>
       <c r="D16" t="n">
-        <v>25.4008317606121</v>
+        <v>9.974238382103518</v>
       </c>
       <c r="E16" t="n">
-        <v>11.63366432992976</v>
+        <v>13.75464909533322</v>
       </c>
       <c r="F16" t="n">
-        <v>16.21276833095887</v>
+        <v>6.001715507717625</v>
       </c>
       <c r="G16" t="n">
-        <v>8.613623874940787</v>
+        <v>18.84608488974803</v>
       </c>
       <c r="H16" t="n">
-        <v>10.1280777187539</v>
+        <v>9.250599605049501</v>
       </c>
       <c r="I16" t="n">
-        <v>11.47317801299644</v>
+        <v>4.76327473779858</v>
       </c>
       <c r="J16" t="n">
-        <v>113.4307353307971</v>
+        <v>17.31965888218804</v>
       </c>
       <c r="K16" t="n">
-        <v>165.652572399626</v>
+        <v>25.94944449979281</v>
       </c>
       <c r="L16" t="n">
-        <v>22.44188073096183</v>
+        <v>36.5335865702984</v>
       </c>
       <c r="M16" t="n">
-        <v>39.49424882857144</v>
+        <v>302.4606546947997</v>
       </c>
       <c r="N16" t="n">
-        <v>53.24629979696877</v>
+        <v>80.42551925805758</v>
       </c>
       <c r="O16" t="n">
-        <v>65.94881176759446</v>
+        <v>73.57104691280458</v>
       </c>
       <c r="P16" t="n">
-        <v>28.51592573815215</v>
+        <v>39.6706976688801</v>
       </c>
       <c r="Q16" t="n">
-        <v>16.58896642914861</v>
+        <v>33.91833092607506</v>
       </c>
       <c r="R16" t="n">
-        <v>79.04898434599896</v>
+        <v>53.2968682326625</v>
       </c>
       <c r="S16" t="n">
-        <v>39.97426968615762</v>
+        <v>77.36771356746222</v>
       </c>
       <c r="T16" t="n">
-        <v>32.01697556895935</v>
+        <v>51.15596785868858</v>
       </c>
       <c r="U16" t="n">
-        <v>143.3230755880118</v>
+        <v>163.0995323255123</v>
       </c>
       <c r="V16" t="n">
-        <v>358.4166699317454</v>
+        <v>42.44866215305973</v>
       </c>
       <c r="W16" t="n">
-        <v>50.35286453946267</v>
+        <v>66.24341165366751</v>
       </c>
       <c r="X16" t="n">
-        <v>103.5277830900606</v>
+        <v>20.73706053061692</v>
       </c>
       <c r="Y16" t="n">
-        <v>57.78094814838756</v>
+        <v>51.0322330648498</v>
       </c>
       <c r="Z16" t="n">
-        <v>48.13222532250072</v>
+        <v>105.5757780759341</v>
       </c>
       <c r="AA16" t="n">
-        <v>47.54512712139088</v>
+        <v>109.0729422094997</v>
       </c>
       <c r="AB16" t="n">
-        <v>59.3079853915786</v>
+        <v>66.59372581131052</v>
       </c>
       <c r="AC16" t="n">
-        <v>56.90412323438186</v>
+        <v>61.42306769160642</v>
       </c>
       <c r="AD16" t="n">
-        <v>173.4184183926271</v>
+        <v>40.20350730011977</v>
       </c>
       <c r="AE16" t="n">
-        <v>71.43419899283296</v>
+        <v>47.27025005809056</v>
       </c>
       <c r="AF16" t="n">
-        <v>82.00190586688161</v>
+        <v>94.6914671535191</v>
       </c>
       <c r="AG16" t="n">
-        <v>75.2526491052289</v>
+        <v>66.93573739794107</v>
       </c>
       <c r="AH16" t="n">
-        <v>62.57314983043796</v>
+        <v>44.80935991494315</v>
       </c>
       <c r="AI16" t="n">
-        <v>67.17502829229163</v>
+        <v>32.51496668661768</v>
       </c>
       <c r="AJ16" t="n">
-        <v>41.89333834896433</v>
+        <v>39.69516634652517</v>
       </c>
       <c r="AK16" t="n">
-        <v>85.16497347118214</v>
+        <v>18.59791897462804</v>
       </c>
       <c r="AL16" t="n">
-        <v>52.55550599655773</v>
+        <v>40.5899422961597</v>
       </c>
       <c r="AM16" t="n">
-        <v>54.53657581563161</v>
+        <v>23.95757861523622</v>
       </c>
       <c r="AN16" t="n">
-        <v>18.83781384564425</v>
+        <v>16.29266355406575</v>
       </c>
       <c r="AO16" t="n">
-        <v>37.86207175</v>
+        <v>23.1677138502081</v>
       </c>
       <c r="AP16" t="n">
-        <v>8.219643518207087</v>
+        <v>43.90110355910485</v>
       </c>
       <c r="AQ16" t="n">
-        <v>9.769212392179208</v>
+        <v>26.91582365272849</v>
       </c>
       <c r="AR16" t="n">
-        <v>12.84881355932204</v>
+        <v>14.88703812607552</v>
       </c>
       <c r="AS16" t="n">
-        <v>9.83725264169068</v>
+        <v>18.23256143170674</v>
       </c>
       <c r="AT16" t="n">
-        <v>8.823395824151241</v>
+        <v>21.35879124879499</v>
       </c>
       <c r="AU16" t="n">
-        <v>10.00697763310099</v>
+        <v>15.96515965673142</v>
       </c>
       <c r="AV16" t="n">
-        <v>10.86909868456177</v>
+        <v>11.26011708600796</v>
       </c>
       <c r="AW16" t="n">
-        <v>7.984275228803579</v>
+        <v>11.84110825753914</v>
       </c>
       <c r="AX16" t="n">
-        <v>19.01467018574089</v>
+        <v>9.446564651084008</v>
       </c>
     </row>
     <row r="17">
@@ -2973,148 +2973,148 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>26.42936226211877</v>
+        <v>18.58737844054285</v>
       </c>
       <c r="D17" t="n">
-        <v>43.40083992209751</v>
+        <v>8.776103147937587</v>
       </c>
       <c r="E17" t="n">
-        <v>4.77356899203355</v>
+        <v>8.670231722081274</v>
       </c>
       <c r="F17" t="n">
-        <v>5.705626538691155</v>
+        <v>6.065457583803724</v>
       </c>
       <c r="G17" t="n">
-        <v>17.39598262329654</v>
+        <v>155.759204773591</v>
       </c>
       <c r="H17" t="n">
-        <v>18.95140907021133</v>
+        <v>6.955658131975407</v>
       </c>
       <c r="I17" t="n">
-        <v>17.50596507210155</v>
+        <v>19.33176206598099</v>
       </c>
       <c r="J17" t="n">
-        <v>10.18316089254698</v>
+        <v>20.0711153129253</v>
       </c>
       <c r="K17" t="n">
-        <v>6.890411796932626</v>
+        <v>60.08689274913124</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>23.80472268045961</v>
       </c>
       <c r="M17" t="n">
-        <v>39.96365066491197</v>
+        <v>245.5930820890584</v>
       </c>
       <c r="N17" t="n">
-        <v>48.83835290379247</v>
+        <v>46.77343053615844</v>
       </c>
       <c r="O17" t="n">
-        <v>56.23664434922112</v>
+        <v>11.09258770515496</v>
       </c>
       <c r="P17" t="n">
-        <v>33.39139775783974</v>
+        <v>77.37165481351111</v>
       </c>
       <c r="Q17" t="n">
-        <v>50.61688979622853</v>
+        <v>50.17917331563688</v>
       </c>
       <c r="R17" t="n">
-        <v>78.64630718642783</v>
+        <v>28.03890956050883</v>
       </c>
       <c r="S17" t="n">
-        <v>22.41487428769663</v>
+        <v>44.51771802335163</v>
       </c>
       <c r="T17" t="n">
-        <v>82.50976182177672</v>
+        <v>70.259442018512</v>
       </c>
       <c r="U17" t="n">
-        <v>36.87907196745683</v>
+        <v>22.05292486049978</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>106.8843371426702</v>
       </c>
       <c r="W17" t="n">
-        <v>111.7615535719255</v>
+        <v>35.34596011515304</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>33.71673532525923</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.44504418938145</v>
+        <v>13.63032337500665</v>
       </c>
       <c r="Z17" t="n">
-        <v>32.90855429917011</v>
+        <v>74.8412291701122</v>
       </c>
       <c r="AA17" t="n">
-        <v>24.94193105423754</v>
+        <v>59.47381988251862</v>
       </c>
       <c r="AB17" t="n">
-        <v>15.18655876950156</v>
+        <v>61.45593775965671</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.060924509832741</v>
+        <v>53.64651445385056</v>
       </c>
       <c r="AD17" t="n">
-        <v>32.6356602216527</v>
+        <v>24.73305814314304</v>
       </c>
       <c r="AE17" t="n">
-        <v>22.54916197203418</v>
+        <v>16.85081192666721</v>
       </c>
       <c r="AF17" t="n">
-        <v>29.15991319947118</v>
+        <v>6.259002829489227</v>
       </c>
       <c r="AG17" t="n">
-        <v>20.4000784233315</v>
+        <v>6.661610312985859</v>
       </c>
       <c r="AH17" t="n">
-        <v>44.05561852511372</v>
+        <v>38.67843326719149</v>
       </c>
       <c r="AI17" t="n">
-        <v>57.1437511523398</v>
+        <v>28.42939746491573</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1.512738711405736</v>
+        <v>42.95279748268315</v>
       </c>
       <c r="AK17" t="n">
-        <v>32.72099033632853</v>
+        <v>26.48501083475681</v>
       </c>
       <c r="AL17" t="n">
-        <v>12.60830959966953</v>
+        <v>22.33853086120931</v>
       </c>
       <c r="AM17" t="n">
-        <v>7.124886490578378</v>
+        <v>13.45128265032383</v>
       </c>
       <c r="AN17" t="n">
-        <v>31.92861572730909</v>
+        <v>12.34240661851697</v>
       </c>
       <c r="AO17" t="n">
-        <v>35.68442524825797</v>
+        <v>10.10206038752804</v>
       </c>
       <c r="AP17" t="n">
-        <v>28.50552858362673</v>
+        <v>9.547962548350794</v>
       </c>
       <c r="AQ17" t="n">
-        <v>29.50442642402397</v>
+        <v>15.84323979721034</v>
       </c>
       <c r="AR17" t="n">
-        <v>2.522090238304814</v>
+        <v>2.030958565457884</v>
       </c>
       <c r="AS17" t="n">
-        <v>8.88544145884768</v>
+        <v>19.55623797575858</v>
       </c>
       <c r="AT17" t="n">
-        <v>28.68278845195609</v>
+        <v>19.27529722336818</v>
       </c>
       <c r="AU17" t="n">
-        <v>2.616100280213827</v>
+        <v>16.56257795645493</v>
       </c>
       <c r="AV17" t="n">
-        <v>33.97442929939415</v>
+        <v>3.019884029870212</v>
       </c>
       <c r="AW17" t="n">
-        <v>33.83106230265686</v>
+        <v>27.44367302479742</v>
       </c>
       <c r="AX17" t="n">
-        <v>15.31953561148198</v>
+        <v>28.40284045466349</v>
       </c>
     </row>
     <row r="18">
@@ -3125,148 +3125,148 @@
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>9.050791970532295</v>
+        <v>1.626489979381904</v>
       </c>
       <c r="D18" t="n">
-        <v>1.749539760096801</v>
+        <v>0.452557059467776</v>
       </c>
       <c r="E18" t="n">
-        <v>6.125054957531971</v>
+        <v>2.560131129130556</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8497238017871653</v>
+        <v>4.303906984555004</v>
       </c>
       <c r="G18" t="n">
-        <v>3.404495145683027</v>
+        <v>4.19643809661023</v>
       </c>
       <c r="H18" t="n">
-        <v>2.4168375</v>
+        <v>3.986407189313278</v>
       </c>
       <c r="I18" t="n">
-        <v>75.29951722701674</v>
+        <v>4.302309801349626</v>
       </c>
       <c r="J18" t="n">
-        <v>6.30800117678247</v>
+        <v>21.681286532751</v>
       </c>
       <c r="K18" t="n">
-        <v>6.511854233486112</v>
+        <v>8.601922515054211</v>
       </c>
       <c r="L18" t="n">
-        <v>11.74064596198306</v>
+        <v>9.697632340129871</v>
       </c>
       <c r="M18" t="n">
-        <v>14.2023816</v>
+        <v>11.13439158903493</v>
       </c>
       <c r="N18" t="n">
-        <v>2.057336361310134</v>
+        <v>16.11061323747864</v>
       </c>
       <c r="O18" t="n">
-        <v>14.23266399950238</v>
+        <v>23.57488613010737</v>
       </c>
       <c r="P18" t="n">
-        <v>47.08022640376029</v>
+        <v>15.96037627159303</v>
       </c>
       <c r="Q18" t="n">
-        <v>31.1909805893475</v>
+        <v>15.64763642047035</v>
       </c>
       <c r="R18" t="n">
-        <v>24.2409250098347</v>
+        <v>42.87890127598526</v>
       </c>
       <c r="S18" t="n">
-        <v>26.3986956979098</v>
+        <v>22.34480700304332</v>
       </c>
       <c r="T18" t="n">
-        <v>8.179847173382026</v>
+        <v>30.44890326404339</v>
       </c>
       <c r="U18" t="n">
-        <v>25.69814351500412</v>
+        <v>40.85014831897288</v>
       </c>
       <c r="V18" t="n">
-        <v>20.14419476880567</v>
+        <v>54.67691981122686</v>
       </c>
       <c r="W18" t="n">
-        <v>18.59869561270902</v>
+        <v>15.45224045831473</v>
       </c>
       <c r="X18" t="n">
-        <v>8.844905018869254</v>
+        <v>11.44256469550682</v>
       </c>
       <c r="Y18" t="n">
-        <v>14.30074156927002</v>
+        <v>32.88374865793992</v>
       </c>
       <c r="Z18" t="n">
-        <v>18.56171390984123</v>
+        <v>13.48367445413693</v>
       </c>
       <c r="AA18" t="n">
-        <v>13.02670184570013</v>
+        <v>12.61724180079366</v>
       </c>
       <c r="AB18" t="n">
-        <v>12.34196840875863</v>
+        <v>23.57179829816333</v>
       </c>
       <c r="AC18" t="n">
-        <v>15.92166270127809</v>
+        <v>12.23419195653886</v>
       </c>
       <c r="AD18" t="n">
-        <v>32.55784248360584</v>
+        <v>28.65958696629237</v>
       </c>
       <c r="AE18" t="n">
-        <v>6.385501488460058</v>
+        <v>16.08696831530965</v>
       </c>
       <c r="AF18" t="n">
-        <v>9.379715408245259</v>
+        <v>10.38717390476532</v>
       </c>
       <c r="AG18" t="n">
-        <v>14.58821210436964</v>
+        <v>15.63245197457609</v>
       </c>
       <c r="AH18" t="n">
-        <v>22.53326295830131</v>
+        <v>19.69623760240693</v>
       </c>
       <c r="AI18" t="n">
-        <v>14.11898747762899</v>
+        <v>8.628987617779751</v>
       </c>
       <c r="AJ18" t="n">
-        <v>23.01217723451987</v>
+        <v>8.360538640756669</v>
       </c>
       <c r="AK18" t="n">
-        <v>20.91150125674914</v>
+        <v>1.821202960523996</v>
       </c>
       <c r="AL18" t="n">
-        <v>9.363397843386144</v>
+        <v>9.254591631889438</v>
       </c>
       <c r="AM18" t="n">
-        <v>4.67356832552675</v>
+        <v>2.945329142018659</v>
       </c>
       <c r="AN18" t="n">
-        <v>5.1519956314479</v>
+        <v>14.92830972160124</v>
       </c>
       <c r="AO18" t="n">
-        <v>4.85478409811211</v>
+        <v>4.264474877528769</v>
       </c>
       <c r="AP18" t="n">
-        <v>4.58388832780805</v>
+        <v>4.468520295961736</v>
       </c>
       <c r="AQ18" t="n">
-        <v>4.097552235215841</v>
+        <v>4.531966658234359</v>
       </c>
       <c r="AR18" t="n">
-        <v>4.995163183190755</v>
+        <v>2.450989887752616</v>
       </c>
       <c r="AS18" t="n">
-        <v>3.130118708464936</v>
+        <v>1.812168873682137</v>
       </c>
       <c r="AT18" t="n">
-        <v>4.031620628694426</v>
+        <v>1.537900955699817</v>
       </c>
       <c r="AU18" t="n">
-        <v>0.2173809517129308</v>
+        <v>1.021742462037924</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.4292224333662302</v>
+        <v>4.796641081450965</v>
       </c>
       <c r="AW18" t="n">
-        <v>4.066278191000493</v>
+        <v>2.286395863366295</v>
       </c>
       <c r="AX18" t="n">
-        <v>4.867509327194162</v>
+        <v>1.387258217756025</v>
       </c>
     </row>
     <row r="19">
@@ -3277,148 +3277,148 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>3.94</v>
+        <v>21.26215118254199</v>
       </c>
       <c r="D19" t="n">
-        <v>2.01</v>
+        <v>22.34233321879687</v>
       </c>
       <c r="E19" t="n">
-        <v>1.83</v>
+        <v>16.11863618228922</v>
       </c>
       <c r="F19" t="n">
-        <v>2.01</v>
+        <v>12.2534765612704</v>
       </c>
       <c r="G19" t="n">
-        <v>16.04</v>
+        <v>95.22580938295523</v>
       </c>
       <c r="H19" t="n">
-        <v>29.68</v>
+        <v>24.82138583061356</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>2.282021651741156</v>
       </c>
       <c r="J19" t="n">
-        <v>172.62</v>
+        <v>1.841395030673486</v>
       </c>
       <c r="K19" t="n">
-        <v>3.995184971428572</v>
+        <v>12.31762821499559</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>2.729081093633384</v>
       </c>
       <c r="M19" t="n">
-        <v>64.06999999999999</v>
+        <v>8.663244845443614</v>
       </c>
       <c r="N19" t="n">
-        <v>38.91</v>
+        <v>84.44016123525311</v>
       </c>
       <c r="O19" t="n">
-        <v>6.600000000000001</v>
+        <v>17.59125044840815</v>
       </c>
       <c r="P19" t="n">
-        <v>103.4714234332661</v>
+        <v>37.23211493851243</v>
       </c>
       <c r="Q19" t="n">
-        <v>10.61</v>
+        <v>24.50719484186576</v>
       </c>
       <c r="R19" t="n">
-        <v>22.01</v>
+        <v>101.4835697022086</v>
       </c>
       <c r="S19" t="n">
-        <v>24.33</v>
+        <v>28.75732147413954</v>
       </c>
       <c r="T19" t="n">
-        <v>97.52</v>
+        <v>35.5893910801687</v>
       </c>
       <c r="U19" t="n">
-        <v>7.442275350000001</v>
+        <v>36.42585102656515</v>
       </c>
       <c r="V19" t="n">
-        <v>8.32</v>
+        <v>23.88219170466291</v>
       </c>
       <c r="W19" t="n">
-        <v>4.06</v>
+        <v>10.70006458947396</v>
       </c>
       <c r="X19" t="n">
-        <v>14.5</v>
+        <v>21.57775094476211</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.869999999999999</v>
+        <v>3.142449501956774</v>
       </c>
       <c r="Z19" t="n">
-        <v>15.59</v>
+        <v>3.792615295228989</v>
       </c>
       <c r="AA19" t="n">
-        <v>23.82</v>
+        <v>2.226541369828244</v>
       </c>
       <c r="AB19" t="n">
-        <v>32.06</v>
+        <v>4.654148189683352</v>
       </c>
       <c r="AC19" t="n">
-        <v>4.03</v>
+        <v>9.492395007800662</v>
       </c>
       <c r="AD19" t="n">
-        <v>25.55</v>
+        <v>9.499662722189447</v>
       </c>
       <c r="AE19" t="n">
-        <v>31.4</v>
+        <v>17.10472428161307</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.835981200000001</v>
+        <v>4.640454287510543</v>
       </c>
       <c r="AG19" t="n">
-        <v>1</v>
+        <v>1.981887510567042</v>
       </c>
       <c r="AH19" t="n">
-        <v>18.13</v>
+        <v>14.65059985498497</v>
       </c>
       <c r="AI19" t="n">
-        <v>10.56</v>
+        <v>2.287469212006749</v>
       </c>
       <c r="AJ19" t="n">
-        <v>3.6</v>
+        <v>46.59741828278214</v>
       </c>
       <c r="AK19" t="n">
-        <v>1</v>
+        <v>2.1865938002158</v>
       </c>
       <c r="AL19" t="n">
-        <v>3.19</v>
+        <v>18.98645677645808</v>
       </c>
       <c r="AM19" t="n">
-        <v>3.797861379773617</v>
+        <v>4.833602124933531</v>
       </c>
       <c r="AN19" t="n">
-        <v>12.13</v>
+        <v>2.022362451474912</v>
       </c>
       <c r="AO19" t="n">
-        <v>7.77</v>
+        <v>1.125116306846508</v>
       </c>
       <c r="AP19" t="n">
-        <v>22.74</v>
+        <v>5.853584070852697</v>
       </c>
       <c r="AQ19" t="n">
-        <v>2.33</v>
+        <v>2.132366817817696</v>
       </c>
       <c r="AR19" t="n">
-        <v>10.71</v>
+        <v>5.897763636090773</v>
       </c>
       <c r="AS19" t="n">
-        <v>26.31</v>
+        <v>4.754990301967888</v>
       </c>
       <c r="AT19" t="n">
-        <v>7.73</v>
+        <v>13.24411420222624</v>
       </c>
       <c r="AU19" t="n">
-        <v>4.207142857142856</v>
+        <v>3.129562773352741</v>
       </c>
       <c r="AV19" t="n">
-        <v>3.91</v>
+        <v>4.770688047373787</v>
       </c>
       <c r="AW19" t="n">
-        <v>3.91</v>
+        <v>24.35216684408381</v>
       </c>
       <c r="AX19" t="n">
-        <v>7.69</v>
+        <v>4.738864071563395</v>
       </c>
     </row>
     <row r="20">
@@ -3429,148 +3429,148 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>9.754541195946429</v>
+        <v>32.48302038085821</v>
       </c>
       <c r="D20" t="n">
-        <v>15.92911540130961</v>
+        <v>8.417373244167791</v>
       </c>
       <c r="E20" t="n">
-        <v>13.27403323288314</v>
+        <v>26.32440134990303</v>
       </c>
       <c r="F20" t="n">
-        <v>19.05775694242616</v>
+        <v>10.92242739981908</v>
       </c>
       <c r="G20" t="n">
-        <v>31.19451818366601</v>
+        <v>31.38432281130798</v>
       </c>
       <c r="H20" t="n">
-        <v>25.12988958394108</v>
+        <v>42.06700286579715</v>
       </c>
       <c r="I20" t="n">
-        <v>38.30436940454902</v>
+        <v>79.15553297610073</v>
       </c>
       <c r="J20" t="n">
-        <v>21.31809956076732</v>
+        <v>30.06245168782688</v>
       </c>
       <c r="K20" t="n">
-        <v>89.68605502359993</v>
+        <v>37.32513120656346</v>
       </c>
       <c r="L20" t="n">
-        <v>58.34992801608013</v>
+        <v>139.2793985066107</v>
       </c>
       <c r="M20" t="n">
-        <v>131.3703502481676</v>
+        <v>67.88005244905665</v>
       </c>
       <c r="N20" t="n">
-        <v>104.634815815224</v>
+        <v>65.42404286899233</v>
       </c>
       <c r="O20" t="n">
-        <v>46.98838476913189</v>
+        <v>33.47097030881608</v>
       </c>
       <c r="P20" t="n">
-        <v>36.64999886969547</v>
+        <v>123.4470545436727</v>
       </c>
       <c r="Q20" t="n">
-        <v>16.75729080657886</v>
+        <v>70.77973542529823</v>
       </c>
       <c r="R20" t="n">
-        <v>38.64921067717739</v>
+        <v>109.9914906200246</v>
       </c>
       <c r="S20" t="n">
-        <v>35.39388682239109</v>
+        <v>35.48570166587329</v>
       </c>
       <c r="T20" t="n">
-        <v>22.89149348468512</v>
+        <v>162.7468776979564</v>
       </c>
       <c r="U20" t="n">
-        <v>55.84538401644757</v>
+        <v>71.02201062748449</v>
       </c>
       <c r="V20" t="n">
-        <v>40.33370421387338</v>
+        <v>36.10986117669996</v>
       </c>
       <c r="W20" t="n">
-        <v>46.92627174375601</v>
+        <v>99.39733229746595</v>
       </c>
       <c r="X20" t="n">
-        <v>47.08637707365472</v>
+        <v>52.40171294041871</v>
       </c>
       <c r="Y20" t="n">
-        <v>39.26384722796519</v>
+        <v>76.73161760934529</v>
       </c>
       <c r="Z20" t="n">
-        <v>89.7131647530299</v>
+        <v>59.90804545509341</v>
       </c>
       <c r="AA20" t="n">
-        <v>126.9147602444434</v>
+        <v>66.72494988309974</v>
       </c>
       <c r="AB20" t="n">
-        <v>82.67582316114655</v>
+        <v>74.91275286138492</v>
       </c>
       <c r="AC20" t="n">
-        <v>98.77136343528912</v>
+        <v>77.07033275289012</v>
       </c>
       <c r="AD20" t="n">
-        <v>130.5986802383703</v>
+        <v>130.6731421477299</v>
       </c>
       <c r="AE20" t="n">
-        <v>131.4767396603809</v>
+        <v>65.90494868660245</v>
       </c>
       <c r="AF20" t="n">
-        <v>118.2328570329717</v>
+        <v>309.6836793366904</v>
       </c>
       <c r="AG20" t="n">
-        <v>172.9735691467637</v>
+        <v>144.6886706266364</v>
       </c>
       <c r="AH20" t="n">
-        <v>114.2887890577091</v>
+        <v>118.2694025328815</v>
       </c>
       <c r="AI20" t="n">
-        <v>37.32308361888582</v>
+        <v>80.526647627803</v>
       </c>
       <c r="AJ20" t="n">
-        <v>74.49115717949603</v>
+        <v>44.02522011995447</v>
       </c>
       <c r="AK20" t="n">
-        <v>104.2879981247228</v>
+        <v>166.7206718440397</v>
       </c>
       <c r="AL20" t="n">
-        <v>58.1131875</v>
+        <v>12.07416834846161</v>
       </c>
       <c r="AM20" t="n">
-        <v>25.03954777302262</v>
+        <v>68.2857714817888</v>
       </c>
       <c r="AN20" t="n">
-        <v>20.58275535798138</v>
+        <v>24.77601607179836</v>
       </c>
       <c r="AO20" t="n">
-        <v>27.34408477943007</v>
+        <v>50.11222287674754</v>
       </c>
       <c r="AP20" t="n">
-        <v>41.16427246469324</v>
+        <v>18.05402756659519</v>
       </c>
       <c r="AQ20" t="n">
-        <v>25.65313392085983</v>
+        <v>23.80382833725681</v>
       </c>
       <c r="AR20" t="n">
-        <v>16.22366693989207</v>
+        <v>25.74040400180828</v>
       </c>
       <c r="AS20" t="n">
-        <v>17.54383003845592</v>
+        <v>21.61904297508757</v>
       </c>
       <c r="AT20" t="n">
-        <v>19.01162683822853</v>
+        <v>25.31662031785059</v>
       </c>
       <c r="AU20" t="n">
-        <v>22.461073306442</v>
+        <v>19.35502827750852</v>
       </c>
       <c r="AV20" t="n">
-        <v>30.23125626910124</v>
+        <v>22.20484986678338</v>
       </c>
       <c r="AW20" t="n">
-        <v>11.63606560449987</v>
+        <v>12.58507526073241</v>
       </c>
       <c r="AX20" t="n">
-        <v>19.3931986939692</v>
+        <v>14.30227042712039</v>
       </c>
     </row>
     <row r="21">
@@ -3581,148 +3581,148 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>1.67299772393861</v>
+        <v>0.8579508380082058</v>
       </c>
       <c r="D21" t="n">
-        <v>2.678505085822017</v>
+        <v>1.010897739765581</v>
       </c>
       <c r="E21" t="n">
-        <v>3.71238670694864</v>
+        <v>20.05059575190787</v>
       </c>
       <c r="F21" t="n">
-        <v>3.843284400316745</v>
+        <v>1.872062160544746</v>
       </c>
       <c r="G21" t="n">
-        <v>4.608791271800902</v>
+        <v>1.475199829736082</v>
       </c>
       <c r="H21" t="n">
-        <v>12.51183351887456</v>
+        <v>4.056324767056291</v>
       </c>
       <c r="I21" t="n">
-        <v>1.2550671</v>
+        <v>3.117928689577202</v>
       </c>
       <c r="J21" t="n">
-        <v>5.119853943353264</v>
+        <v>2.444628556844169</v>
       </c>
       <c r="K21" t="n">
-        <v>7.160796051074986</v>
+        <v>5.483635045590797</v>
       </c>
       <c r="L21" t="n">
-        <v>2.565494565713764</v>
+        <v>3.219151806348226</v>
       </c>
       <c r="M21" t="n">
-        <v>20.87317769669846</v>
+        <v>4.01804095137634</v>
       </c>
       <c r="N21" t="n">
-        <v>5.335741274038285</v>
+        <v>3.608153209830593</v>
       </c>
       <c r="O21" t="n">
-        <v>1.862939228420283</v>
+        <v>5.185903942524116</v>
       </c>
       <c r="P21" t="n">
-        <v>2.653667499013125</v>
+        <v>5.00339037415855</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.966260258764037</v>
+        <v>3.285614564616246</v>
       </c>
       <c r="R21" t="n">
-        <v>2.974093983829342</v>
+        <v>2.916820834750883</v>
       </c>
       <c r="S21" t="n">
-        <v>4.927456147248055</v>
+        <v>3.303219954583496</v>
       </c>
       <c r="T21" t="n">
-        <v>7.128796224739793</v>
+        <v>4.962461451136939</v>
       </c>
       <c r="U21" t="n">
-        <v>4.763982716219908</v>
+        <v>1.876608443853362</v>
       </c>
       <c r="V21" t="n">
-        <v>3.103419972640219</v>
+        <v>5.195567646375886</v>
       </c>
       <c r="W21" t="n">
-        <v>4.884789256807245</v>
+        <v>2.256957392723503</v>
       </c>
       <c r="X21" t="n">
-        <v>5.003720113911822</v>
+        <v>3.723860765199686</v>
       </c>
       <c r="Y21" t="n">
-        <v>2.760341135364616</v>
+        <v>4.992596667281917</v>
       </c>
       <c r="Z21" t="n">
-        <v>8.566495755011996</v>
+        <v>3.829938117492163</v>
       </c>
       <c r="AA21" t="n">
-        <v>5.348028871368796</v>
+        <v>5.270192049928925</v>
       </c>
       <c r="AB21" t="n">
-        <v>5.242062005573995</v>
+        <v>2.896532976642874</v>
       </c>
       <c r="AC21" t="n">
-        <v>4.11811824378531</v>
+        <v>4.698108595243015</v>
       </c>
       <c r="AD21" t="n">
-        <v>2.27121917525878</v>
+        <v>2.97804655790034</v>
       </c>
       <c r="AE21" t="n">
-        <v>6.091306214664853</v>
+        <v>5.429063941943943</v>
       </c>
       <c r="AF21" t="n">
-        <v>5.760823580854784</v>
+        <v>7.066763788955603</v>
       </c>
       <c r="AG21" t="n">
-        <v>8.084024127036502</v>
+        <v>3.34032833487456</v>
       </c>
       <c r="AH21" t="n">
-        <v>9.46588684291847</v>
+        <v>4.056101165482715</v>
       </c>
       <c r="AI21" t="n">
-        <v>2.732053418091405</v>
+        <v>1.722702659306295</v>
       </c>
       <c r="AJ21" t="n">
-        <v>6.653615151346469</v>
+        <v>3.813594212732313</v>
       </c>
       <c r="AK21" t="n">
-        <v>3.60731425656104</v>
+        <v>4.426772930672267</v>
       </c>
       <c r="AL21" t="n">
-        <v>3.204779813628856</v>
+        <v>4.792236316528887</v>
       </c>
       <c r="AM21" t="n">
-        <v>4.083284004632608</v>
+        <v>4.155441433700589</v>
       </c>
       <c r="AN21" t="n">
-        <v>6.189711629652211</v>
+        <v>19.02898487374884</v>
       </c>
       <c r="AO21" t="n">
-        <v>3.866181818181818</v>
+        <v>2.273678311191234</v>
       </c>
       <c r="AP21" t="n">
-        <v>7.008937237757994</v>
+        <v>1.897399848012737</v>
       </c>
       <c r="AQ21" t="n">
-        <v>3.758391857142857</v>
+        <v>3.124405698101368</v>
       </c>
       <c r="AR21" t="n">
-        <v>2.742333660116429</v>
+        <v>2.342828143334874</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.619321639854697</v>
+        <v>4.08768215299036</v>
       </c>
       <c r="AT21" t="n">
-        <v>3.358724534986715</v>
+        <v>2.020774362672098</v>
       </c>
       <c r="AU21" t="n">
-        <v>2.93754833457703</v>
+        <v>6.239056615671812</v>
       </c>
       <c r="AV21" t="n">
-        <v>2.932943337187946</v>
+        <v>1.202898585742348</v>
       </c>
       <c r="AW21" t="n">
-        <v>2.717529419767363</v>
+        <v>7.248215518799415</v>
       </c>
       <c r="AX21" t="n">
-        <v>0.02147803183808438</v>
+        <v>0.8505120503215584</v>
       </c>
     </row>
     <row r="22">
@@ -3733,148 +3733,148 @@
         <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>12.7666220615166</v>
+        <v>11.4827497321436</v>
       </c>
       <c r="D22" t="n">
-        <v>9.914114008439361</v>
+        <v>11.61930047410211</v>
       </c>
       <c r="E22" t="n">
-        <v>11.76915961646926</v>
+        <v>31.71266731344822</v>
       </c>
       <c r="F22" t="n">
-        <v>5.407241119725395</v>
+        <v>30.68088213135665</v>
       </c>
       <c r="G22" t="n">
-        <v>9.131677925023393</v>
+        <v>12.31289796377362</v>
       </c>
       <c r="H22" t="n">
-        <v>69.73338888304991</v>
+        <v>8.157005577130898</v>
       </c>
       <c r="I22" t="n">
-        <v>35.44055541116379</v>
+        <v>104.3184546900236</v>
       </c>
       <c r="J22" t="n">
-        <v>10.32477856345367</v>
+        <v>26.6880284733178</v>
       </c>
       <c r="K22" t="n">
-        <v>14.07120737249916</v>
+        <v>26.29091812021145</v>
       </c>
       <c r="L22" t="n">
-        <v>166.1150583888731</v>
+        <v>475.9971838790701</v>
       </c>
       <c r="M22" t="n">
-        <v>25.6100225045102</v>
+        <v>80.25913551277945</v>
       </c>
       <c r="N22" t="n">
-        <v>22.65629996094258</v>
+        <v>79.06536412489622</v>
       </c>
       <c r="O22" t="n">
-        <v>80.50907107915208</v>
+        <v>16.16735852038114</v>
       </c>
       <c r="P22" t="n">
-        <v>30.55504128387329</v>
+        <v>19.78648206578914</v>
       </c>
       <c r="Q22" t="n">
-        <v>209.9692385592495</v>
+        <v>52.99857403544691</v>
       </c>
       <c r="R22" t="n">
-        <v>18.16615274329703</v>
+        <v>211.6072003330283</v>
       </c>
       <c r="S22" t="n">
-        <v>83.79110678260869</v>
+        <v>36.70571920132335</v>
       </c>
       <c r="T22" t="n">
-        <v>80.50341545047051</v>
+        <v>61.7447590492877</v>
       </c>
       <c r="U22" t="n">
-        <v>35.19223968976218</v>
+        <v>37.48626282916077</v>
       </c>
       <c r="V22" t="n">
-        <v>132.5556994897405</v>
+        <v>73.44688965947128</v>
       </c>
       <c r="W22" t="n">
-        <v>43.98226946533521</v>
+        <v>94.88661966535524</v>
       </c>
       <c r="X22" t="n">
-        <v>41.67732820232404</v>
+        <v>80.94860156316145</v>
       </c>
       <c r="Y22" t="n">
-        <v>49.68352726593414</v>
+        <v>52.93279297577597</v>
       </c>
       <c r="Z22" t="n">
-        <v>102.4323774350281</v>
+        <v>43.95618272533926</v>
       </c>
       <c r="AA22" t="n">
-        <v>94.99911126635062</v>
+        <v>57.20872382970532</v>
       </c>
       <c r="AB22" t="n">
-        <v>41.7721331975925</v>
+        <v>122.1578962915057</v>
       </c>
       <c r="AC22" t="n">
-        <v>56.90412323438186</v>
+        <v>64.20927667230424</v>
       </c>
       <c r="AD22" t="n">
-        <v>82.72534712530538</v>
+        <v>38.71769917289856</v>
       </c>
       <c r="AE22" t="n">
-        <v>84.5578164186591</v>
+        <v>95.53421248638823</v>
       </c>
       <c r="AF22" t="n">
-        <v>55.05399259815806</v>
+        <v>38.69623905906561</v>
       </c>
       <c r="AG22" t="n">
-        <v>31.94507323758311</v>
+        <v>39.21523779892657</v>
       </c>
       <c r="AH22" t="n">
-        <v>53.00572767252479</v>
+        <v>66.95376350394129</v>
       </c>
       <c r="AI22" t="n">
-        <v>49.75596187842263</v>
+        <v>147.9058629895028</v>
       </c>
       <c r="AJ22" t="n">
-        <v>21.58408865256756</v>
+        <v>102.7182835527967</v>
       </c>
       <c r="AK22" t="n">
-        <v>28.13900949013459</v>
+        <v>41.12263496036924</v>
       </c>
       <c r="AL22" t="n">
-        <v>33.42018368574917</v>
+        <v>14.14125125116276</v>
       </c>
       <c r="AM22" t="n">
-        <v>21.58806612007792</v>
+        <v>25.68904657372732</v>
       </c>
       <c r="AN22" t="n">
-        <v>25.0825963569669</v>
+        <v>15.51961433309351</v>
       </c>
       <c r="AO22" t="n">
-        <v>17.62965728778974</v>
+        <v>37.43134474540894</v>
       </c>
       <c r="AP22" t="n">
-        <v>12.02074220360541</v>
+        <v>21.38426709664599</v>
       </c>
       <c r="AQ22" t="n">
-        <v>20.13607324516785</v>
+        <v>21.21068600799982</v>
       </c>
       <c r="AR22" t="n">
-        <v>18.5796640161883</v>
+        <v>14.79673234009418</v>
       </c>
       <c r="AS22" t="n">
-        <v>8.304389798466204</v>
+        <v>15.38090458926093</v>
       </c>
       <c r="AT22" t="n">
-        <v>10.09416090949075</v>
+        <v>17.06683622837385</v>
       </c>
       <c r="AU22" t="n">
-        <v>11.12556094056649</v>
+        <v>15.75838094319539</v>
       </c>
       <c r="AV22" t="n">
-        <v>13.34883381163579</v>
+        <v>16.9364519813611</v>
       </c>
       <c r="AW22" t="n">
-        <v>15.48664934792306</v>
+        <v>7.86998915764303</v>
       </c>
       <c r="AX22" t="n">
-        <v>14.52669658086016</v>
+        <v>10.16884428971169</v>
       </c>
     </row>
     <row r="23">
@@ -3885,148 +3885,148 @@
         <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>20.4965924987212</v>
+        <v>19.96173218754758</v>
       </c>
       <c r="D23" t="n">
-        <v>24.00870137711033</v>
+        <v>3.670615573323074</v>
       </c>
       <c r="E23" t="n">
-        <v>7.22217307905709</v>
+        <v>13.29062462474353</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>22.35547959559932</v>
       </c>
       <c r="G23" t="n">
-        <v>15.04230132518797</v>
+        <v>10.86388053928645</v>
       </c>
       <c r="H23" t="n">
-        <v>18.61001185209864</v>
+        <v>2.993233841496129</v>
       </c>
       <c r="I23" t="n">
-        <v>17.79331317314417</v>
+        <v>15.88948630328</v>
       </c>
       <c r="J23" t="n">
-        <v>21.49682780128951</v>
+        <v>32.0550208411664</v>
       </c>
       <c r="K23" t="n">
-        <v>51.45345487066142</v>
+        <v>18.01370009221986</v>
       </c>
       <c r="L23" t="n">
-        <v>27.19043047834219</v>
+        <v>20.16118770913855</v>
       </c>
       <c r="M23" t="n">
-        <v>126.7681718332455</v>
+        <v>73.43490244885523</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>27.16208717068352</v>
       </c>
       <c r="O23" t="n">
-        <v>101.4733342594987</v>
+        <v>48.96410967784438</v>
       </c>
       <c r="P23" t="n">
-        <v>107.7512148793502</v>
+        <v>58.6906889307978</v>
       </c>
       <c r="Q23" t="n">
-        <v>17.24068912664757</v>
+        <v>25.19013838520432</v>
       </c>
       <c r="R23" t="n">
-        <v>29.89216595195505</v>
+        <v>51.70625742745183</v>
       </c>
       <c r="S23" t="n">
-        <v>55.00689771641588</v>
+        <v>82.10808283106954</v>
       </c>
       <c r="T23" t="n">
-        <v>10.14790040340358</v>
+        <v>17.73088925229867</v>
       </c>
       <c r="U23" t="n">
-        <v>110.6086537735601</v>
+        <v>73.97550415296971</v>
       </c>
       <c r="V23" t="n">
-        <v>34.78798724215383</v>
+        <v>16.63120725721832</v>
       </c>
       <c r="W23" t="n">
-        <v>47.3332839122786</v>
+        <v>21.66547043586738</v>
       </c>
       <c r="X23" t="n">
-        <v>37.03393818938733</v>
+        <v>24.76340730448668</v>
       </c>
       <c r="Y23" t="n">
-        <v>39.61053154393682</v>
+        <v>50.29444839330298</v>
       </c>
       <c r="Z23" t="n">
-        <v>53.34937189312123</v>
+        <v>19.41185008957811</v>
       </c>
       <c r="AA23" t="n">
-        <v>14.46788970586566</v>
+        <v>20.55512373484904</v>
       </c>
       <c r="AB23" t="n">
-        <v>61.24966473456023</v>
+        <v>13.3595607670814</v>
       </c>
       <c r="AC23" t="n">
-        <v>34.72833756219649</v>
+        <v>74.03246223660723</v>
       </c>
       <c r="AD23" t="n">
-        <v>18.9052924740683</v>
+        <v>23.96601729971225</v>
       </c>
       <c r="AE23" t="n">
-        <v>14.16784489254639</v>
+        <v>44.58597991754014</v>
       </c>
       <c r="AF23" t="n">
-        <v>16.41889634803266</v>
+        <v>22.20456987077348</v>
       </c>
       <c r="AG23" t="n">
-        <v>6.805368354055481</v>
+        <v>5.337677785941052</v>
       </c>
       <c r="AH23" t="n">
-        <v>24.90099008702923</v>
+        <v>22.14507944975826</v>
       </c>
       <c r="AI23" t="n">
-        <v>59.5987313788586</v>
+        <v>10.20845940285954</v>
       </c>
       <c r="AJ23" t="n">
-        <v>28.78262521628544</v>
+        <v>16.68731261981523</v>
       </c>
       <c r="AK23" t="n">
-        <v>38.05816220348042</v>
+        <v>54.13389186603472</v>
       </c>
       <c r="AL23" t="n">
-        <v>104.6058392979253</v>
+        <v>20.47053006393569</v>
       </c>
       <c r="AM23" t="n">
-        <v>71.98641848829949</v>
+        <v>51.82223922449195</v>
       </c>
       <c r="AN23" t="n">
-        <v>29.81328908184361</v>
+        <v>19.6448287533654</v>
       </c>
       <c r="AO23" t="n">
-        <v>20.16130048391084</v>
+        <v>14.3142859080587</v>
       </c>
       <c r="AP23" t="n">
-        <v>19.55134995159894</v>
+        <v>16.91149073232335</v>
       </c>
       <c r="AQ23" t="n">
-        <v>31.59832425120743</v>
+        <v>27.78305211149044</v>
       </c>
       <c r="AR23" t="n">
-        <v>25.57839118235256</v>
+        <v>5.003718963030961</v>
       </c>
       <c r="AS23" t="n">
-        <v>24.16006182689163</v>
+        <v>26.89201104315358</v>
       </c>
       <c r="AT23" t="n">
-        <v>22.93343924216517</v>
+        <v>8.118833017209822</v>
       </c>
       <c r="AU23" t="n">
-        <v>1.599161342329981</v>
+        <v>24.20058761652514</v>
       </c>
       <c r="AV23" t="n">
-        <v>24.01770194199293</v>
+        <v>7.348370583023307</v>
       </c>
       <c r="AW23" t="n">
-        <v>1.643254218771715</v>
+        <v>6.396684090625388</v>
       </c>
       <c r="AX23" t="n">
-        <v>19.39028919904783</v>
+        <v>36.09873299740885</v>
       </c>
     </row>
     <row r="24">
@@ -4037,148 +4037,148 @@
         <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>9.476800647668004</v>
+        <v>1.880992868671596</v>
       </c>
       <c r="D24" t="n">
-        <v>4.726792092920956</v>
+        <v>1.37328071515552</v>
       </c>
       <c r="E24" t="n">
-        <v>6.019415877876721</v>
+        <v>6.851054825368604</v>
       </c>
       <c r="F24" t="n">
-        <v>1.893588158823162</v>
+        <v>23.76226326558541</v>
       </c>
       <c r="G24" t="n">
-        <v>11.43215442878351</v>
+        <v>21.59728314271658</v>
       </c>
       <c r="H24" t="n">
-        <v>4.154439475063322</v>
+        <v>11.3443973865332</v>
       </c>
       <c r="I24" t="n">
-        <v>2.546369975221986</v>
+        <v>38.63090350583106</v>
       </c>
       <c r="J24" t="n">
-        <v>30.930115705147</v>
+        <v>1.072310595356858</v>
       </c>
       <c r="K24" t="n">
-        <v>3.921327650933186</v>
+        <v>21.92432408637154</v>
       </c>
       <c r="L24" t="n">
-        <v>6.18929931577281</v>
+        <v>5.157779266391518</v>
       </c>
       <c r="M24" t="n">
-        <v>7.564366809056779</v>
+        <v>7.925919558964415</v>
       </c>
       <c r="N24" t="n">
-        <v>43.23708835699691</v>
+        <v>5.901449435121897</v>
       </c>
       <c r="O24" t="n">
-        <v>31.49042583221131</v>
+        <v>38.36970067036214</v>
       </c>
       <c r="P24" t="n">
-        <v>14.93234399157022</v>
+        <v>32.47307216184686</v>
       </c>
       <c r="Q24" t="n">
-        <v>25.80637131535559</v>
+        <v>19.74841085882315</v>
       </c>
       <c r="R24" t="n">
-        <v>13.29189696497705</v>
+        <v>48.21068775583385</v>
       </c>
       <c r="S24" t="n">
-        <v>32.27963094415956</v>
+        <v>8.361276180681502</v>
       </c>
       <c r="T24" t="n">
-        <v>13.23863186399459</v>
+        <v>23.16055159272777</v>
       </c>
       <c r="U24" t="n">
-        <v>27.53256395759781</v>
+        <v>22.8872916661686</v>
       </c>
       <c r="V24" t="n">
-        <v>16.363149664295</v>
+        <v>19.11302035537251</v>
       </c>
       <c r="W24" t="n">
-        <v>33.6835939624166</v>
+        <v>18.437924873094</v>
       </c>
       <c r="X24" t="n">
-        <v>25.010563216632</v>
+        <v>25.98818583197504</v>
       </c>
       <c r="Y24" t="n">
-        <v>14.42923117063837</v>
+        <v>19.44802218116542</v>
       </c>
       <c r="Z24" t="n">
-        <v>17.01676529643155</v>
+        <v>16.19180248621513</v>
       </c>
       <c r="AA24" t="n">
-        <v>17.59720673571598</v>
+        <v>14.14890285272123</v>
       </c>
       <c r="AB24" t="n">
-        <v>16.03977060420499</v>
+        <v>5.274543265719417</v>
       </c>
       <c r="AC24" t="n">
-        <v>24.73274125201068</v>
+        <v>22.60871848944749</v>
       </c>
       <c r="AD24" t="n">
-        <v>11.35072803248276</v>
+        <v>22.10921643213704</v>
       </c>
       <c r="AE24" t="n">
-        <v>13.14105950932648</v>
+        <v>6.731934811155094</v>
       </c>
       <c r="AF24" t="n">
-        <v>10.35525105708632</v>
+        <v>14.50547623813692</v>
       </c>
       <c r="AG24" t="n">
-        <v>5.675070171428572</v>
+        <v>13.94542881034845</v>
       </c>
       <c r="AH24" t="n">
-        <v>8.383953778398125</v>
+        <v>21.471007472493</v>
       </c>
       <c r="AI24" t="n">
-        <v>7.411008577523888</v>
+        <v>15.29091679199271</v>
       </c>
       <c r="AJ24" t="n">
-        <v>6.588554187417039</v>
+        <v>12.29368973307261</v>
       </c>
       <c r="AK24" t="n">
-        <v>14.79073217503021</v>
+        <v>14.03765280244968</v>
       </c>
       <c r="AL24" t="n">
-        <v>2.025633037260802</v>
+        <v>11.08800950477142</v>
       </c>
       <c r="AM24" t="n">
-        <v>5.087285265063</v>
+        <v>6.987660222212645</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.603459845586373</v>
+        <v>2.309042714040626</v>
       </c>
       <c r="AO24" t="n">
-        <v>4.726845407542704</v>
+        <v>3.946247277253826</v>
       </c>
       <c r="AP24" t="n">
-        <v>4.737107199412937</v>
+        <v>5.956270723405996</v>
       </c>
       <c r="AQ24" t="n">
-        <v>3.943337204976552</v>
+        <v>11.46010594938307</v>
       </c>
       <c r="AR24" t="n">
-        <v>1.881428571428571</v>
+        <v>4.920517304677837</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.839357384841742</v>
+        <v>2.885750170935954</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.597033386390331</v>
+        <v>4.632355072331626</v>
       </c>
       <c r="AU24" t="n">
-        <v>3.440131180622543</v>
+        <v>0.6304236031505641</v>
       </c>
       <c r="AV24" t="n">
-        <v>4.872017701124395</v>
+        <v>27.51776828271689</v>
       </c>
       <c r="AW24" t="n">
-        <v>1.16631</v>
+        <v>0.6364171125742912</v>
       </c>
       <c r="AX24" t="n">
-        <v>1.05414</v>
+        <v>2.69013064369612</v>
       </c>
     </row>
     <row r="25">
@@ -4189,148 +4189,148 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>17.9</v>
+        <v>38.19606976067044</v>
       </c>
       <c r="D25" t="n">
-        <v>5.48</v>
+        <v>7.218265788381912</v>
       </c>
       <c r="E25" t="n">
-        <v>3.94</v>
+        <v>12.67196326453816</v>
       </c>
       <c r="F25" t="n">
-        <v>18.42</v>
+        <v>7.987859210827582</v>
       </c>
       <c r="G25" t="n">
-        <v>5.432197728538119</v>
+        <v>2.025987897302646</v>
       </c>
       <c r="H25" t="n">
-        <v>11.27121825577859</v>
+        <v>19.14939405260236</v>
       </c>
       <c r="I25" t="n">
-        <v>11.49</v>
+        <v>7.854135586277155</v>
       </c>
       <c r="J25" t="n">
-        <v>42.68725062123286</v>
+        <v>1.18570181707036</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>7.528032734532955</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>38.85650192158479</v>
       </c>
       <c r="M25" t="n">
-        <v>47.37</v>
+        <v>8.36790755466272</v>
       </c>
       <c r="N25" t="n">
-        <v>38.6</v>
+        <v>49.83253626774942</v>
       </c>
       <c r="O25" t="n">
-        <v>15.06</v>
+        <v>71.48639850043338</v>
       </c>
       <c r="P25" t="n">
-        <v>21.74</v>
+        <v>4.966986601037239</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.68000000000001</v>
+        <v>54.92211727871721</v>
       </c>
       <c r="R25" t="n">
-        <v>35.58</v>
+        <v>26.79368037713815</v>
       </c>
       <c r="S25" t="n">
-        <v>30.65</v>
+        <v>80.51612910878032</v>
       </c>
       <c r="T25" t="n">
-        <v>28.39</v>
+        <v>59.10929139362179</v>
       </c>
       <c r="U25" t="n">
-        <v>17.35</v>
+        <v>99.60602844501993</v>
       </c>
       <c r="V25" t="n">
-        <v>43.74</v>
+        <v>39.76780022948423</v>
       </c>
       <c r="W25" t="n">
-        <v>1</v>
+        <v>9.639515328373754</v>
       </c>
       <c r="X25" t="n">
-        <v>18.9</v>
+        <v>3.177707893564897</v>
       </c>
       <c r="Y25" t="n">
-        <v>51.13</v>
+        <v>35.23304881040196</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.57</v>
+        <v>84.81472826718118</v>
       </c>
       <c r="AA25" t="n">
-        <v>7.945039829749764</v>
+        <v>11.60324153340361</v>
       </c>
       <c r="AB25" t="n">
-        <v>3.52</v>
+        <v>8.301378353142825</v>
       </c>
       <c r="AC25" t="n">
-        <v>30.61</v>
+        <v>8.919338603755364</v>
       </c>
       <c r="AD25" t="n">
-        <v>4.61</v>
+        <v>18.51362309774948</v>
       </c>
       <c r="AE25" t="n">
-        <v>8.27</v>
+        <v>7.253842784130308</v>
       </c>
       <c r="AF25" t="n">
-        <v>9.369999999999999</v>
+        <v>0.6789104461109441</v>
       </c>
       <c r="AG25" t="n">
-        <v>8.57</v>
+        <v>6.008313209857233</v>
       </c>
       <c r="AH25" t="n">
-        <v>10.98</v>
+        <v>0.9881197844605425</v>
       </c>
       <c r="AI25" t="n">
-        <v>38.05</v>
+        <v>3.858706033779424</v>
       </c>
       <c r="AJ25" t="n">
-        <v>10.08</v>
+        <v>22.35861013815122</v>
       </c>
       <c r="AK25" t="n">
-        <v>11.22</v>
+        <v>8.38021666214229</v>
       </c>
       <c r="AL25" t="n">
-        <v>9.65</v>
+        <v>5.639099932978168</v>
       </c>
       <c r="AM25" t="n">
-        <v>3.06</v>
+        <v>3.738551383768835</v>
       </c>
       <c r="AN25" t="n">
-        <v>2.53</v>
+        <v>24.00415607310201</v>
       </c>
       <c r="AO25" t="n">
-        <v>19.66</v>
+        <v>17.71906208028737</v>
       </c>
       <c r="AP25" t="n">
-        <v>3.88</v>
+        <v>5.473760494890682</v>
       </c>
       <c r="AQ25" t="n">
-        <v>9.52</v>
+        <v>3.721202213969262</v>
       </c>
       <c r="AR25" t="n">
-        <v>6.31</v>
+        <v>5.116912084646328</v>
       </c>
       <c r="AS25" t="n">
-        <v>21.65</v>
+        <v>0.9387997760618805</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.58</v>
+        <v>7.176458119271442</v>
       </c>
       <c r="AU25" t="n">
-        <v>4.77</v>
+        <v>4.73335238431622</v>
       </c>
       <c r="AV25" t="n">
-        <v>0</v>
+        <v>4.904846736150985</v>
       </c>
       <c r="AW25" t="n">
-        <v>19.64</v>
+        <v>5.388320818148937</v>
       </c>
       <c r="AX25" t="n">
-        <v>11.97</v>
+        <v>8.269843786125044</v>
       </c>
     </row>
     <row r="26">
@@ -4341,148 +4341,148 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>18.71774249855429</v>
+        <v>7.506376394964189</v>
       </c>
       <c r="D26" t="n">
-        <v>17.68024172775895</v>
+        <v>24.38994819453889</v>
       </c>
       <c r="E26" t="n">
-        <v>17.44274839757905</v>
+        <v>41.92134554517413</v>
       </c>
       <c r="F26" t="n">
-        <v>32.48084539460153</v>
+        <v>24.295681385001</v>
       </c>
       <c r="G26" t="n">
-        <v>21.23820738477977</v>
+        <v>30.10204769499499</v>
       </c>
       <c r="H26" t="n">
-        <v>13.66586450757911</v>
+        <v>9.525424913327946</v>
       </c>
       <c r="I26" t="n">
-        <v>26.82556525243761</v>
+        <v>50.19274592026062</v>
       </c>
       <c r="J26" t="n">
-        <v>68.35461878759804</v>
+        <v>160.4491922888176</v>
       </c>
       <c r="K26" t="n">
-        <v>92.49027871855192</v>
+        <v>398.699522677173</v>
       </c>
       <c r="L26" t="n">
-        <v>60.17137726531347</v>
+        <v>70.01637689511918</v>
       </c>
       <c r="M26" t="n">
-        <v>81.34726391817108</v>
+        <v>27.01390079324734</v>
       </c>
       <c r="N26" t="n">
-        <v>109.7251886131311</v>
+        <v>120.1911929249375</v>
       </c>
       <c r="O26" t="n">
-        <v>195.5135036233296</v>
+        <v>116.9783900055659</v>
       </c>
       <c r="P26" t="n">
-        <v>16.82505623254998</v>
+        <v>43.16528619119467</v>
       </c>
       <c r="Q26" t="n">
-        <v>44.15094279445852</v>
+        <v>93.84731284885493</v>
       </c>
       <c r="R26" t="n">
-        <v>31.1033292119684</v>
+        <v>37.35117914728904</v>
       </c>
       <c r="S26" t="n">
-        <v>152.0271573007314</v>
+        <v>79.17661074205549</v>
       </c>
       <c r="T26" t="n">
-        <v>43.87556765961149</v>
+        <v>92.84546280349996</v>
       </c>
       <c r="U26" t="n">
-        <v>37.4022069522805</v>
+        <v>42.52044795166196</v>
       </c>
       <c r="V26" t="n">
-        <v>73.36989839704397</v>
+        <v>199.4671132643548</v>
       </c>
       <c r="W26" t="n">
-        <v>43.75951120911171</v>
+        <v>40.56780050710139</v>
       </c>
       <c r="X26" t="n">
-        <v>66.31520182044797</v>
+        <v>111.4358909410309</v>
       </c>
       <c r="Y26" t="n">
-        <v>42.09424734195859</v>
+        <v>92.34163404308633</v>
       </c>
       <c r="Z26" t="n">
-        <v>57.87690379174295</v>
+        <v>57.69077341168584</v>
       </c>
       <c r="AA26" t="n">
-        <v>126.7533132238436</v>
+        <v>68.04995757975402</v>
       </c>
       <c r="AB26" t="n">
-        <v>76.32075694164797</v>
+        <v>57.75683604735365</v>
       </c>
       <c r="AC26" t="n">
-        <v>102.0140159840608</v>
+        <v>77.5015402912931</v>
       </c>
       <c r="AD26" t="n">
-        <v>130.5986802383703</v>
+        <v>124.812816598045</v>
       </c>
       <c r="AE26" t="n">
-        <v>94.62129835937182</v>
+        <v>99.07330572343041</v>
       </c>
       <c r="AF26" t="n">
-        <v>125.2289842119747</v>
+        <v>66.04702382590861</v>
       </c>
       <c r="AG26" t="n">
-        <v>146.0925701244353</v>
+        <v>136.9235206087886</v>
       </c>
       <c r="AH26" t="n">
-        <v>65.11496973023684</v>
+        <v>74.07551206464554</v>
       </c>
       <c r="AI26" t="n">
-        <v>53.47976307602451</v>
+        <v>71.77570182848891</v>
       </c>
       <c r="AJ26" t="n">
-        <v>30.64415057490755</v>
+        <v>54.20020827553491</v>
       </c>
       <c r="AK26" t="n">
-        <v>54.9958050574004</v>
+        <v>44.07033177417006</v>
       </c>
       <c r="AL26" t="n">
-        <v>72.41503759488472</v>
+        <v>65.96131628270578</v>
       </c>
       <c r="AM26" t="n">
-        <v>34.75895299409376</v>
+        <v>44.33418897653482</v>
       </c>
       <c r="AN26" t="n">
-        <v>31.0787015410047</v>
+        <v>43.88796955710853</v>
       </c>
       <c r="AO26" t="n">
-        <v>38.7592431491865</v>
+        <v>28.08370405045386</v>
       </c>
       <c r="AP26" t="n">
-        <v>25.3276813231112</v>
+        <v>22.53682608095874</v>
       </c>
       <c r="AQ26" t="n">
-        <v>34.01500098999237</v>
+        <v>28.78081437065156</v>
       </c>
       <c r="AR26" t="n">
-        <v>27.27616192200224</v>
+        <v>30.09686783464105</v>
       </c>
       <c r="AS26" t="n">
-        <v>20.90350967130698</v>
+        <v>16.76828360757938</v>
       </c>
       <c r="AT26" t="n">
-        <v>18.66151893249643</v>
+        <v>16.81497968036782</v>
       </c>
       <c r="AU26" t="n">
-        <v>24.37153199025768</v>
+        <v>20.47202326585503</v>
       </c>
       <c r="AV26" t="n">
-        <v>9.756462314876973</v>
+        <v>31.96453275893253</v>
       </c>
       <c r="AW26" t="n">
-        <v>22.78793137747255</v>
+        <v>18.09768012767611</v>
       </c>
       <c r="AX26" t="n">
-        <v>16.19062440713352</v>
+        <v>17.5538020980386</v>
       </c>
     </row>
     <row r="27">
@@ -4493,148 +4493,148 @@
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>4.9967444879387</v>
+        <v>3.779391824417329</v>
       </c>
       <c r="D27" t="n">
-        <v>3.192448647095841</v>
+        <v>8.041078510827655</v>
       </c>
       <c r="E27" t="n">
-        <v>4.212538001074274</v>
+        <v>3.020714592723161</v>
       </c>
       <c r="F27" t="n">
-        <v>8.564017677782259</v>
+        <v>0.03579681666090206</v>
       </c>
       <c r="G27" t="n">
-        <v>2.807858807898236</v>
+        <v>7.07688609899033</v>
       </c>
       <c r="H27" t="n">
-        <v>1.775313171221172</v>
+        <v>4.870372114667075</v>
       </c>
       <c r="I27" t="n">
-        <v>4.088069413836394</v>
+        <v>4.073366727806399</v>
       </c>
       <c r="J27" t="n">
-        <v>4.803761648260872</v>
+        <v>2.377833459362994</v>
       </c>
       <c r="K27" t="n">
-        <v>1.524253545543404</v>
+        <v>1.553897598264736</v>
       </c>
       <c r="L27" t="n">
-        <v>5.636783797859564</v>
+        <v>1.641172223460282</v>
       </c>
       <c r="M27" t="n">
-        <v>5.381039302192436</v>
+        <v>8.53899076342714</v>
       </c>
       <c r="N27" t="n">
-        <v>8.173047335940039</v>
+        <v>1.612203105543452</v>
       </c>
       <c r="O27" t="n">
-        <v>5.694326860633698</v>
+        <v>4.243131179836722</v>
       </c>
       <c r="P27" t="n">
-        <v>3.177487776281326</v>
+        <v>12.15984271901447</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.966260258764037</v>
+        <v>1.794163526435044</v>
       </c>
       <c r="R27" t="n">
-        <v>7.852758617060188</v>
+        <v>6.511301297864097</v>
       </c>
       <c r="S27" t="n">
-        <v>6.759060985352007</v>
+        <v>1.373203142849202</v>
       </c>
       <c r="T27" t="n">
-        <v>1.645974016574386</v>
+        <v>4.074189558621067</v>
       </c>
       <c r="U27" t="n">
-        <v>3.546355191392922</v>
+        <v>0.7545160808349731</v>
       </c>
       <c r="V27" t="n">
-        <v>3.411709612336633</v>
+        <v>5.022583075586171</v>
       </c>
       <c r="W27" t="n">
-        <v>2.866540045668922</v>
+        <v>4.729792955691805</v>
       </c>
       <c r="X27" t="n">
-        <v>1.147385639070449</v>
+        <v>1.226329146996206</v>
       </c>
       <c r="Y27" t="n">
-        <v>4.767790403823343</v>
+        <v>2.780621784651907</v>
       </c>
       <c r="Z27" t="n">
-        <v>2.909198998719549</v>
+        <v>3.611094751271645</v>
       </c>
       <c r="AA27" t="n">
-        <v>4.9169616</v>
+        <v>3.264692364057078</v>
       </c>
       <c r="AB27" t="n">
-        <v>5.699461617673461</v>
+        <v>8.030103529011777</v>
       </c>
       <c r="AC27" t="n">
-        <v>3.263685099507968</v>
+        <v>5.013081266312902</v>
       </c>
       <c r="AD27" t="n">
-        <v>6.05963264086315</v>
+        <v>2.357223263427085</v>
       </c>
       <c r="AE27" t="n">
-        <v>4.716271362300938</v>
+        <v>7.276349005081713</v>
       </c>
       <c r="AF27" t="n">
-        <v>5.026049155659589</v>
+        <v>4.099354616314896</v>
       </c>
       <c r="AG27" t="n">
-        <v>5.751830706367797</v>
+        <v>7.044496899478005</v>
       </c>
       <c r="AH27" t="n">
-        <v>7.140001715577728</v>
+        <v>6.03697122925302</v>
       </c>
       <c r="AI27" t="n">
-        <v>7.541709808392753</v>
+        <v>13.72468834478109</v>
       </c>
       <c r="AJ27" t="n">
-        <v>6.999321730971538</v>
+        <v>10.629927569163</v>
       </c>
       <c r="AK27" t="n">
-        <v>4.751706807817009</v>
+        <v>6.49953889972266</v>
       </c>
       <c r="AL27" t="n">
-        <v>3.990204060876949</v>
+        <v>4.082125919492254</v>
       </c>
       <c r="AM27" t="n">
-        <v>5.211580979119145</v>
+        <v>13.46873147185571</v>
       </c>
       <c r="AN27" t="n">
-        <v>4.104658161150634</v>
+        <v>1.381838661127971</v>
       </c>
       <c r="AO27" t="n">
-        <v>4.164020659113811</v>
+        <v>3.719493539044059</v>
       </c>
       <c r="AP27" t="n">
-        <v>6.777762805603824</v>
+        <v>3.913848925422903</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.3892363677716422</v>
+        <v>2.396241191331163</v>
       </c>
       <c r="AR27" t="n">
-        <v>3.712968954683376</v>
+        <v>3.419022013804124</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.976829976553316</v>
+        <v>5.655773335913292</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.473124234561495</v>
+        <v>2.884623237454639</v>
       </c>
       <c r="AU27" t="n">
-        <v>2.061504049580967</v>
+        <v>1.752298151921637</v>
       </c>
       <c r="AV27" t="n">
-        <v>2.113510737910412</v>
+        <v>0.9834433456540862</v>
       </c>
       <c r="AW27" t="n">
-        <v>3.011847976396451</v>
+        <v>3.141902926391434</v>
       </c>
       <c r="AX27" t="n">
-        <v>0.4177838334886745</v>
+        <v>6.789522010242888</v>
       </c>
     </row>
     <row r="28">
@@ -4645,148 +4645,148 @@
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>11.29489031919086</v>
+        <v>12.38147158430874</v>
       </c>
       <c r="D28" t="n">
-        <v>8.726403840755767</v>
+        <v>6.640843920998565</v>
       </c>
       <c r="E28" t="n">
-        <v>9.96833108434843</v>
+        <v>25.67834043160864</v>
       </c>
       <c r="F28" t="n">
-        <v>16.21276833095887</v>
+        <v>29.76227603083432</v>
       </c>
       <c r="G28" t="n">
-        <v>2.943627160110024</v>
+        <v>32.47956744772002</v>
       </c>
       <c r="H28" t="n">
-        <v>29.29741232348775</v>
+        <v>11.59340824890255</v>
       </c>
       <c r="I28" t="n">
-        <v>219.6434835851854</v>
+        <v>6.454562322300398</v>
       </c>
       <c r="J28" t="n">
-        <v>203.3811909625227</v>
+        <v>39.360436886197</v>
       </c>
       <c r="K28" t="n">
-        <v>29.29814775035994</v>
+        <v>12.98582426536867</v>
       </c>
       <c r="L28" t="n">
-        <v>91.59496796542419</v>
+        <v>99.5158327339938</v>
       </c>
       <c r="M28" t="n">
-        <v>17.33406908214642</v>
+        <v>85.85071755389453</v>
       </c>
       <c r="N28" t="n">
-        <v>30.68707475304274</v>
+        <v>137.2953708093691</v>
       </c>
       <c r="O28" t="n">
-        <v>20.43023353834243</v>
+        <v>49.0459932365496</v>
       </c>
       <c r="P28" t="n">
-        <v>30.55504128387329</v>
+        <v>27.89617234227372</v>
       </c>
       <c r="Q28" t="n">
-        <v>235.3805195964912</v>
+        <v>85.34450985516671</v>
       </c>
       <c r="R28" t="n">
-        <v>127.0746930175107</v>
+        <v>24.53893313955722</v>
       </c>
       <c r="S28" t="n">
-        <v>34.25153361964641</v>
+        <v>38.60475578850783</v>
       </c>
       <c r="T28" t="n">
-        <v>28.35150215370669</v>
+        <v>16.43322710624375</v>
       </c>
       <c r="U28" t="n">
-        <v>48.86630561222069</v>
+        <v>63.73800340805138</v>
       </c>
       <c r="V28" t="n">
-        <v>63.87329496478269</v>
+        <v>39.01069525398969</v>
       </c>
       <c r="W28" t="n">
-        <v>131.8903360285714</v>
+        <v>88.47986300920441</v>
       </c>
       <c r="X28" t="n">
-        <v>36.20241060358744</v>
+        <v>44.5213103662478</v>
       </c>
       <c r="Y28" t="n">
-        <v>52.28875157057293</v>
+        <v>52.58537005424762</v>
       </c>
       <c r="Z28" t="n">
-        <v>95.29570272836875</v>
+        <v>74.19461507551061</v>
       </c>
       <c r="AA28" t="n">
-        <v>41.49732511472077</v>
+        <v>75.57983613836852</v>
       </c>
       <c r="AB28" t="n">
-        <v>60.53698560070078</v>
+        <v>94.30240886537392</v>
       </c>
       <c r="AC28" t="n">
-        <v>52.55700183375316</v>
+        <v>46.27954753267263</v>
       </c>
       <c r="AD28" t="n">
-        <v>88.96889216630191</v>
+        <v>93.86288637712234</v>
       </c>
       <c r="AE28" t="n">
-        <v>24.09012492812083</v>
+        <v>47.28955338854641</v>
       </c>
       <c r="AF28" t="n">
-        <v>53.96070671037246</v>
+        <v>46.3510883688897</v>
       </c>
       <c r="AG28" t="n">
-        <v>114.4285236750646</v>
+        <v>96.72560306589284</v>
       </c>
       <c r="AH28" t="n">
-        <v>68.12896670681657</v>
+        <v>50.01736055020292</v>
       </c>
       <c r="AI28" t="n">
-        <v>45.78668867875908</v>
+        <v>36.40833145841713</v>
       </c>
       <c r="AJ28" t="n">
-        <v>29.12606322544103</v>
+        <v>25.96493067824278</v>
       </c>
       <c r="AK28" t="n">
-        <v>37.89349553631968</v>
+        <v>45.27535055732341</v>
       </c>
       <c r="AL28" t="n">
-        <v>33.42018368574917</v>
+        <v>48.88525691820464</v>
       </c>
       <c r="AM28" t="n">
-        <v>16.04701016808183</v>
+        <v>27.31706828087066</v>
       </c>
       <c r="AN28" t="n">
-        <v>18.83781384564425</v>
+        <v>39.72922580613476</v>
       </c>
       <c r="AO28" t="n">
-        <v>7.355612444444444</v>
+        <v>12.62927190048994</v>
       </c>
       <c r="AP28" t="n">
-        <v>12.8586800478696</v>
+        <v>12.37383709529353</v>
       </c>
       <c r="AQ28" t="n">
-        <v>8.810063474863245</v>
+        <v>23.3723658354501</v>
       </c>
       <c r="AR28" t="n">
-        <v>37.58247136998498</v>
+        <v>8.003033135679441</v>
       </c>
       <c r="AS28" t="n">
-        <v>17.77421847131786</v>
+        <v>14.13408074789539</v>
       </c>
       <c r="AT28" t="n">
-        <v>13.49781382829814</v>
+        <v>13.1816364843279</v>
       </c>
       <c r="AU28" t="n">
-        <v>5.958476555685106</v>
+        <v>8.977458279118469</v>
       </c>
       <c r="AV28" t="n">
-        <v>7.819989730268524</v>
+        <v>10.72285532128459</v>
       </c>
       <c r="AW28" t="n">
-        <v>9.988083175605706</v>
+        <v>10.92321682023941</v>
       </c>
       <c r="AX28" t="n">
-        <v>9.162357355755052</v>
+        <v>4.839814532743552</v>
       </c>
     </row>
     <row r="29">
@@ -4797,148 +4797,148 @@
         <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>18.81145887477858</v>
+        <v>20.34388912055783</v>
       </c>
       <c r="D29" t="n">
-        <v>7.01166393912771</v>
+        <v>15.88290691540887</v>
       </c>
       <c r="E29" t="n">
-        <v>29.26720159413895</v>
+        <v>11.62900748770737</v>
       </c>
       <c r="F29" t="n">
-        <v>22.0297044370524</v>
+        <v>4.973378323871954</v>
       </c>
       <c r="G29" t="n">
-        <v>15.04230132518797</v>
+        <v>3.817425202622695</v>
       </c>
       <c r="H29" t="n">
-        <v>24.35380248796908</v>
+        <v>12.22031936050999</v>
       </c>
       <c r="I29" t="n">
-        <v>17.50596507210155</v>
+        <v>111.6976348709165</v>
       </c>
       <c r="J29" t="n">
-        <v>49.36468664699899</v>
+        <v>14.1951134771963</v>
       </c>
       <c r="K29" t="n">
-        <v>33.06041779339157</v>
+        <v>18.14854265442363</v>
       </c>
       <c r="L29" t="n">
-        <v>43.07843923011572</v>
+        <v>6.291234482969043</v>
       </c>
       <c r="M29" t="n">
-        <v>32.08249744733064</v>
+        <v>123.0700469446776</v>
       </c>
       <c r="N29" t="n">
-        <v>63.55439581902734</v>
+        <v>30.91700070818325</v>
       </c>
       <c r="O29" t="n">
-        <v>9.130463598225495</v>
+        <v>76.71536051637845</v>
       </c>
       <c r="P29" t="n">
-        <v>109.3816564278748</v>
+        <v>172.8358503859696</v>
       </c>
       <c r="Q29" t="n">
-        <v>39.75852464727731</v>
+        <v>26.26168650226714</v>
       </c>
       <c r="R29" t="n">
-        <v>30.14508107598944</v>
+        <v>67.80182073036063</v>
       </c>
       <c r="S29" t="n">
-        <v>58.8774300242858</v>
+        <v>56.29758798611775</v>
       </c>
       <c r="T29" t="n">
-        <v>39.0465835437863</v>
+        <v>31.3575193694795</v>
       </c>
       <c r="U29" t="n">
-        <v>42.67856216782493</v>
+        <v>65.29194446079845</v>
       </c>
       <c r="V29" t="n">
-        <v>78.62543869980043</v>
+        <v>62.90995666448707</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>67.05229560687806</v>
       </c>
       <c r="X29" t="n">
-        <v>12.07623693835623</v>
+        <v>36.78035171812212</v>
       </c>
       <c r="Y29" t="n">
-        <v>29.1175344921358</v>
+        <v>48.48009281320101</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.83423643596657</v>
+        <v>12.20616042506384</v>
       </c>
       <c r="AA29" t="n">
-        <v>38.66822966227818</v>
+        <v>20.85830522383357</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>41.98959987607012</v>
       </c>
       <c r="AC29" t="n">
-        <v>36.35698977861867</v>
+        <v>69.16458138022701</v>
       </c>
       <c r="AD29" t="n">
-        <v>28.77693388164454</v>
+        <v>25.30258579910636</v>
       </c>
       <c r="AE29" t="n">
-        <v>37.98681563511168</v>
+        <v>59.4483730333359</v>
       </c>
       <c r="AF29" t="n">
-        <v>32.81993703928983</v>
+        <v>27.7036473443725</v>
       </c>
       <c r="AG29" t="n">
-        <v>2.148929127218565</v>
+        <v>9.945983402942245</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>58.22019994950327</v>
       </c>
       <c r="AI29" t="n">
-        <v>22.99519767074919</v>
+        <v>12.81140869393017</v>
       </c>
       <c r="AJ29" t="n">
-        <v>33.55834549579144</v>
+        <v>20.29914713814539</v>
       </c>
       <c r="AK29" t="n">
-        <v>34.24418764990849</v>
+        <v>9.081749034644009</v>
       </c>
       <c r="AL29" t="n">
-        <v>24.80912693418662</v>
+        <v>13.63637509694372</v>
       </c>
       <c r="AM29" t="n">
-        <v>43.13452951847661</v>
+        <v>20.58372050464528</v>
       </c>
       <c r="AN29" t="n">
-        <v>25.91440926402704</v>
+        <v>11.7229048155894</v>
       </c>
       <c r="AO29" t="n">
-        <v>5.896445137287468</v>
+        <v>32.45128989549513</v>
       </c>
       <c r="AP29" t="n">
-        <v>21.8752868232813</v>
+        <v>22.26838021352222</v>
       </c>
       <c r="AQ29" t="n">
-        <v>9.426309682899323</v>
+        <v>25.15174895722929</v>
       </c>
       <c r="AR29" t="n">
-        <v>2.646357523311188</v>
+        <v>16.11977060832207</v>
       </c>
       <c r="AS29" t="n">
-        <v>41.46247076669392</v>
+        <v>19.70480009890754</v>
       </c>
       <c r="AT29" t="n">
-        <v>22.93343924216517</v>
+        <v>12.99945564664259</v>
       </c>
       <c r="AU29" t="n">
-        <v>36.05979778188836</v>
+        <v>88.6218532931792</v>
       </c>
       <c r="AV29" t="n">
-        <v>33.27409834892599</v>
+        <v>19.44239532664072</v>
       </c>
       <c r="AW29" t="n">
-        <v>21.04960868453895</v>
+        <v>8.988040647162338</v>
       </c>
       <c r="AX29" t="n">
-        <v>32.65493338795713</v>
+        <v>30.85998387247181</v>
       </c>
     </row>
     <row r="30">
@@ -4949,148 +4949,148 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>1.683580307852916</v>
+        <v>0.4589876805097739</v>
       </c>
       <c r="D30" t="n">
-        <v>4.800962334213819</v>
+        <v>4.883050140327633</v>
       </c>
       <c r="E30" t="n">
-        <v>19.97670871031493</v>
+        <v>1.376898307485577</v>
       </c>
       <c r="F30" t="n">
-        <v>2.782968496803243</v>
+        <v>5.091028541107176</v>
       </c>
       <c r="G30" t="n">
-        <v>15.36088428249599</v>
+        <v>18.37728545933973</v>
       </c>
       <c r="H30" t="n">
-        <v>19.2715551194675</v>
+        <v>9.936389859037412</v>
       </c>
       <c r="I30" t="n">
-        <v>11.87455194596577</v>
+        <v>13.01849419996373</v>
       </c>
       <c r="J30" t="n">
-        <v>51.6096963942043</v>
+        <v>32.00384716634594</v>
       </c>
       <c r="K30" t="n">
-        <v>9.650090386664363</v>
+        <v>8.349560458688465</v>
       </c>
       <c r="L30" t="n">
-        <v>62.43804099078584</v>
+        <v>13.87082354957118</v>
       </c>
       <c r="M30" t="n">
-        <v>17.56139170626299</v>
+        <v>51.90394424262465</v>
       </c>
       <c r="N30" t="n">
-        <v>26.0428973477163</v>
+        <v>9.732600946236877</v>
       </c>
       <c r="O30" t="n">
-        <v>10.0735584</v>
+        <v>54.76588927718664</v>
       </c>
       <c r="P30" t="n">
-        <v>2.962045299162115</v>
+        <v>6.128163477088617</v>
       </c>
       <c r="Q30" t="n">
-        <v>28.92690342702323</v>
+        <v>53.69811504836962</v>
       </c>
       <c r="R30" t="n">
-        <v>16.66437427147395</v>
+        <v>12.0133293353406</v>
       </c>
       <c r="S30" t="n">
-        <v>15.80585370853485</v>
+        <v>36.84989832198708</v>
       </c>
       <c r="T30" t="n">
-        <v>13.02880357791027</v>
+        <v>14.27530030389124</v>
       </c>
       <c r="U30" t="n">
-        <v>17.098039073909</v>
+        <v>11.28801338821781</v>
       </c>
       <c r="V30" t="n">
-        <v>13.0786862069303</v>
+        <v>32.40596548724633</v>
       </c>
       <c r="W30" t="n">
-        <v>28.20797350916242</v>
+        <v>12.52077197952554</v>
       </c>
       <c r="X30" t="n">
-        <v>19.89647115428314</v>
+        <v>13.03107825805671</v>
       </c>
       <c r="Y30" t="n">
-        <v>15.05080651841219</v>
+        <v>34.14702778252586</v>
       </c>
       <c r="Z30" t="n">
-        <v>31.78835757172823</v>
+        <v>20.95178788701423</v>
       </c>
       <c r="AA30" t="n">
-        <v>12.90804718682787</v>
+        <v>29.19997240987262</v>
       </c>
       <c r="AB30" t="n">
-        <v>12.85817554871253</v>
+        <v>34.0182340587821</v>
       </c>
       <c r="AC30" t="n">
-        <v>24.73274125201068</v>
+        <v>12.74349766132957</v>
       </c>
       <c r="AD30" t="n">
-        <v>31.19300959437604</v>
+        <v>14.994875768602</v>
       </c>
       <c r="AE30" t="n">
-        <v>14.08971185009755</v>
+        <v>12.9566391855103</v>
       </c>
       <c r="AF30" t="n">
-        <v>14.2815976300338</v>
+        <v>24.54131297396976</v>
       </c>
       <c r="AG30" t="n">
-        <v>11.82668649555539</v>
+        <v>7.795031265603042</v>
       </c>
       <c r="AH30" t="n">
-        <v>10.26502066011358</v>
+        <v>8.874201835198907</v>
       </c>
       <c r="AI30" t="n">
-        <v>6.414136322456334</v>
+        <v>9.094290988523689</v>
       </c>
       <c r="AJ30" t="n">
-        <v>7.187427614145729</v>
+        <v>5.730237562124485</v>
       </c>
       <c r="AK30" t="n">
-        <v>13.03812364939466</v>
+        <v>15.23527526884001</v>
       </c>
       <c r="AL30" t="n">
-        <v>14.85774653805074</v>
+        <v>9.049805767298267</v>
       </c>
       <c r="AM30" t="n">
-        <v>3.731278943197958</v>
+        <v>4.205075467183494</v>
       </c>
       <c r="AN30" t="n">
-        <v>3.227256513837276</v>
+        <v>2.137402507451377</v>
       </c>
       <c r="AO30" t="n">
-        <v>1.897200952757711</v>
+        <v>1.924606436475781</v>
       </c>
       <c r="AP30" t="n">
-        <v>3.872502564140667</v>
+        <v>3.979456527397014</v>
       </c>
       <c r="AQ30" t="n">
-        <v>2.06</v>
+        <v>3.146119081012608</v>
       </c>
       <c r="AR30" t="n">
-        <v>2.457142857142856</v>
+        <v>6.982226000923373</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.774247262013419</v>
+        <v>2.18461538423953</v>
       </c>
       <c r="AT30" t="n">
-        <v>4.357572804466948</v>
+        <v>0.7807299537035081</v>
       </c>
       <c r="AU30" t="n">
-        <v>2.994672927943652</v>
+        <v>0.5211357525966642</v>
       </c>
       <c r="AV30" t="n">
-        <v>0.4841034971828675</v>
+        <v>4.206928266039324</v>
       </c>
       <c r="AW30" t="n">
-        <v>0.7187915405391508</v>
+        <v>0.6317251362623599</v>
       </c>
       <c r="AX30" t="n">
-        <v>0.9009436032477506</v>
+        <v>1.719319449585632</v>
       </c>
     </row>
     <row r="31">
@@ -5101,148 +5101,148 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>3.87</v>
+        <v>15.97521620493436</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>13.10362673570632</v>
       </c>
       <c r="E31" t="n">
-        <v>27.42</v>
+        <v>7.00200713567234</v>
       </c>
       <c r="F31" t="n">
-        <v>34.46</v>
+        <v>20.69132292651196</v>
       </c>
       <c r="G31" t="n">
-        <v>2.48</v>
+        <v>52.29958033989944</v>
       </c>
       <c r="H31" t="n">
-        <v>4.083714168</v>
+        <v>10.0785459717193</v>
       </c>
       <c r="I31" t="n">
-        <v>29.74</v>
+        <v>8.072880631744258</v>
       </c>
       <c r="J31" t="n">
-        <v>3.84</v>
+        <v>21.94102831018916</v>
       </c>
       <c r="K31" t="n">
-        <v>38.91</v>
+        <v>256.9111931371866</v>
       </c>
       <c r="L31" t="n">
-        <v>52.6</v>
+        <v>8.461711421940354</v>
       </c>
       <c r="M31" t="n">
-        <v>29.07</v>
+        <v>51.10616511555125</v>
       </c>
       <c r="N31" t="n">
-        <v>74.53</v>
+        <v>104.6453889797426</v>
       </c>
       <c r="O31" t="n">
-        <v>32.65</v>
+        <v>14.66538626643622</v>
       </c>
       <c r="P31" t="n">
-        <v>42.87</v>
+        <v>39.37476922739815</v>
       </c>
       <c r="Q31" t="n">
-        <v>21.74</v>
+        <v>49.42500006608514</v>
       </c>
       <c r="R31" t="n">
-        <v>2.712317753001716</v>
+        <v>9.278601853634187</v>
       </c>
       <c r="S31" t="n">
-        <v>17.35</v>
+        <v>104.9089246477914</v>
       </c>
       <c r="T31" t="n">
-        <v>28.39</v>
+        <v>5.250489429595123</v>
       </c>
       <c r="U31" t="n">
-        <v>25.42</v>
+        <v>45.1478229467922</v>
       </c>
       <c r="V31" t="n">
-        <v>8.32</v>
+        <v>89.04684695999107</v>
       </c>
       <c r="W31" t="n">
-        <v>9.33</v>
+        <v>17.78845212158268</v>
       </c>
       <c r="X31" t="n">
-        <v>17.57</v>
+        <v>15.98923079298463</v>
       </c>
       <c r="Y31" t="n">
-        <v>21.1</v>
+        <v>5.239729702586529</v>
       </c>
       <c r="Z31" t="n">
-        <v>37.13</v>
+        <v>13.53100999574706</v>
       </c>
       <c r="AA31" t="n">
-        <v>3.29</v>
+        <v>14.67391606981783</v>
       </c>
       <c r="AB31" t="n">
-        <v>20.61</v>
+        <v>5.768095334643943</v>
       </c>
       <c r="AC31" t="n">
-        <v>2.74</v>
+        <v>12.20070309905767</v>
       </c>
       <c r="AD31" t="n">
-        <v>9.630000000000001</v>
+        <v>12.40134700289813</v>
       </c>
       <c r="AE31" t="n">
-        <v>1.07</v>
+        <v>5.386964082164579</v>
       </c>
       <c r="AF31" t="n">
-        <v>5.196733720797051</v>
+        <v>0.7820021843140345</v>
       </c>
       <c r="AG31" t="n">
-        <v>9.029999999999999</v>
+        <v>9.850371442141842</v>
       </c>
       <c r="AH31" t="n">
-        <v>10.98</v>
+        <v>28.55626030231904</v>
       </c>
       <c r="AI31" t="n">
-        <v>1.16</v>
+        <v>2.99987050536313</v>
       </c>
       <c r="AJ31" t="n">
-        <v>6.15</v>
+        <v>11.89998019149567</v>
       </c>
       <c r="AK31" t="n">
-        <v>3.776809016999999</v>
+        <v>4.684163748298152</v>
       </c>
       <c r="AL31" t="n">
-        <v>0.0160611158344297</v>
+        <v>4.117108361243448</v>
       </c>
       <c r="AM31" t="n">
-        <v>2.12</v>
+        <v>7.954794179675737</v>
       </c>
       <c r="AN31" t="n">
-        <v>20.69</v>
+        <v>2.504291056021148</v>
       </c>
       <c r="AO31" t="n">
-        <v>1.15</v>
+        <v>8.087904459367696</v>
       </c>
       <c r="AP31" t="n">
-        <v>2.62</v>
+        <v>5.00289542690227</v>
       </c>
       <c r="AQ31" t="n">
-        <v>13.45</v>
+        <v>0.5664991862507753</v>
       </c>
       <c r="AR31" t="n">
-        <v>1.13</v>
+        <v>4.906048842458005</v>
       </c>
       <c r="AS31" t="n">
-        <v>11.84</v>
+        <v>17.02501630737828</v>
       </c>
       <c r="AT31" t="n">
-        <v>11.13</v>
+        <v>4.824893681097482</v>
       </c>
       <c r="AU31" t="n">
-        <v>6.071428571428571</v>
+        <v>2.091703848377884</v>
       </c>
       <c r="AV31" t="n">
-        <v>4.65</v>
+        <v>6.228102674079627</v>
       </c>
       <c r="AW31" t="n">
-        <v>3.37</v>
+        <v>6.001113053382497</v>
       </c>
       <c r="AX31" t="n">
-        <v>6.28</v>
+        <v>8.912777279737318</v>
       </c>
     </row>
   </sheetData>

--- a/escenarios_montecarlo/escenario_008.xlsx
+++ b/escenarios_montecarlo/escenario_008.xlsx
@@ -693,148 +693,148 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>16.06034108752439</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>17.81717576341537</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>32.49899612232164</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>50.98972589667606</v>
+        <v>4.342719274285862</v>
       </c>
       <c r="G2" t="n">
-        <v>26.2238818770679</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>40.88832174586261</v>
+        <v>3.178247802323753</v>
       </c>
       <c r="I2" t="n">
-        <v>196.452683753493</v>
+        <v>28.97337380828872</v>
       </c>
       <c r="J2" t="n">
-        <v>255.7504327410917</v>
+        <v>93.66264393622895</v>
       </c>
       <c r="K2" t="n">
-        <v>20.39780095238209</v>
+        <v>85.60557949547338</v>
       </c>
       <c r="L2" t="n">
-        <v>195.7680681438298</v>
+        <v>108.6789645893183</v>
       </c>
       <c r="M2" t="n">
-        <v>49.1525440024426</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.73650581072317</v>
+        <v>173.035897360352</v>
       </c>
       <c r="O2" t="n">
-        <v>59.36154034563982</v>
+        <v>77.8685917960933</v>
       </c>
       <c r="P2" t="n">
-        <v>47.18233136782857</v>
+        <v>73.55034943606074</v>
       </c>
       <c r="Q2" t="n">
-        <v>84.52678545446726</v>
+        <v>132.8120172214393</v>
       </c>
       <c r="R2" t="n">
-        <v>81.61575696681348</v>
+        <v>53.53805334130362</v>
       </c>
       <c r="S2" t="n">
-        <v>33.70633285152113</v>
+        <v>43.58861165174818</v>
       </c>
       <c r="T2" t="n">
-        <v>91.27565745195263</v>
+        <v>78.04499233318592</v>
       </c>
       <c r="U2" t="n">
-        <v>22.18771446226725</v>
+        <v>42.10655188554283</v>
       </c>
       <c r="V2" t="n">
-        <v>67.85347217412775</v>
+        <v>50.97952907492353</v>
       </c>
       <c r="W2" t="n">
-        <v>120.7817854563394</v>
+        <v>56.38289887503826</v>
       </c>
       <c r="X2" t="n">
-        <v>85.10814466322618</v>
+        <v>79.60217680059489</v>
       </c>
       <c r="Y2" t="n">
-        <v>74.13096187890889</v>
+        <v>66.65472417950866</v>
       </c>
       <c r="Z2" t="n">
-        <v>60.2484112683026</v>
+        <v>85.24273528742424</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.08450189812514</v>
+        <v>124.670722312209</v>
       </c>
       <c r="AB2" t="n">
-        <v>58.52123554784313</v>
+        <v>53.97124148553709</v>
       </c>
       <c r="AC2" t="n">
-        <v>132.7740255968108</v>
+        <v>52.57820986488078</v>
       </c>
       <c r="AD2" t="n">
-        <v>115.4990871804719</v>
+        <v>80.5824153241619</v>
       </c>
       <c r="AE2" t="n">
-        <v>77.26727155419714</v>
+        <v>92.58576096025213</v>
       </c>
       <c r="AF2" t="n">
-        <v>92.1701398127026</v>
+        <v>145.1644261081898</v>
       </c>
       <c r="AG2" t="n">
-        <v>126.4458605755222</v>
+        <v>167.9922140718514</v>
       </c>
       <c r="AH2" t="n">
-        <v>168.2826150664024</v>
+        <v>96.56849063782261</v>
       </c>
       <c r="AI2" t="n">
-        <v>73.10033156515328</v>
+        <v>99.11091436551906</v>
       </c>
       <c r="AJ2" t="n">
-        <v>59.04752281754312</v>
+        <v>164.4734619196215</v>
       </c>
       <c r="AK2" t="n">
-        <v>27.96856370214897</v>
+        <v>59.08568945502459</v>
       </c>
       <c r="AL2" t="n">
-        <v>34.19176797768243</v>
+        <v>31.72571516850434</v>
       </c>
       <c r="AM2" t="n">
-        <v>90.57771543618131</v>
+        <v>45.62212652913072</v>
       </c>
       <c r="AN2" t="n">
-        <v>61.62140007423103</v>
+        <v>42.22473605331975</v>
       </c>
       <c r="AO2" t="n">
-        <v>28.74613881461077</v>
+        <v>25.46895168497834</v>
       </c>
       <c r="AP2" t="n">
-        <v>18.78301587805293</v>
+        <v>18.29511232702891</v>
       </c>
       <c r="AQ2" t="n">
-        <v>49.4705507339205</v>
+        <v>19.70661331242671</v>
       </c>
       <c r="AR2" t="n">
-        <v>14.79141555541658</v>
+        <v>15.76919037533098</v>
       </c>
       <c r="AS2" t="n">
-        <v>35.10003014498723</v>
+        <v>20.41190671335729</v>
       </c>
       <c r="AT2" t="n">
-        <v>22.97252393455908</v>
+        <v>10.51454154940541</v>
       </c>
       <c r="AU2" t="n">
-        <v>16.84525721362255</v>
+        <v>15.7016628894437</v>
       </c>
       <c r="AV2" t="n">
-        <v>14.27956932196007</v>
+        <v>21.86649178411488</v>
       </c>
       <c r="AW2" t="n">
-        <v>14.24128011671708</v>
+        <v>26.15635556322043</v>
       </c>
       <c r="AX2" t="n">
-        <v>32.04208895325647</v>
+        <v>19.95836555895782</v>
       </c>
     </row>
     <row r="3">
@@ -845,148 +845,148 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>2.103081403807006</v>
+        <v>3.027230531976992</v>
       </c>
       <c r="D3" t="n">
-        <v>2.073973778766139</v>
+        <v>4.552421070778456</v>
       </c>
       <c r="E3" t="n">
-        <v>4.903133049760591</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.417352912087963</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>14.58251515596086</v>
+        <v>1.487969812305582</v>
       </c>
       <c r="H3" t="n">
-        <v>5.295817938441542</v>
+        <v>2.154372300408273</v>
       </c>
       <c r="I3" t="n">
-        <v>6.964513823282236</v>
+        <v>4.494403861875432</v>
       </c>
       <c r="J3" t="n">
-        <v>12.20990977905814</v>
+        <v>4.162010979271658</v>
       </c>
       <c r="K3" t="n">
-        <v>2.351029651434011</v>
+        <v>2.247191294372922</v>
       </c>
       <c r="L3" t="n">
-        <v>6.217350037478503</v>
+        <v>8.491251004940878</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6750316929757859</v>
+        <v>3.741489183132744</v>
       </c>
       <c r="N3" t="n">
-        <v>6.768573119486509</v>
+        <v>6.820783175979423</v>
       </c>
       <c r="O3" t="n">
-        <v>4.439433415489289</v>
+        <v>5.130904143611836</v>
       </c>
       <c r="P3" t="n">
-        <v>9.761830487612263</v>
+        <v>2.798991329949713</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.868849467246028</v>
+        <v>2.477532755536909</v>
       </c>
       <c r="R3" t="n">
-        <v>5.774274216764963</v>
+        <v>3.000898503507438</v>
       </c>
       <c r="S3" t="n">
-        <v>5.113746039238646</v>
+        <v>3.143896308881845</v>
       </c>
       <c r="T3" t="n">
-        <v>3.037210269924089</v>
+        <v>2.980529624711736</v>
       </c>
       <c r="U3" t="n">
-        <v>3.675767181090365</v>
+        <v>0.7147143384325645</v>
       </c>
       <c r="V3" t="n">
-        <v>8.012417040098276</v>
+        <v>2.852105985612339</v>
       </c>
       <c r="W3" t="n">
-        <v>15.6128227553815</v>
+        <v>2.961567538676667</v>
       </c>
       <c r="X3" t="n">
-        <v>13.57062885621739</v>
+        <v>6.598505782614897</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.537645070787137</v>
+        <v>1.637083363818208</v>
       </c>
       <c r="Z3" t="n">
-        <v>4.773446443783392</v>
+        <v>10.05602719976382</v>
       </c>
       <c r="AA3" t="n">
-        <v>4.627636696365426</v>
+        <v>1.653776890763757</v>
       </c>
       <c r="AB3" t="n">
-        <v>6.083588186194865</v>
+        <v>5.386516194946827</v>
       </c>
       <c r="AC3" t="n">
-        <v>5.540947079182757</v>
+        <v>3.611827704052096</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.44186067047757</v>
+        <v>3.913429611685743</v>
       </c>
       <c r="AE3" t="n">
-        <v>4.850218037916343</v>
+        <v>6.265860749735888</v>
       </c>
       <c r="AF3" t="n">
-        <v>10.90548396753951</v>
+        <v>6.513080569805319</v>
       </c>
       <c r="AG3" t="n">
-        <v>11.83517960653015</v>
+        <v>3.274027060383094</v>
       </c>
       <c r="AH3" t="n">
-        <v>7.607677885473309</v>
+        <v>7.259244735863128</v>
       </c>
       <c r="AI3" t="n">
-        <v>9.491327556668644</v>
+        <v>7.92562592072646</v>
       </c>
       <c r="AJ3" t="n">
-        <v>4.948502349965658</v>
+        <v>2.89502232432742</v>
       </c>
       <c r="AK3" t="n">
-        <v>2.498257485747065</v>
+        <v>3.806186186896768</v>
       </c>
       <c r="AL3" t="n">
-        <v>2.3443334600833</v>
+        <v>5.11746394135668</v>
       </c>
       <c r="AM3" t="n">
-        <v>6.333805422713344</v>
+        <v>5.515674478500294</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.568067739747988</v>
+        <v>3.827723417825208</v>
       </c>
       <c r="AO3" t="n">
-        <v>3.501590354064226</v>
+        <v>8.03469206437453</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.250374164519661</v>
+        <v>2.34195388685686</v>
       </c>
       <c r="AQ3" t="n">
-        <v>10.21596758792884</v>
+        <v>2.160390196131582</v>
       </c>
       <c r="AR3" t="n">
-        <v>2.646889648277206</v>
+        <v>3.351073958788251</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.595783265224139</v>
+        <v>3.073095125850806</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.434611086437581</v>
+        <v>3.897004519091734</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.615314337449324</v>
+        <v>4.751025600169962</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.267187562719855</v>
+        <v>7.117884750593491</v>
       </c>
       <c r="AW3" t="n">
-        <v>2.753385280808792</v>
+        <v>4.906983831360967</v>
       </c>
       <c r="AX3" t="n">
-        <v>6.41696518815079</v>
+        <v>2.499557380371382</v>
       </c>
     </row>
     <row r="4">
@@ -997,148 +997,148 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>8.031324541891646</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>9.191334103536303</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>16.68525225860023</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>41.73123453403844</v>
+        <v>14.24832360754835</v>
       </c>
       <c r="G4" t="n">
-        <v>19.74211933242097</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>35.91759755759129</v>
+        <v>19.58087940626161</v>
       </c>
       <c r="I4" t="n">
-        <v>28.2594521735162</v>
+        <v>109.0559925590346</v>
       </c>
       <c r="J4" t="n">
-        <v>12.83777351314828</v>
+        <v>215.7706054230271</v>
       </c>
       <c r="K4" t="n">
-        <v>37.20437006317335</v>
+        <v>16.99883287530362</v>
       </c>
       <c r="L4" t="n">
-        <v>14.61800060577055</v>
+        <v>5.764961138168759</v>
       </c>
       <c r="M4" t="n">
-        <v>116.8987995384657</v>
+        <v>69.95375173711771</v>
       </c>
       <c r="N4" t="n">
-        <v>89.52387086196559</v>
+        <v>116.94638764007</v>
       </c>
       <c r="O4" t="n">
-        <v>58.85580193896313</v>
+        <v>79.44170333741066</v>
       </c>
       <c r="P4" t="n">
-        <v>72.57796056686448</v>
+        <v>22.27217778574609</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.61422827168236</v>
+        <v>78.06917118561346</v>
       </c>
       <c r="R4" t="n">
-        <v>45.61509985549452</v>
+        <v>68.25639025764789</v>
       </c>
       <c r="S4" t="n">
-        <v>178.1596278728473</v>
+        <v>145.6305520367297</v>
       </c>
       <c r="T4" t="n">
-        <v>58.7681771946576</v>
+        <v>83.68505836215456</v>
       </c>
       <c r="U4" t="n">
-        <v>31.68803344707005</v>
+        <v>39.39497491751878</v>
       </c>
       <c r="V4" t="n">
-        <v>113.6737912432884</v>
+        <v>74.69903111107678</v>
       </c>
       <c r="W4" t="n">
-        <v>81.86832143047799</v>
+        <v>34.00405512767206</v>
       </c>
       <c r="X4" t="n">
-        <v>41.61470567247783</v>
+        <v>145.0694727551558</v>
       </c>
       <c r="Y4" t="n">
-        <v>55.54488983565847</v>
+        <v>52.137399362368</v>
       </c>
       <c r="Z4" t="n">
-        <v>46.73188012131982</v>
+        <v>65.1930245752896</v>
       </c>
       <c r="AA4" t="n">
-        <v>80.89977448654179</v>
+        <v>62.65400051344073</v>
       </c>
       <c r="AB4" t="n">
-        <v>75.93820472703351</v>
+        <v>57.20054809652878</v>
       </c>
       <c r="AC4" t="n">
-        <v>61.47108038539547</v>
+        <v>71.91621881579712</v>
       </c>
       <c r="AD4" t="n">
-        <v>78.77490305394967</v>
+        <v>86.69204459904429</v>
       </c>
       <c r="AE4" t="n">
-        <v>80.0307489393951</v>
+        <v>64.21272356070222</v>
       </c>
       <c r="AF4" t="n">
-        <v>88.08047696765735</v>
+        <v>53.23466136477994</v>
       </c>
       <c r="AG4" t="n">
-        <v>49.94986891831027</v>
+        <v>99.73568315314682</v>
       </c>
       <c r="AH4" t="n">
-        <v>76.88627904420795</v>
+        <v>26.34309023082253</v>
       </c>
       <c r="AI4" t="n">
-        <v>51.21877375402161</v>
+        <v>40.59514467077884</v>
       </c>
       <c r="AJ4" t="n">
-        <v>32.31720683522043</v>
+        <v>42.65253666591308</v>
       </c>
       <c r="AK4" t="n">
-        <v>40.45638626716653</v>
+        <v>47.82486214014756</v>
       </c>
       <c r="AL4" t="n">
-        <v>65.455771580896</v>
+        <v>38.21229775967428</v>
       </c>
       <c r="AM4" t="n">
-        <v>59.23051369863293</v>
+        <v>7.405429800666728</v>
       </c>
       <c r="AN4" t="n">
-        <v>58.12828068111496</v>
+        <v>32.34351913062891</v>
       </c>
       <c r="AO4" t="n">
-        <v>18.10031232379955</v>
+        <v>35.07484470060871</v>
       </c>
       <c r="AP4" t="n">
-        <v>20.23716017376169</v>
+        <v>14.93047469017572</v>
       </c>
       <c r="AQ4" t="n">
-        <v>15.97049154319547</v>
+        <v>26.66245831537394</v>
       </c>
       <c r="AR4" t="n">
-        <v>16.3804384488691</v>
+        <v>10.88090611163868</v>
       </c>
       <c r="AS4" t="n">
-        <v>14.66732462673636</v>
+        <v>12.28278902569561</v>
       </c>
       <c r="AT4" t="n">
-        <v>10.50669710618081</v>
+        <v>16.17483447059295</v>
       </c>
       <c r="AU4" t="n">
-        <v>18.26300330624445</v>
+        <v>12.13712601564571</v>
       </c>
       <c r="AV4" t="n">
-        <v>15.68572559249646</v>
+        <v>11.06049754269991</v>
       </c>
       <c r="AW4" t="n">
-        <v>7.114241774058432</v>
+        <v>16.63570590973281</v>
       </c>
       <c r="AX4" t="n">
-        <v>11.83413824201466</v>
+        <v>9.130487807510184</v>
       </c>
     </row>
     <row r="5">
@@ -1149,148 +1149,148 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>54.3632100225102</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>7.969961068706682</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>13.97820049467912</v>
+        <v>8.2255060914714</v>
       </c>
       <c r="F5" t="n">
-        <v>7.019820692847621</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>138.844569335979</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>28.72580533350414</v>
+        <v>30.90016911136681</v>
       </c>
       <c r="I5" t="n">
-        <v>94.64525054159076</v>
+        <v>118.4679215717116</v>
       </c>
       <c r="J5" t="n">
-        <v>20.92855970906171</v>
+        <v>4.410346274039224</v>
       </c>
       <c r="K5" t="n">
-        <v>3.244188353763207</v>
+        <v>6.217113545409271</v>
       </c>
       <c r="L5" t="n">
-        <v>88.30232303354174</v>
+        <v>22.82699644859265</v>
       </c>
       <c r="M5" t="n">
-        <v>47.28529351798866</v>
+        <v>66.92637414434432</v>
       </c>
       <c r="N5" t="n">
-        <v>18.5398953143193</v>
+        <v>45.91101121351283</v>
       </c>
       <c r="O5" t="n">
-        <v>8.502386891614922</v>
+        <v>204.6749674781117</v>
       </c>
       <c r="P5" t="n">
-        <v>131.6020207826689</v>
+        <v>46.69905913877641</v>
       </c>
       <c r="Q5" t="n">
-        <v>34.7804595834876</v>
+        <v>59.73293530032828</v>
       </c>
       <c r="R5" t="n">
-        <v>71.70612967329181</v>
+        <v>201.9407664619426</v>
       </c>
       <c r="S5" t="n">
-        <v>33.24347616139932</v>
+        <v>34.79642522545441</v>
       </c>
       <c r="T5" t="n">
-        <v>9.965563924827308</v>
+        <v>28.52731455633452</v>
       </c>
       <c r="U5" t="n">
-        <v>37.60870861254004</v>
+        <v>15.68340323634943</v>
       </c>
       <c r="V5" t="n">
-        <v>87.72245017426158</v>
+        <v>21.41514019589942</v>
       </c>
       <c r="W5" t="n">
-        <v>75.54295448387269</v>
+        <v>24.27172837577248</v>
       </c>
       <c r="X5" t="n">
-        <v>25.7471517756461</v>
+        <v>18.43825213153372</v>
       </c>
       <c r="Y5" t="n">
-        <v>47.60688580754642</v>
+        <v>42.91719236358358</v>
       </c>
       <c r="Z5" t="n">
-        <v>76.00468358099266</v>
+        <v>18.77020910197257</v>
       </c>
       <c r="AA5" t="n">
-        <v>49.78200751307072</v>
+        <v>11.77053481117227</v>
       </c>
       <c r="AB5" t="n">
-        <v>19.70834828260235</v>
+        <v>46.36841139678455</v>
       </c>
       <c r="AC5" t="n">
-        <v>37.38052895769741</v>
+        <v>47.89359737292646</v>
       </c>
       <c r="AD5" t="n">
-        <v>27.02374154973426</v>
+        <v>72.09379015082774</v>
       </c>
       <c r="AE5" t="n">
-        <v>15.53677203810151</v>
+        <v>48.16781973502383</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.093106326133892</v>
+        <v>18.50312694166523</v>
       </c>
       <c r="AG5" t="n">
-        <v>21.87447975288054</v>
+        <v>20.71917626538994</v>
       </c>
       <c r="AH5" t="n">
-        <v>18.13244502386291</v>
+        <v>13.74915109877101</v>
       </c>
       <c r="AI5" t="n">
-        <v>22.65025997642596</v>
+        <v>1.077302947503176</v>
       </c>
       <c r="AJ5" t="n">
-        <v>93.25814706364856</v>
+        <v>37.61894971191271</v>
       </c>
       <c r="AK5" t="n">
-        <v>74.14589499433794</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>12.21243009395315</v>
+        <v>23.26162578335009</v>
       </c>
       <c r="AM5" t="n">
-        <v>21.95036913559455</v>
+        <v>13.29984108714378</v>
       </c>
       <c r="AN5" t="n">
-        <v>29.85970936122751</v>
+        <v>8.364234826395592</v>
       </c>
       <c r="AO5" t="n">
-        <v>20.91748303885911</v>
+        <v>51.40800110384667</v>
       </c>
       <c r="AP5" t="n">
-        <v>17.90769805459558</v>
+        <v>26.7100685369692</v>
       </c>
       <c r="AQ5" t="n">
-        <v>35.27331292656773</v>
+        <v>22.57059453125497</v>
       </c>
       <c r="AR5" t="n">
-        <v>20.30415246728693</v>
+        <v>13.33316248918048</v>
       </c>
       <c r="AS5" t="n">
-        <v>26.81838824263438</v>
+        <v>23.18605944352057</v>
       </c>
       <c r="AT5" t="n">
-        <v>39.29303004425862</v>
+        <v>23.74545003173421</v>
       </c>
       <c r="AU5" t="n">
-        <v>8.735809197476271</v>
+        <v>37.37446581657438</v>
       </c>
       <c r="AV5" t="n">
-        <v>47.66794674763508</v>
+        <v>22.62212879427935</v>
       </c>
       <c r="AW5" t="n">
-        <v>50.13556073522586</v>
+        <v>0</v>
       </c>
       <c r="AX5" t="n">
-        <v>15.59666599742006</v>
+        <v>23.48758583626209</v>
       </c>
     </row>
     <row r="6">
@@ -1301,148 +1301,148 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9524001978916113</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>6.516689815825649</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>3.665772533582992</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>9.362415392188357</v>
+        <v>2.518848999696504</v>
       </c>
       <c r="G6" t="n">
-        <v>5.962820580539475</v>
+        <v>17.96191050947234</v>
       </c>
       <c r="H6" t="n">
-        <v>5.632767423852877</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>4.702590611335825</v>
+        <v>50.84801559169878</v>
       </c>
       <c r="J6" t="n">
-        <v>11.1171564589799</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>12.1441162222302</v>
+        <v>8.714478591666481</v>
       </c>
       <c r="L6" t="n">
-        <v>14.25722774819559</v>
+        <v>40.82171954915893</v>
       </c>
       <c r="M6" t="n">
-        <v>10.68636535997916</v>
+        <v>21.22417448516726</v>
       </c>
       <c r="N6" t="n">
-        <v>16.69543809962907</v>
+        <v>19.33423733554874</v>
       </c>
       <c r="O6" t="n">
-        <v>3.812298729203615</v>
+        <v>33.90429151806934</v>
       </c>
       <c r="P6" t="n">
-        <v>26.1988308456588</v>
+        <v>11.53228591548721</v>
       </c>
       <c r="Q6" t="n">
-        <v>16.83730172660194</v>
+        <v>25.64755013136389</v>
       </c>
       <c r="R6" t="n">
-        <v>27.92099406040982</v>
+        <v>16.46145518578397</v>
       </c>
       <c r="S6" t="n">
-        <v>47.1309882555673</v>
+        <v>6.194173868579554</v>
       </c>
       <c r="T6" t="n">
-        <v>30.69251703126947</v>
+        <v>31.96272561278437</v>
       </c>
       <c r="U6" t="n">
-        <v>36.8006596428127</v>
+        <v>12.42741133929185</v>
       </c>
       <c r="V6" t="n">
-        <v>13.54266117871194</v>
+        <v>18.3001893770448</v>
       </c>
       <c r="W6" t="n">
-        <v>40.18287977698995</v>
+        <v>19.86208906487853</v>
       </c>
       <c r="X6" t="n">
-        <v>16.93387094178423</v>
+        <v>69.419216749388</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.38042414072463</v>
+        <v>19.00485813101235</v>
       </c>
       <c r="Z6" t="n">
-        <v>16.72893528817626</v>
+        <v>18.51355862051023</v>
       </c>
       <c r="AA6" t="n">
-        <v>14.1522489953233</v>
+        <v>17.83957091172335</v>
       </c>
       <c r="AB6" t="n">
-        <v>13.58347929758874</v>
+        <v>21.97630694086024</v>
       </c>
       <c r="AC6" t="n">
-        <v>16.02176672986212</v>
+        <v>21.16107521388863</v>
       </c>
       <c r="AD6" t="n">
-        <v>19.83346355185364</v>
+        <v>15.02563001634103</v>
       </c>
       <c r="AE6" t="n">
-        <v>46.6085273991403</v>
+        <v>11.84907142331524</v>
       </c>
       <c r="AF6" t="n">
-        <v>11.16406738277207</v>
+        <v>15.60309576126354</v>
       </c>
       <c r="AG6" t="n">
-        <v>4.384593677031193</v>
+        <v>4.171573063727261</v>
       </c>
       <c r="AH6" t="n">
-        <v>15.89459363006523</v>
+        <v>11.087332064127</v>
       </c>
       <c r="AI6" t="n">
-        <v>6.029064183714133</v>
+        <v>11.8444813621733</v>
       </c>
       <c r="AJ6" t="n">
-        <v>3.04151646202502</v>
+        <v>7.405726462955911</v>
       </c>
       <c r="AK6" t="n">
-        <v>2.906996818200119</v>
+        <v>6.684041360743247</v>
       </c>
       <c r="AL6" t="n">
-        <v>13.39465644311259</v>
+        <v>5.150065734211013</v>
       </c>
       <c r="AM6" t="n">
-        <v>2.394027331176646</v>
+        <v>2.908321963324143</v>
       </c>
       <c r="AN6" t="n">
-        <v>1.885060979348643</v>
+        <v>3.909223587874829</v>
       </c>
       <c r="AO6" t="n">
-        <v>1.528713100051568</v>
+        <v>3.397221892464887</v>
       </c>
       <c r="AP6" t="n">
-        <v>3.630147572754423</v>
+        <v>1.210546565497679</v>
       </c>
       <c r="AQ6" t="n">
-        <v>3.428322544241384</v>
+        <v>0</v>
       </c>
       <c r="AR6" t="n">
-        <v>1.568908017558294</v>
+        <v>4.088807390245512</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.737126066257309</v>
+        <v>1.952780481493888</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.541276061643598</v>
+        <v>1.312827639826537</v>
       </c>
       <c r="AU6" t="n">
-        <v>2.477329554580878</v>
+        <v>1.875683158219837</v>
       </c>
       <c r="AV6" t="n">
-        <v>1.817578114938667</v>
+        <v>1.133359576740578</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.9113775774009003</v>
+        <v>0.000457355941456794</v>
       </c>
       <c r="AX6" t="n">
-        <v>1.304545554543517</v>
+        <v>3.73131477280046</v>
       </c>
     </row>
     <row r="7">
@@ -1453,148 +1453,148 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1.603707473219988</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>7.883625607957903</v>
+        <v>13.14185562526466</v>
       </c>
       <c r="E7" t="n">
-        <v>4.575894745995947</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>6.274234765678588</v>
+        <v>1.594374369009284</v>
       </c>
       <c r="G7" t="n">
-        <v>4.452831204057755</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>41.17304661345189</v>
+        <v>0.1817223364619136</v>
       </c>
       <c r="I7" t="n">
-        <v>46.43337321295517</v>
+        <v>34.42063655608047</v>
       </c>
       <c r="J7" t="n">
-        <v>29.93361151055742</v>
+        <v>22.60159000552471</v>
       </c>
       <c r="K7" t="n">
-        <v>6.922206502024602</v>
+        <v>27.75710882593565</v>
       </c>
       <c r="L7" t="n">
-        <v>20.89977258711633</v>
+        <v>28.92935690970021</v>
       </c>
       <c r="M7" t="n">
-        <v>62.1114522949313</v>
+        <v>56.67996264089594</v>
       </c>
       <c r="N7" t="n">
-        <v>5.358797618512122</v>
+        <v>56.65768527459669</v>
       </c>
       <c r="O7" t="n">
-        <v>22.78289539595741</v>
+        <v>39.73099880102033</v>
       </c>
       <c r="P7" t="n">
-        <v>9.822273073494136</v>
+        <v>45.75780529920037</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.28666708599915</v>
+        <v>55.8446970086526</v>
       </c>
       <c r="R7" t="n">
-        <v>34.7869717375735</v>
+        <v>30.61186169932745</v>
       </c>
       <c r="S7" t="n">
-        <v>5.055627075489133</v>
+        <v>11.51645404612366</v>
       </c>
       <c r="T7" t="n">
-        <v>31.97122422946212</v>
+        <v>9.258473706649324</v>
       </c>
       <c r="U7" t="n">
-        <v>14.85570693712803</v>
+        <v>28.41829122559488</v>
       </c>
       <c r="V7" t="n">
-        <v>4.020959696740285</v>
+        <v>42.27628088056147</v>
       </c>
       <c r="W7" t="n">
-        <v>20.69942398862375</v>
+        <v>27.7661390805206</v>
       </c>
       <c r="X7" t="n">
-        <v>29.2992527844508</v>
+        <v>4.360276063424495</v>
       </c>
       <c r="Y7" t="n">
-        <v>71.28385794637721</v>
+        <v>12.34499482958317</v>
       </c>
       <c r="Z7" t="n">
-        <v>56.00390562477333</v>
+        <v>30.8469186699959</v>
       </c>
       <c r="AA7" t="n">
-        <v>6.349411861684091</v>
+        <v>9.539592624823346</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.098168504699771</v>
+        <v>15.16259537988557</v>
       </c>
       <c r="AC7" t="n">
-        <v>31.10052325538587</v>
+        <v>5.632924840509109</v>
       </c>
       <c r="AD7" t="n">
-        <v>21.1293030628012</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.7697981392833074</v>
+        <v>1.537982579951971</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.093426511588763</v>
+        <v>6.068007734093429</v>
       </c>
       <c r="AG7" t="n">
-        <v>8.488078161750046</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>26.94542058956523</v>
+        <v>4.577358202210287</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.3732197569311115</v>
+        <v>8.571547064730263</v>
       </c>
       <c r="AJ7" t="n">
-        <v>3.121855762035069</v>
+        <v>4.970636809977563</v>
       </c>
       <c r="AK7" t="n">
-        <v>3.549476975404056</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>10.03388232339532</v>
+        <v>0.1964012518490739</v>
       </c>
       <c r="AM7" t="n">
-        <v>12.35439608581793</v>
+        <v>5.533991581091491</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.612670159557179</v>
+        <v>13.71096127799032</v>
       </c>
       <c r="AO7" t="n">
-        <v>6.303006866530994</v>
+        <v>21.77013794183837</v>
       </c>
       <c r="AP7" t="n">
-        <v>5.626791705558407</v>
+        <v>0.9866134431327889</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2.147277794741732</v>
+        <v>5.222226021703181</v>
       </c>
       <c r="AR7" t="n">
-        <v>4.621150653747605</v>
+        <v>19.14964505674785</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.612186824298534</v>
+        <v>11.31573652107474</v>
       </c>
       <c r="AT7" t="n">
-        <v>6.853329045139911</v>
+        <v>5.411616702029439</v>
       </c>
       <c r="AU7" t="n">
-        <v>4.882339154013865</v>
+        <v>10.72707099547625</v>
       </c>
       <c r="AV7" t="n">
-        <v>3.113226500080243</v>
+        <v>9.146230544668041</v>
       </c>
       <c r="AW7" t="n">
-        <v>7.530026198542918</v>
+        <v>14.6157655200487</v>
       </c>
       <c r="AX7" t="n">
-        <v>11.06061408559901</v>
+        <v>13.65113371609561</v>
       </c>
     </row>
     <row r="8">
@@ -1605,148 +1605,148 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>11.81129444688035</v>
+        <v>10.09445071228125</v>
       </c>
       <c r="D8" t="n">
-        <v>21.64087243071929</v>
+        <v>85.55435141931184</v>
       </c>
       <c r="E8" t="n">
-        <v>14.27166627739413</v>
+        <v>13.20223881743069</v>
       </c>
       <c r="F8" t="n">
-        <v>28.39543066269753</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>14.78986075066785</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>14.60081863152097</v>
+        <v>34.26608372483067</v>
       </c>
       <c r="I8" t="n">
-        <v>35.37247895778025</v>
+        <v>48.42935587374543</v>
       </c>
       <c r="J8" t="n">
-        <v>125.2477145022042</v>
+        <v>132.3851581489045</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31456532709286</v>
+        <v>83.64267364403258</v>
       </c>
       <c r="L8" t="n">
-        <v>108.7588641265401</v>
+        <v>126.9560880506478</v>
       </c>
       <c r="M8" t="n">
-        <v>30.35645770680575</v>
+        <v>353.9169406574337</v>
       </c>
       <c r="N8" t="n">
-        <v>141.9361904940232</v>
+        <v>63.06972328686615</v>
       </c>
       <c r="O8" t="n">
-        <v>36.25794032924288</v>
+        <v>111.1076395989972</v>
       </c>
       <c r="P8" t="n">
-        <v>82.52649177928951</v>
+        <v>44.03624086172893</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.34556026130849</v>
+        <v>200.8149788744921</v>
       </c>
       <c r="R8" t="n">
-        <v>75.32230555413143</v>
+        <v>42.12395435453069</v>
       </c>
       <c r="S8" t="n">
-        <v>75.78542118514989</v>
+        <v>51.02879313384427</v>
       </c>
       <c r="T8" t="n">
-        <v>60.3414311780925</v>
+        <v>55.38996938573978</v>
       </c>
       <c r="U8" t="n">
-        <v>28.05695465548047</v>
+        <v>274.1940290134481</v>
       </c>
       <c r="V8" t="n">
-        <v>94.92303810755553</v>
+        <v>27.72796358265317</v>
       </c>
       <c r="W8" t="n">
-        <v>88.57014659299011</v>
+        <v>135.8873033960089</v>
       </c>
       <c r="X8" t="n">
-        <v>73.28765479467998</v>
+        <v>66.13399442759732</v>
       </c>
       <c r="Y8" t="n">
-        <v>48.27432771021939</v>
+        <v>205.9760221315614</v>
       </c>
       <c r="Z8" t="n">
-        <v>66.70663283771989</v>
+        <v>44.5075105292908</v>
       </c>
       <c r="AA8" t="n">
-        <v>80.60805832911524</v>
+        <v>59.44231437926842</v>
       </c>
       <c r="AB8" t="n">
-        <v>77.11744200711817</v>
+        <v>41.62998026823372</v>
       </c>
       <c r="AC8" t="n">
-        <v>92.72610219908326</v>
+        <v>95.82012197784654</v>
       </c>
       <c r="AD8" t="n">
-        <v>50.56465266275291</v>
+        <v>147.0109059954459</v>
       </c>
       <c r="AE8" t="n">
-        <v>95.38785167410012</v>
+        <v>120.6338756466407</v>
       </c>
       <c r="AF8" t="n">
-        <v>164.449757101523</v>
+        <v>163.7944553939747</v>
       </c>
       <c r="AG8" t="n">
-        <v>102.1758398004073</v>
+        <v>106.3286510766487</v>
       </c>
       <c r="AH8" t="n">
-        <v>83.54536312111763</v>
+        <v>16.85938055683355</v>
       </c>
       <c r="AI8" t="n">
-        <v>125.0457053217412</v>
+        <v>61.36967209354567</v>
       </c>
       <c r="AJ8" t="n">
-        <v>91.38386144084186</v>
+        <v>20.08858953493298</v>
       </c>
       <c r="AK8" t="n">
-        <v>106.7924069283809</v>
+        <v>33.58391007667315</v>
       </c>
       <c r="AL8" t="n">
-        <v>76.21564295100397</v>
+        <v>45.04171949363179</v>
       </c>
       <c r="AM8" t="n">
-        <v>20.00208451616999</v>
+        <v>24.52867363081856</v>
       </c>
       <c r="AN8" t="n">
-        <v>33.44193089408621</v>
+        <v>54.6041672436623</v>
       </c>
       <c r="AO8" t="n">
-        <v>26.99429063329849</v>
+        <v>54.70326856579808</v>
       </c>
       <c r="AP8" t="n">
-        <v>40.32046960411422</v>
+        <v>23.76631327050393</v>
       </c>
       <c r="AQ8" t="n">
-        <v>23.04195932380488</v>
+        <v>27.16881050032063</v>
       </c>
       <c r="AR8" t="n">
-        <v>10.99019454428143</v>
+        <v>11.31820721895195</v>
       </c>
       <c r="AS8" t="n">
-        <v>19.77507871343452</v>
+        <v>18.15335390067758</v>
       </c>
       <c r="AT8" t="n">
-        <v>41.51201806976034</v>
+        <v>17.6197609871747</v>
       </c>
       <c r="AU8" t="n">
-        <v>22.17153517000528</v>
+        <v>24.31891605365589</v>
       </c>
       <c r="AV8" t="n">
-        <v>18.65008686025235</v>
+        <v>23.44291637365433</v>
       </c>
       <c r="AW8" t="n">
-        <v>17.80171468648592</v>
+        <v>18.83229705659347</v>
       </c>
       <c r="AX8" t="n">
-        <v>33.02168118630767</v>
+        <v>24.00824864724293</v>
       </c>
     </row>
     <row r="9">
@@ -1757,148 +1757,148 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>1.936096145211849</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>2.530555983120635</v>
+        <v>3.562691535601662</v>
       </c>
       <c r="E9" t="n">
-        <v>4.85784480488611</v>
+        <v>3.711032143665916</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6997459711399873</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>4.16717231476621</v>
+        <v>1.699124551944154</v>
       </c>
       <c r="H9" t="n">
-        <v>3.257732475676887</v>
+        <v>0.5122134980413944</v>
       </c>
       <c r="I9" t="n">
-        <v>2.241035058198826</v>
+        <v>2.99822257494268</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7551552466804546</v>
+        <v>4.962869745007265</v>
       </c>
       <c r="K9" t="n">
-        <v>23.38241686141029</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>2.241143224676128</v>
+        <v>6.216624609963715</v>
       </c>
       <c r="M9" t="n">
-        <v>0.818485823145035</v>
+        <v>5.073544676483841</v>
       </c>
       <c r="N9" t="n">
-        <v>23.06503120894281</v>
+        <v>3.25611526326739</v>
       </c>
       <c r="O9" t="n">
-        <v>5.40088374181081</v>
+        <v>0.5880448163499616</v>
       </c>
       <c r="P9" t="n">
-        <v>3.802783076113818</v>
+        <v>2.344615263463826</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.795181191733111</v>
+        <v>2.048557081333565</v>
       </c>
       <c r="R9" t="n">
-        <v>1.523373820417863</v>
+        <v>3.758790580277004</v>
       </c>
       <c r="S9" t="n">
-        <v>9.426430293215494</v>
+        <v>9.476932796561792</v>
       </c>
       <c r="T9" t="n">
-        <v>5.460006531882023</v>
+        <v>4.492598260133489</v>
       </c>
       <c r="U9" t="n">
-        <v>3.613290086988361</v>
+        <v>2.485529360200552</v>
       </c>
       <c r="V9" t="n">
-        <v>4.640913475022178</v>
+        <v>6.168083690343585</v>
       </c>
       <c r="W9" t="n">
-        <v>4.547591430431706</v>
+        <v>2.678860438868433</v>
       </c>
       <c r="X9" t="n">
-        <v>4.978780083210148</v>
+        <v>2.892845768632483</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.295682885889475</v>
+        <v>1.713755492823984</v>
       </c>
       <c r="Z9" t="n">
-        <v>8.112138451613383</v>
+        <v>5.309322629732535</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.429397065645461</v>
+        <v>4.98924779739569</v>
       </c>
       <c r="AB9" t="n">
-        <v>5.245734704982207</v>
+        <v>4.325582512131206</v>
       </c>
       <c r="AC9" t="n">
-        <v>6.883656051485326</v>
+        <v>8.005003956581451</v>
       </c>
       <c r="AD9" t="n">
-        <v>8.876573840532084</v>
+        <v>5.327936138126815</v>
       </c>
       <c r="AE9" t="n">
-        <v>7.186417833374465</v>
+        <v>3.244077191543482</v>
       </c>
       <c r="AF9" t="n">
-        <v>10.8769501779191</v>
+        <v>4.165182578763538</v>
       </c>
       <c r="AG9" t="n">
-        <v>8.624804189476855</v>
+        <v>11.24275916206515</v>
       </c>
       <c r="AH9" t="n">
-        <v>5.105166958583016</v>
+        <v>3.186341274704005</v>
       </c>
       <c r="AI9" t="n">
-        <v>5.249686597491929</v>
+        <v>7.053164076548676</v>
       </c>
       <c r="AJ9" t="n">
-        <v>3.373338443453247</v>
+        <v>4.278926068602358</v>
       </c>
       <c r="AK9" t="n">
-        <v>6.467307972289383</v>
+        <v>1.341781491586223</v>
       </c>
       <c r="AL9" t="n">
-        <v>6.160269285074975</v>
+        <v>4.366920916816349</v>
       </c>
       <c r="AM9" t="n">
-        <v>4.008879884047315</v>
+        <v>4.674949038181175</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.683355351785917</v>
+        <v>2.75432387079365</v>
       </c>
       <c r="AO9" t="n">
-        <v>2.775981327245816</v>
+        <v>2.544167286482149</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.930225446008666</v>
+        <v>3.940746885184565</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.896628027203499</v>
+        <v>4.374567601489613</v>
       </c>
       <c r="AR9" t="n">
-        <v>1.733437362149894</v>
+        <v>3.257838962545145</v>
       </c>
       <c r="AS9" t="n">
-        <v>3.44461479841009</v>
+        <v>1.250423620986599</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.6433034713268181</v>
+        <v>2.157555505165837</v>
       </c>
       <c r="AU9" t="n">
-        <v>2.371723887962691</v>
+        <v>1.688727951620534</v>
       </c>
       <c r="AV9" t="n">
-        <v>5.169038087118191</v>
+        <v>2.929823932670773</v>
       </c>
       <c r="AW9" t="n">
-        <v>1.381199286271863</v>
+        <v>1.484119499404433</v>
       </c>
       <c r="AX9" t="n">
-        <v>2.791744711407993</v>
+        <v>5.325772549824695</v>
       </c>
     </row>
     <row r="10">
@@ -1909,148 +1909,148 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>15.79656662335697</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>11.41680219125005</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>25.53130503199039</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>10.58811795849155</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>5.539778860182878</v>
+        <v>27.95788454353163</v>
       </c>
       <c r="H10" t="n">
-        <v>13.10830841073868</v>
+        <v>111.6200511986462</v>
       </c>
       <c r="I10" t="n">
-        <v>21.05296169344415</v>
+        <v>5.637710097440085</v>
       </c>
       <c r="J10" t="n">
-        <v>25.12199883747038</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>13.5520813060308</v>
+        <v>16.40797091072264</v>
       </c>
       <c r="L10" t="n">
-        <v>31.06332723013445</v>
+        <v>29.24074468994471</v>
       </c>
       <c r="M10" t="n">
-        <v>42.02911807181086</v>
+        <v>291.0576160924343</v>
       </c>
       <c r="N10" t="n">
-        <v>129.7016038744354</v>
+        <v>69.2524244021925</v>
       </c>
       <c r="O10" t="n">
-        <v>15.01970767312044</v>
+        <v>63.01339796266105</v>
       </c>
       <c r="P10" t="n">
-        <v>71.47852775604849</v>
+        <v>81.98774107215316</v>
       </c>
       <c r="Q10" t="n">
-        <v>23.35233925003706</v>
+        <v>124.4580505803755</v>
       </c>
       <c r="R10" t="n">
-        <v>70.52037663535306</v>
+        <v>61.06517642132737</v>
       </c>
       <c r="S10" t="n">
-        <v>35.37880317915343</v>
+        <v>34.11786786790108</v>
       </c>
       <c r="T10" t="n">
-        <v>30.48524738869517</v>
+        <v>85.72750245903165</v>
       </c>
       <c r="U10" t="n">
-        <v>38.95608363241035</v>
+        <v>36.49488602344217</v>
       </c>
       <c r="V10" t="n">
-        <v>46.61563431655296</v>
+        <v>56.76237879560385</v>
       </c>
       <c r="W10" t="n">
-        <v>90.68607470034384</v>
+        <v>105.0432053075507</v>
       </c>
       <c r="X10" t="n">
-        <v>23.45711405049406</v>
+        <v>71.71845834953029</v>
       </c>
       <c r="Y10" t="n">
-        <v>98.07509677223295</v>
+        <v>36.60361012930716</v>
       </c>
       <c r="Z10" t="n">
-        <v>52.86644735050972</v>
+        <v>44.44035530177503</v>
       </c>
       <c r="AA10" t="n">
-        <v>93.36755415431111</v>
+        <v>47.31990331687999</v>
       </c>
       <c r="AB10" t="n">
-        <v>116.434621236982</v>
+        <v>70.49352137098722</v>
       </c>
       <c r="AC10" t="n">
-        <v>51.02151415213252</v>
+        <v>61.58077752322175</v>
       </c>
       <c r="AD10" t="n">
-        <v>73.3785359560617</v>
+        <v>98.36678417553343</v>
       </c>
       <c r="AE10" t="n">
-        <v>54.98436599599883</v>
+        <v>70.62722131997138</v>
       </c>
       <c r="AF10" t="n">
-        <v>118.7411846071445</v>
+        <v>61.44307484954703</v>
       </c>
       <c r="AG10" t="n">
-        <v>64.79961180370894</v>
+        <v>49.04481655856381</v>
       </c>
       <c r="AH10" t="n">
-        <v>52.77794475423107</v>
+        <v>26.62065289812952</v>
       </c>
       <c r="AI10" t="n">
-        <v>55.02997206065051</v>
+        <v>94.61781773235072</v>
       </c>
       <c r="AJ10" t="n">
-        <v>24.34161739061506</v>
+        <v>68.52662700781704</v>
       </c>
       <c r="AK10" t="n">
-        <v>62.96207898943093</v>
+        <v>39.2159715718252</v>
       </c>
       <c r="AL10" t="n">
-        <v>35.40193370232498</v>
+        <v>56.18432470665952</v>
       </c>
       <c r="AM10" t="n">
-        <v>44.53214853659509</v>
+        <v>37.31395526656934</v>
       </c>
       <c r="AN10" t="n">
-        <v>46.62604816432253</v>
+        <v>33.10312274900335</v>
       </c>
       <c r="AO10" t="n">
-        <v>24.12495982982631</v>
+        <v>26.97368754518841</v>
       </c>
       <c r="AP10" t="n">
-        <v>31.32316179126327</v>
+        <v>17.41202733503703</v>
       </c>
       <c r="AQ10" t="n">
-        <v>14.51957306426005</v>
+        <v>31.84153442952453</v>
       </c>
       <c r="AR10" t="n">
-        <v>17.95776034629168</v>
+        <v>11.23685605325023</v>
       </c>
       <c r="AS10" t="n">
-        <v>19.41782102689589</v>
+        <v>17.69740301274945</v>
       </c>
       <c r="AT10" t="n">
-        <v>11.85545181062119</v>
+        <v>9.922015713882004</v>
       </c>
       <c r="AU10" t="n">
-        <v>22.8106694623181</v>
+        <v>14.1744414803043</v>
       </c>
       <c r="AV10" t="n">
-        <v>11.74247401328808</v>
+        <v>10.68377048256063</v>
       </c>
       <c r="AW10" t="n">
-        <v>17.76452194574405</v>
+        <v>27.48523851549179</v>
       </c>
       <c r="AX10" t="n">
-        <v>7.467207152247068</v>
+        <v>11.49989679039518</v>
       </c>
     </row>
     <row r="11">
@@ -2061,148 +2061,148 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>51.62692749774114</v>
+        <v>26.62170819153973</v>
       </c>
       <c r="D11" t="n">
-        <v>25.8031047721962</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>80.39016393137443</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>4.73434338729324</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>16.08548364640031</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>8.821290805163681</v>
+        <v>11.20467789178419</v>
       </c>
       <c r="I11" t="n">
-        <v>26.90283277175558</v>
+        <v>33.61914637204408</v>
       </c>
       <c r="J11" t="n">
-        <v>8.431940502778199</v>
+        <v>68.01085964942045</v>
       </c>
       <c r="K11" t="n">
-        <v>22.69458932033967</v>
+        <v>42.45437076015073</v>
       </c>
       <c r="L11" t="n">
-        <v>77.77790937381802</v>
+        <v>52.81264826130377</v>
       </c>
       <c r="M11" t="n">
-        <v>26.9958257903492</v>
+        <v>10.00943641125467</v>
       </c>
       <c r="N11" t="n">
-        <v>64.36675377417606</v>
+        <v>36.26159238750635</v>
       </c>
       <c r="O11" t="n">
-        <v>123.0039114505894</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>188.2740875618179</v>
+        <v>68.06721818994566</v>
       </c>
       <c r="Q11" t="n">
-        <v>29.29919751197002</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>45.54770815763806</v>
+        <v>10.08065877306229</v>
       </c>
       <c r="S11" t="n">
-        <v>71.31004610632343</v>
+        <v>163.9362417704433</v>
       </c>
       <c r="T11" t="n">
-        <v>69.15419760823126</v>
+        <v>13.66323962682215</v>
       </c>
       <c r="U11" t="n">
-        <v>32.71787342540456</v>
+        <v>155.1670223937617</v>
       </c>
       <c r="V11" t="n">
-        <v>42.50860822836389</v>
+        <v>43.85728223625057</v>
       </c>
       <c r="W11" t="n">
-        <v>27.14209861362117</v>
+        <v>23.40504140456983</v>
       </c>
       <c r="X11" t="n">
-        <v>44.8434297681375</v>
+        <v>31.58258228237223</v>
       </c>
       <c r="Y11" t="n">
-        <v>40.23602551335794</v>
+        <v>0.8318786783429253</v>
       </c>
       <c r="Z11" t="n">
-        <v>15.44469992075222</v>
+        <v>17.17013382909909</v>
       </c>
       <c r="AA11" t="n">
-        <v>50.52276177843696</v>
+        <v>34.0534034280228</v>
       </c>
       <c r="AB11" t="n">
-        <v>27.4918032926345</v>
+        <v>26.43945879333198</v>
       </c>
       <c r="AC11" t="n">
-        <v>21.56547561770859</v>
+        <v>29.40725705271029</v>
       </c>
       <c r="AD11" t="n">
-        <v>46.37567054974872</v>
+        <v>23.9798265129058</v>
       </c>
       <c r="AE11" t="n">
-        <v>14.4403124781163</v>
+        <v>33.84337751107024</v>
       </c>
       <c r="AF11" t="n">
-        <v>13.00245595983295</v>
+        <v>13.27321864557631</v>
       </c>
       <c r="AG11" t="n">
-        <v>112.1906144822173</v>
+        <v>38.07366841441264</v>
       </c>
       <c r="AH11" t="n">
-        <v>73.46063378704382</v>
+        <v>24.79525072739654</v>
       </c>
       <c r="AI11" t="n">
-        <v>17.85268351815964</v>
+        <v>2.194993379445553</v>
       </c>
       <c r="AJ11" t="n">
-        <v>35.90128424168752</v>
+        <v>3.32389195120496</v>
       </c>
       <c r="AK11" t="n">
-        <v>9.775398691761005</v>
+        <v>22.75780380361862</v>
       </c>
       <c r="AL11" t="n">
-        <v>13.05321224939339</v>
+        <v>16.53870152013671</v>
       </c>
       <c r="AM11" t="n">
-        <v>12.58766730003896</v>
+        <v>20.72013049943908</v>
       </c>
       <c r="AN11" t="n">
-        <v>22.81045979755632</v>
+        <v>11.60687559799487</v>
       </c>
       <c r="AO11" t="n">
-        <v>37.05638627544129</v>
+        <v>32.69675265393604</v>
       </c>
       <c r="AP11" t="n">
-        <v>12.26538909375722</v>
+        <v>6.714632602711578</v>
       </c>
       <c r="AQ11" t="n">
-        <v>43.57315163965527</v>
+        <v>21.7980704746501</v>
       </c>
       <c r="AR11" t="n">
-        <v>60.81397015749445</v>
+        <v>26.42681530532132</v>
       </c>
       <c r="AS11" t="n">
-        <v>74.83709736212226</v>
+        <v>37.09616271066838</v>
       </c>
       <c r="AT11" t="n">
-        <v>11.88942438236035</v>
+        <v>5.27994526908582</v>
       </c>
       <c r="AU11" t="n">
-        <v>12.59756272708642</v>
+        <v>15.60235385753561</v>
       </c>
       <c r="AV11" t="n">
-        <v>28.45714486744759</v>
+        <v>8.534853182443177</v>
       </c>
       <c r="AW11" t="n">
-        <v>15.42210631998878</v>
+        <v>27.55211863660561</v>
       </c>
       <c r="AX11" t="n">
-        <v>4.576339312434408</v>
+        <v>11.30322682550751</v>
       </c>
     </row>
     <row r="12">
@@ -2213,148 +2213,148 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>2.696313882472443</v>
+        <v>7.974557473842517</v>
       </c>
       <c r="D12" t="n">
-        <v>9.909316610213978</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>4.00046191139131</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>4.726076420466981</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>3.878505054631415</v>
+        <v>8.302557879536664</v>
       </c>
       <c r="H12" t="n">
-        <v>57.03033400232034</v>
+        <v>2.22299840210189</v>
       </c>
       <c r="I12" t="n">
-        <v>15.0435854727904</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>10.43437103682059</v>
+        <v>42.03886605253022</v>
       </c>
       <c r="K12" t="n">
-        <v>6.409486272512916</v>
+        <v>36.4171456041594</v>
       </c>
       <c r="L12" t="n">
-        <v>78.784091231102</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>60.80719105279881</v>
+        <v>44.34118461802819</v>
       </c>
       <c r="N12" t="n">
-        <v>73.19715035857649</v>
+        <v>50.998752080512</v>
       </c>
       <c r="O12" t="n">
-        <v>3.408635530323828</v>
+        <v>19.0129618131063</v>
       </c>
       <c r="P12" t="n">
-        <v>43.97586039491847</v>
+        <v>20.24117308996289</v>
       </c>
       <c r="Q12" t="n">
-        <v>51.53831489642284</v>
+        <v>10.52209093027258</v>
       </c>
       <c r="R12" t="n">
-        <v>8.682674401991571</v>
+        <v>30.40846513415279</v>
       </c>
       <c r="S12" t="n">
-        <v>24.36651602126803</v>
+        <v>14.9251138727684</v>
       </c>
       <c r="T12" t="n">
-        <v>34.33765014912556</v>
+        <v>14.95956514856092</v>
       </c>
       <c r="U12" t="n">
-        <v>7.593757858494298</v>
+        <v>30.36942132411049</v>
       </c>
       <c r="V12" t="n">
-        <v>16.56260722361714</v>
+        <v>7.170416526811035</v>
       </c>
       <c r="W12" t="n">
-        <v>25.39729776149947</v>
+        <v>51.85366512750127</v>
       </c>
       <c r="X12" t="n">
-        <v>10.37195346321099</v>
+        <v>91.62352757871041</v>
       </c>
       <c r="Y12" t="n">
-        <v>10.24670648406341</v>
+        <v>16.55386226827263</v>
       </c>
       <c r="Z12" t="n">
-        <v>11.95412545116086</v>
+        <v>56.86802413870804</v>
       </c>
       <c r="AA12" t="n">
-        <v>18.04000861295729</v>
+        <v>13.43629433721502</v>
       </c>
       <c r="AB12" t="n">
-        <v>10.72700794504192</v>
+        <v>14.9645936095514</v>
       </c>
       <c r="AC12" t="n">
-        <v>17.83243817509879</v>
+        <v>29.25657493183722</v>
       </c>
       <c r="AD12" t="n">
-        <v>26.44144476410928</v>
+        <v>10.10373816902703</v>
       </c>
       <c r="AE12" t="n">
-        <v>11.2901018795478</v>
+        <v>14.47938827628793</v>
       </c>
       <c r="AF12" t="n">
-        <v>11.87985644049225</v>
+        <v>21.45326022833344</v>
       </c>
       <c r="AG12" t="n">
-        <v>34.65337674546527</v>
+        <v>11.25482479923749</v>
       </c>
       <c r="AH12" t="n">
-        <v>9.169188858713841</v>
+        <v>17.30526117059288</v>
       </c>
       <c r="AI12" t="n">
-        <v>6.156674246629755</v>
+        <v>11.07176442759748</v>
       </c>
       <c r="AJ12" t="n">
-        <v>3.24255118812911</v>
+        <v>43.41645060081883</v>
       </c>
       <c r="AK12" t="n">
-        <v>12.58968091554537</v>
+        <v>2.032259611085831</v>
       </c>
       <c r="AL12" t="n">
-        <v>9.050424613288344</v>
+        <v>26.77323588709458</v>
       </c>
       <c r="AM12" t="n">
-        <v>4.735986636359476</v>
+        <v>2.23165143393044</v>
       </c>
       <c r="AN12" t="n">
-        <v>8.382267066992377</v>
+        <v>4.62005548357652</v>
       </c>
       <c r="AO12" t="n">
-        <v>1.110910439491208</v>
+        <v>1.345459319003314</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.553846351028771</v>
+        <v>3.59663642061597</v>
       </c>
       <c r="AQ12" t="n">
-        <v>2.356481410897572</v>
+        <v>3.185776682472031</v>
       </c>
       <c r="AR12" t="n">
-        <v>1.666971727181449</v>
+        <v>2.525705182110592</v>
       </c>
       <c r="AS12" t="n">
-        <v>3.011453261462431</v>
+        <v>3.007024078298108</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.303997749257232</v>
+        <v>3.146371135725418</v>
       </c>
       <c r="AU12" t="n">
-        <v>3.702992324220926</v>
+        <v>1.609760898350944</v>
       </c>
       <c r="AV12" t="n">
-        <v>5.624501344205959</v>
+        <v>13.12506426721411</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.8164042705888519</v>
+        <v>1.763657352607006</v>
       </c>
       <c r="AX12" t="n">
-        <v>2.4204714445645</v>
+        <v>2.82881370607567</v>
       </c>
     </row>
     <row r="13">
@@ -2365,148 +2365,148 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>24.97093718989343</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>5.946997229517137</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>12.06454436003875</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>19.35477535752452</v>
+        <v>22.36051350496891</v>
       </c>
       <c r="G13" t="n">
-        <v>2.697217893937737</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>40.44260485045351</v>
+        <v>10.85134961201214</v>
       </c>
       <c r="I13" t="n">
-        <v>9.150677195272968</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>20.9309477687715</v>
+        <v>6.221173361130445</v>
       </c>
       <c r="K13" t="n">
-        <v>45.33513055026019</v>
+        <v>33.41420033719315</v>
       </c>
       <c r="L13" t="n">
-        <v>72.467441994803</v>
+        <v>33.07686353036203</v>
       </c>
       <c r="M13" t="n">
-        <v>13.96845061178448</v>
+        <v>34.49266002504957</v>
       </c>
       <c r="N13" t="n">
-        <v>11.72848364590257</v>
+        <v>25.60655280687089</v>
       </c>
       <c r="O13" t="n">
-        <v>157.7885880661345</v>
+        <v>16.80204230103363</v>
       </c>
       <c r="P13" t="n">
-        <v>23.15303581077831</v>
+        <v>117.3424406785728</v>
       </c>
       <c r="Q13" t="n">
-        <v>56.08138623362072</v>
+        <v>30.7131425417102</v>
       </c>
       <c r="R13" t="n">
-        <v>24.45236826889745</v>
+        <v>26.83475994225744</v>
       </c>
       <c r="S13" t="n">
-        <v>39.04912759835996</v>
+        <v>21.11266047340994</v>
       </c>
       <c r="T13" t="n">
-        <v>10.00129631937868</v>
+        <v>3.877858554986187</v>
       </c>
       <c r="U13" t="n">
-        <v>1.278049635004805</v>
+        <v>2.455036307299299</v>
       </c>
       <c r="V13" t="n">
-        <v>7.26292994267809</v>
+        <v>3.634517362815449</v>
       </c>
       <c r="W13" t="n">
-        <v>3.491166949488922</v>
+        <v>10.47213374851815</v>
       </c>
       <c r="X13" t="n">
-        <v>3.068311030592977</v>
+        <v>20.03786004742081</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.76143198308913</v>
+        <v>133.9288264413116</v>
       </c>
       <c r="Z13" t="n">
-        <v>6.537418368249337</v>
+        <v>10.88303811861566</v>
       </c>
       <c r="AA13" t="n">
-        <v>10.9015526460406</v>
+        <v>3.289174718476247</v>
       </c>
       <c r="AB13" t="n">
-        <v>28.73267483338487</v>
+        <v>14.44947763618003</v>
       </c>
       <c r="AC13" t="n">
-        <v>10.81632597184638</v>
+        <v>35.97742040078169</v>
       </c>
       <c r="AD13" t="n">
-        <v>19.98785891671557</v>
+        <v>6.679944762606006</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.175276211259442</v>
+        <v>4.926240710459964</v>
       </c>
       <c r="AF13" t="n">
-        <v>14.0448403440073</v>
+        <v>4.660067639389534</v>
       </c>
       <c r="AG13" t="n">
-        <v>2.725204982290368</v>
+        <v>4.145306091071617</v>
       </c>
       <c r="AH13" t="n">
-        <v>6.097787205674699</v>
+        <v>2.009185299742973</v>
       </c>
       <c r="AI13" t="n">
-        <v>8.827706000873336</v>
+        <v>2.06192118939062</v>
       </c>
       <c r="AJ13" t="n">
-        <v>3.717901342653358</v>
+        <v>5.099631533901351</v>
       </c>
       <c r="AK13" t="n">
-        <v>7.934596585038646</v>
+        <v>0.2089463104055365</v>
       </c>
       <c r="AL13" t="n">
-        <v>2.887714985700777</v>
+        <v>10.69419864261</v>
       </c>
       <c r="AM13" t="n">
-        <v>36.15844061251124</v>
+        <v>2.33662602523955</v>
       </c>
       <c r="AN13" t="n">
-        <v>1.168355343063591</v>
+        <v>5.379745772729605</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.559406442813816</v>
+        <v>15.35521508410323</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.144850177783611</v>
+        <v>0</v>
       </c>
       <c r="AQ13" t="n">
-        <v>10.3221943629177</v>
+        <v>16.88346996393357</v>
       </c>
       <c r="AR13" t="n">
-        <v>1.484122901117092</v>
+        <v>0.3864905736767124</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.20235526870689</v>
+        <v>9.840817511637272</v>
       </c>
       <c r="AT13" t="n">
-        <v>11.82042160316946</v>
+        <v>6.153078246865663</v>
       </c>
       <c r="AU13" t="n">
-        <v>19.36484539324571</v>
+        <v>2.046345174719468</v>
       </c>
       <c r="AV13" t="n">
-        <v>3.671097129394393</v>
+        <v>2.34516474356207</v>
       </c>
       <c r="AW13" t="n">
-        <v>6.533571398058013</v>
+        <v>9.802459958870344</v>
       </c>
       <c r="AX13" t="n">
-        <v>1.958811501920757</v>
+        <v>4.542918996381373</v>
       </c>
     </row>
     <row r="14">
@@ -2517,148 +2517,148 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>21.1865198647592</v>
+        <v>8.979681560399563</v>
       </c>
       <c r="D14" t="n">
-        <v>46.50243975903015</v>
+        <v>40.75183950058005</v>
       </c>
       <c r="E14" t="n">
-        <v>25.43727973190959</v>
+        <v>29.37673306864819</v>
       </c>
       <c r="F14" t="n">
-        <v>26.17936170814933</v>
+        <v>38.47357980846401</v>
       </c>
       <c r="G14" t="n">
-        <v>43.12060176223599</v>
+        <v>12.19914952249723</v>
       </c>
       <c r="H14" t="n">
-        <v>9.587664824347348</v>
+        <v>136.3358155880691</v>
       </c>
       <c r="I14" t="n">
-        <v>32.85469333315523</v>
+        <v>181.4514312107422</v>
       </c>
       <c r="J14" t="n">
-        <v>53.63353117140829</v>
+        <v>0.0893180569143972</v>
       </c>
       <c r="K14" t="n">
-        <v>48.0097845769285</v>
+        <v>36.43102530758338</v>
       </c>
       <c r="L14" t="n">
-        <v>406.3771689622632</v>
+        <v>110.4292257585485</v>
       </c>
       <c r="M14" t="n">
-        <v>38.70378135140605</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>26.77315683631293</v>
+        <v>98.88696557076564</v>
       </c>
       <c r="O14" t="n">
-        <v>103.882605581608</v>
+        <v>8.725205273343374</v>
       </c>
       <c r="P14" t="n">
-        <v>67.76273778898826</v>
+        <v>66.81832416957675</v>
       </c>
       <c r="Q14" t="n">
-        <v>29.60450696424248</v>
+        <v>64.82536006355691</v>
       </c>
       <c r="R14" t="n">
-        <v>58.10537950707312</v>
+        <v>35.04002078243953</v>
       </c>
       <c r="S14" t="n">
-        <v>42.29271108819885</v>
+        <v>144.1903954097816</v>
       </c>
       <c r="T14" t="n">
-        <v>24.50463134326513</v>
+        <v>72.50215168033121</v>
       </c>
       <c r="U14" t="n">
-        <v>62.36857755413508</v>
+        <v>52.43554017850209</v>
       </c>
       <c r="V14" t="n">
-        <v>91.74933077310584</v>
+        <v>23.86912131766964</v>
       </c>
       <c r="W14" t="n">
-        <v>40.07697057926929</v>
+        <v>50.8326780960021</v>
       </c>
       <c r="X14" t="n">
-        <v>89.47239419254919</v>
+        <v>48.54141163711541</v>
       </c>
       <c r="Y14" t="n">
-        <v>86.18473308739709</v>
+        <v>38.70320220714373</v>
       </c>
       <c r="Z14" t="n">
-        <v>77.57589693116444</v>
+        <v>101.4945620884742</v>
       </c>
       <c r="AA14" t="n">
-        <v>67.11087153372716</v>
+        <v>96.37811164946518</v>
       </c>
       <c r="AB14" t="n">
-        <v>97.49625107996191</v>
+        <v>33.12199166955438</v>
       </c>
       <c r="AC14" t="n">
-        <v>96.51035456104985</v>
+        <v>72.82405014842882</v>
       </c>
       <c r="AD14" t="n">
-        <v>53.48098802009387</v>
+        <v>108.3900836275527</v>
       </c>
       <c r="AE14" t="n">
-        <v>86.57985395143572</v>
+        <v>105.7530008655375</v>
       </c>
       <c r="AF14" t="n">
-        <v>63.36290367049325</v>
+        <v>71.5540280147866</v>
       </c>
       <c r="AG14" t="n">
-        <v>333.1543387412445</v>
+        <v>75.29231393919117</v>
       </c>
       <c r="AH14" t="n">
-        <v>69.69704121261111</v>
+        <v>79.74782870255665</v>
       </c>
       <c r="AI14" t="n">
-        <v>39.20994617425488</v>
+        <v>98.36095717072253</v>
       </c>
       <c r="AJ14" t="n">
-        <v>30.90864126924628</v>
+        <v>52.94338338949021</v>
       </c>
       <c r="AK14" t="n">
-        <v>40.31612843297821</v>
+        <v>101.6742623349242</v>
       </c>
       <c r="AL14" t="n">
-        <v>32.44302743426784</v>
+        <v>88.23732060271296</v>
       </c>
       <c r="AM14" t="n">
-        <v>50.31417132518065</v>
+        <v>93.19031709671201</v>
       </c>
       <c r="AN14" t="n">
-        <v>25.44284115343223</v>
+        <v>31.70439252916043</v>
       </c>
       <c r="AO14" t="n">
-        <v>42.43820857836126</v>
+        <v>37.71125707056119</v>
       </c>
       <c r="AP14" t="n">
-        <v>51.61715212298142</v>
+        <v>12.52961972045605</v>
       </c>
       <c r="AQ14" t="n">
-        <v>51.40323463734389</v>
+        <v>26.16510078152093</v>
       </c>
       <c r="AR14" t="n">
-        <v>21.62202539044136</v>
+        <v>28.30013740785289</v>
       </c>
       <c r="AS14" t="n">
-        <v>24.54350123371993</v>
+        <v>16.37624869673182</v>
       </c>
       <c r="AT14" t="n">
-        <v>29.75898875878196</v>
+        <v>23.59484929685426</v>
       </c>
       <c r="AU14" t="n">
-        <v>25.75484216931418</v>
+        <v>25.25569038317145</v>
       </c>
       <c r="AV14" t="n">
-        <v>22.20367717729</v>
+        <v>28.52769956138391</v>
       </c>
       <c r="AW14" t="n">
-        <v>37.5197106270203</v>
+        <v>27.21491568003487</v>
       </c>
       <c r="AX14" t="n">
-        <v>18.87801296882214</v>
+        <v>23.23084057740505</v>
       </c>
     </row>
     <row r="15">
@@ -2669,148 +2669,148 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>13.62690502360785</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>2.920166509737829</v>
+        <v>3.620617256837821</v>
       </c>
       <c r="E15" t="n">
-        <v>0.784161199004366</v>
+        <v>2.898769816338649</v>
       </c>
       <c r="F15" t="n">
-        <v>1.01123850373285</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>8.32903212870697</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1.380812299087459</v>
+        <v>0.5153938050183404</v>
       </c>
       <c r="I15" t="n">
-        <v>1.499808067372298</v>
+        <v>5.975907654092775</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5956582190837283</v>
+        <v>2.674860332123709</v>
       </c>
       <c r="K15" t="n">
-        <v>14.87189845962092</v>
+        <v>0.3359376274961595</v>
       </c>
       <c r="L15" t="n">
-        <v>3.990657898285102</v>
+        <v>1.826788410944209</v>
       </c>
       <c r="M15" t="n">
-        <v>6.33018011450313</v>
+        <v>6.169723039320072</v>
       </c>
       <c r="N15" t="n">
-        <v>4.762083069268113</v>
+        <v>1.507219241866438</v>
       </c>
       <c r="O15" t="n">
-        <v>3.30398434190315</v>
+        <v>1.790178351938684</v>
       </c>
       <c r="P15" t="n">
-        <v>3.781412921664965</v>
+        <v>6.176735745796722</v>
       </c>
       <c r="Q15" t="n">
-        <v>4.486973007600051</v>
+        <v>18.10395815240296</v>
       </c>
       <c r="R15" t="n">
-        <v>2.216658717339665</v>
+        <v>5.76452717258</v>
       </c>
       <c r="S15" t="n">
-        <v>5.08534073029948</v>
+        <v>8.46063370061181</v>
       </c>
       <c r="T15" t="n">
-        <v>1.765619171044538</v>
+        <v>0.3402247357217287</v>
       </c>
       <c r="U15" t="n">
-        <v>2.944133130449405</v>
+        <v>4.296012117118584</v>
       </c>
       <c r="V15" t="n">
-        <v>5.601749028903268</v>
+        <v>7.211443677418506</v>
       </c>
       <c r="W15" t="n">
-        <v>7.173316757677427</v>
+        <v>3.321732851460792</v>
       </c>
       <c r="X15" t="n">
-        <v>3.076245195127036</v>
+        <v>1.698757093443154</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.467213383255064</v>
+        <v>5.625145122085264</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.08320241874937</v>
+        <v>4.664114857696555</v>
       </c>
       <c r="AA15" t="n">
-        <v>2.639114239562533</v>
+        <v>3.831242868334882</v>
       </c>
       <c r="AB15" t="n">
-        <v>6.476433371902129</v>
+        <v>5.009762022765446</v>
       </c>
       <c r="AC15" t="n">
-        <v>3.07443192276044</v>
+        <v>6.379466131759098</v>
       </c>
       <c r="AD15" t="n">
-        <v>4.632894227619718</v>
+        <v>3.798795563104544</v>
       </c>
       <c r="AE15" t="n">
-        <v>6.642774052266454</v>
+        <v>7.33249534152343</v>
       </c>
       <c r="AF15" t="n">
-        <v>8.772000330217418</v>
+        <v>6.035528298973054</v>
       </c>
       <c r="AG15" t="n">
-        <v>5.679544894763286</v>
+        <v>10.71792589454585</v>
       </c>
       <c r="AH15" t="n">
-        <v>2.550789869434118</v>
+        <v>2.169179931831266</v>
       </c>
       <c r="AI15" t="n">
-        <v>3.546986685034915</v>
+        <v>6.373763635356049</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1.926766515578709</v>
+        <v>8.645004485282213</v>
       </c>
       <c r="AK15" t="n">
-        <v>2.875158849338233</v>
+        <v>3.993622518977043</v>
       </c>
       <c r="AL15" t="n">
-        <v>4.795017864123575</v>
+        <v>6.720677246195808</v>
       </c>
       <c r="AM15" t="n">
-        <v>1.799815655892167</v>
+        <v>6.752507801922095</v>
       </c>
       <c r="AN15" t="n">
-        <v>1.941884086824753</v>
+        <v>4.161144258293958</v>
       </c>
       <c r="AO15" t="n">
-        <v>2.877101028041899</v>
+        <v>2.435738840062939</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.8796541583287261</v>
+        <v>6.544941662566676</v>
       </c>
       <c r="AQ15" t="n">
-        <v>5.685223694622551</v>
+        <v>4.686701832877017</v>
       </c>
       <c r="AR15" t="n">
-        <v>1.905838492425781</v>
+        <v>5.083159946342595</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.153532921475344</v>
+        <v>1.243352855388655</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.093063993200531</v>
+        <v>2.229804354433663</v>
       </c>
       <c r="AU15" t="n">
-        <v>2.693283536245357</v>
+        <v>8.43520084236685</v>
       </c>
       <c r="AV15" t="n">
-        <v>2.725333818692119</v>
+        <v>3.184356284115098</v>
       </c>
       <c r="AW15" t="n">
-        <v>24.87223625312792</v>
+        <v>4.446672896293114</v>
       </c>
       <c r="AX15" t="n">
-        <v>1.388752508349631</v>
+        <v>3.294225862394636</v>
       </c>
     </row>
     <row r="16">
@@ -2821,148 +2821,148 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>13.52256252487553</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>9.974238382103518</v>
+        <v>14.74808676334305</v>
       </c>
       <c r="E16" t="n">
-        <v>13.75464909533322</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>6.001715507717625</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>18.84608488974803</v>
+        <v>18.40312170594915</v>
       </c>
       <c r="H16" t="n">
-        <v>9.250599605049501</v>
+        <v>73.09218645290399</v>
       </c>
       <c r="I16" t="n">
-        <v>4.76327473779858</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>17.31965888218804</v>
+        <v>170.533872905159</v>
       </c>
       <c r="K16" t="n">
-        <v>25.94944449979281</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>36.5335865702984</v>
+        <v>19.00987786123098</v>
       </c>
       <c r="M16" t="n">
-        <v>302.4606546947997</v>
+        <v>20.806857509042</v>
       </c>
       <c r="N16" t="n">
-        <v>80.42551925805758</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>73.57104691280458</v>
+        <v>248.4544790625168</v>
       </c>
       <c r="P16" t="n">
-        <v>39.6706976688801</v>
+        <v>17.69451201755269</v>
       </c>
       <c r="Q16" t="n">
-        <v>33.91833092607506</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>53.2968682326625</v>
+        <v>85.0732113910644</v>
       </c>
       <c r="S16" t="n">
-        <v>77.36771356746222</v>
+        <v>42.17202784853902</v>
       </c>
       <c r="T16" t="n">
-        <v>51.15596785868858</v>
+        <v>120.0644004086067</v>
       </c>
       <c r="U16" t="n">
-        <v>163.0995323255123</v>
+        <v>13.97463780538818</v>
       </c>
       <c r="V16" t="n">
-        <v>42.44866215305973</v>
+        <v>49.65509002931787</v>
       </c>
       <c r="W16" t="n">
-        <v>66.24341165366751</v>
+        <v>48.77614686322925</v>
       </c>
       <c r="X16" t="n">
-        <v>20.73706053061692</v>
+        <v>52.80243883803676</v>
       </c>
       <c r="Y16" t="n">
-        <v>51.0322330648498</v>
+        <v>69.95020117233898</v>
       </c>
       <c r="Z16" t="n">
-        <v>105.5757780759341</v>
+        <v>120.1946355821388</v>
       </c>
       <c r="AA16" t="n">
-        <v>109.0729422094997</v>
+        <v>91.80582722636601</v>
       </c>
       <c r="AB16" t="n">
-        <v>66.59372581131052</v>
+        <v>68.20222801627125</v>
       </c>
       <c r="AC16" t="n">
-        <v>61.42306769160642</v>
+        <v>107.2353768739286</v>
       </c>
       <c r="AD16" t="n">
-        <v>40.20350730011977</v>
+        <v>210.689069171999</v>
       </c>
       <c r="AE16" t="n">
-        <v>47.27025005809056</v>
+        <v>124.1954128894914</v>
       </c>
       <c r="AF16" t="n">
-        <v>94.6914671535191</v>
+        <v>24.7765403998595</v>
       </c>
       <c r="AG16" t="n">
-        <v>66.93573739794107</v>
+        <v>73.58647440269705</v>
       </c>
       <c r="AH16" t="n">
-        <v>44.80935991494315</v>
+        <v>50.01420148260891</v>
       </c>
       <c r="AI16" t="n">
-        <v>32.51496668661768</v>
+        <v>21.20206040147101</v>
       </c>
       <c r="AJ16" t="n">
-        <v>39.69516634652517</v>
+        <v>48.42756396641278</v>
       </c>
       <c r="AK16" t="n">
-        <v>18.59791897462804</v>
+        <v>29.45348219067789</v>
       </c>
       <c r="AL16" t="n">
-        <v>40.5899422961597</v>
+        <v>49.30381555000967</v>
       </c>
       <c r="AM16" t="n">
-        <v>23.95757861523622</v>
+        <v>40.55789867283971</v>
       </c>
       <c r="AN16" t="n">
-        <v>16.29266355406575</v>
+        <v>46.9620303765713</v>
       </c>
       <c r="AO16" t="n">
-        <v>23.1677138502081</v>
+        <v>14.35469433414741</v>
       </c>
       <c r="AP16" t="n">
-        <v>43.90110355910485</v>
+        <v>33.7569413019435</v>
       </c>
       <c r="AQ16" t="n">
-        <v>26.91582365272849</v>
+        <v>12.31236496415826</v>
       </c>
       <c r="AR16" t="n">
-        <v>14.88703812607552</v>
+        <v>16.92864022728806</v>
       </c>
       <c r="AS16" t="n">
-        <v>18.23256143170674</v>
+        <v>11.32105315089221</v>
       </c>
       <c r="AT16" t="n">
-        <v>21.35879124879499</v>
+        <v>8.288463336569512</v>
       </c>
       <c r="AU16" t="n">
-        <v>15.96515965673142</v>
+        <v>15.81766074139331</v>
       </c>
       <c r="AV16" t="n">
-        <v>11.26011708600796</v>
+        <v>11.99709023484115</v>
       </c>
       <c r="AW16" t="n">
-        <v>11.84110825753914</v>
+        <v>9.118158026992447</v>
       </c>
       <c r="AX16" t="n">
-        <v>9.446564651084008</v>
+        <v>6.593395847675673</v>
       </c>
     </row>
     <row r="17">
@@ -2973,148 +2973,148 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>18.58737844054285</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>8.776103147937587</v>
+        <v>17.47789198792167</v>
       </c>
       <c r="E17" t="n">
-        <v>8.670231722081274</v>
+        <v>15.00613153352374</v>
       </c>
       <c r="F17" t="n">
-        <v>6.065457583803724</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>155.759204773591</v>
+        <v>18.04750168014566</v>
       </c>
       <c r="H17" t="n">
-        <v>6.955658131975407</v>
+        <v>44.41175358995272</v>
       </c>
       <c r="I17" t="n">
-        <v>19.33176206598099</v>
+        <v>90.18561589512012</v>
       </c>
       <c r="J17" t="n">
-        <v>20.0711153129253</v>
+        <v>30.31339887714909</v>
       </c>
       <c r="K17" t="n">
-        <v>60.08689274913124</v>
+        <v>91.54875092844833</v>
       </c>
       <c r="L17" t="n">
-        <v>23.80472268045961</v>
+        <v>38.18125573327708</v>
       </c>
       <c r="M17" t="n">
-        <v>245.5930820890584</v>
+        <v>80.45035693661431</v>
       </c>
       <c r="N17" t="n">
-        <v>46.77343053615844</v>
+        <v>67.88374725099696</v>
       </c>
       <c r="O17" t="n">
-        <v>11.09258770515496</v>
+        <v>19.2304568760102</v>
       </c>
       <c r="P17" t="n">
-        <v>77.37165481351111</v>
+        <v>163.5313551858217</v>
       </c>
       <c r="Q17" t="n">
-        <v>50.17917331563688</v>
+        <v>34.52186705258939</v>
       </c>
       <c r="R17" t="n">
-        <v>28.03890956050883</v>
+        <v>28.63760174783532</v>
       </c>
       <c r="S17" t="n">
-        <v>44.51771802335163</v>
+        <v>73.46397141153233</v>
       </c>
       <c r="T17" t="n">
-        <v>70.259442018512</v>
+        <v>46.60886056303612</v>
       </c>
       <c r="U17" t="n">
-        <v>22.05292486049978</v>
+        <v>57.77309215401527</v>
       </c>
       <c r="V17" t="n">
-        <v>106.8843371426702</v>
+        <v>45.68520274095603</v>
       </c>
       <c r="W17" t="n">
-        <v>35.34596011515304</v>
+        <v>41.48713648428392</v>
       </c>
       <c r="X17" t="n">
-        <v>33.71673532525923</v>
+        <v>14.30245946043385</v>
       </c>
       <c r="Y17" t="n">
-        <v>13.63032337500665</v>
+        <v>76.14250711854257</v>
       </c>
       <c r="Z17" t="n">
-        <v>74.8412291701122</v>
+        <v>26.98265782762176</v>
       </c>
       <c r="AA17" t="n">
-        <v>59.47381988251862</v>
+        <v>91.50880484389025</v>
       </c>
       <c r="AB17" t="n">
-        <v>61.45593775965671</v>
+        <v>62.65130914216554</v>
       </c>
       <c r="AC17" t="n">
-        <v>53.64651445385056</v>
+        <v>26.50903215187096</v>
       </c>
       <c r="AD17" t="n">
-        <v>24.73305814314304</v>
+        <v>16.52595779047121</v>
       </c>
       <c r="AE17" t="n">
-        <v>16.85081192666721</v>
+        <v>35.19698094951946</v>
       </c>
       <c r="AF17" t="n">
-        <v>6.259002829489227</v>
+        <v>54.56847899203938</v>
       </c>
       <c r="AG17" t="n">
-        <v>6.661610312985859</v>
+        <v>50.30132743597436</v>
       </c>
       <c r="AH17" t="n">
-        <v>38.67843326719149</v>
+        <v>54.78119458144747</v>
       </c>
       <c r="AI17" t="n">
-        <v>28.42939746491573</v>
+        <v>18.30425100988093</v>
       </c>
       <c r="AJ17" t="n">
-        <v>42.95279748268315</v>
+        <v>27.33521605307785</v>
       </c>
       <c r="AK17" t="n">
-        <v>26.48501083475681</v>
+        <v>35.32885703984631</v>
       </c>
       <c r="AL17" t="n">
-        <v>22.33853086120931</v>
+        <v>34.98097533689271</v>
       </c>
       <c r="AM17" t="n">
-        <v>13.45128265032383</v>
+        <v>20.63648897909935</v>
       </c>
       <c r="AN17" t="n">
-        <v>12.34240661851697</v>
+        <v>30.97364830054957</v>
       </c>
       <c r="AO17" t="n">
-        <v>10.10206038752804</v>
+        <v>30.85362656262628</v>
       </c>
       <c r="AP17" t="n">
-        <v>9.547962548350794</v>
+        <v>23.48343322518248</v>
       </c>
       <c r="AQ17" t="n">
-        <v>15.84323979721034</v>
+        <v>14.28621795426719</v>
       </c>
       <c r="AR17" t="n">
-        <v>2.030958565457884</v>
+        <v>22.75261554726125</v>
       </c>
       <c r="AS17" t="n">
-        <v>19.55623797575858</v>
+        <v>21.19403887117291</v>
       </c>
       <c r="AT17" t="n">
-        <v>19.27529722336818</v>
+        <v>32.18291231344148</v>
       </c>
       <c r="AU17" t="n">
-        <v>16.56257795645493</v>
+        <v>3.723024015000453</v>
       </c>
       <c r="AV17" t="n">
-        <v>3.019884029870212</v>
+        <v>30.98620958354871</v>
       </c>
       <c r="AW17" t="n">
-        <v>27.44367302479742</v>
+        <v>8.694854472492715</v>
       </c>
       <c r="AX17" t="n">
-        <v>28.40284045466349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -3125,148 +3125,148 @@
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>1.626489979381904</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.452557059467776</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>2.560131129130556</v>
+        <v>5.065025509359426</v>
       </c>
       <c r="F18" t="n">
-        <v>4.303906984555004</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>4.19643809661023</v>
+        <v>5.182841017161159</v>
       </c>
       <c r="H18" t="n">
-        <v>3.986407189313278</v>
+        <v>1.495117318525373</v>
       </c>
       <c r="I18" t="n">
-        <v>4.302309801349626</v>
+        <v>13.87029319783594</v>
       </c>
       <c r="J18" t="n">
-        <v>21.681286532751</v>
+        <v>2.841130642893583</v>
       </c>
       <c r="K18" t="n">
-        <v>8.601922515054211</v>
+        <v>9.66875557056486</v>
       </c>
       <c r="L18" t="n">
-        <v>9.697632340129871</v>
+        <v>16.48759096417692</v>
       </c>
       <c r="M18" t="n">
-        <v>11.13439158903493</v>
+        <v>25.17987824482497</v>
       </c>
       <c r="N18" t="n">
-        <v>16.11061323747864</v>
+        <v>51.67685116057366</v>
       </c>
       <c r="O18" t="n">
-        <v>23.57488613010737</v>
+        <v>31.60090849436549</v>
       </c>
       <c r="P18" t="n">
-        <v>15.96037627159303</v>
+        <v>27.29695022199865</v>
       </c>
       <c r="Q18" t="n">
-        <v>15.64763642047035</v>
+        <v>10.31455638721276</v>
       </c>
       <c r="R18" t="n">
-        <v>42.87890127598526</v>
+        <v>24.82042338628492</v>
       </c>
       <c r="S18" t="n">
-        <v>22.34480700304332</v>
+        <v>17.51952357035659</v>
       </c>
       <c r="T18" t="n">
-        <v>30.44890326404339</v>
+        <v>127.6477688068686</v>
       </c>
       <c r="U18" t="n">
-        <v>40.85014831897288</v>
+        <v>9.117079804817989</v>
       </c>
       <c r="V18" t="n">
-        <v>54.67691981122686</v>
+        <v>43.71227136549771</v>
       </c>
       <c r="W18" t="n">
-        <v>15.45224045831473</v>
+        <v>12.58620226392037</v>
       </c>
       <c r="X18" t="n">
-        <v>11.44256469550682</v>
+        <v>14.40256015465113</v>
       </c>
       <c r="Y18" t="n">
-        <v>32.88374865793992</v>
+        <v>15.50910860933904</v>
       </c>
       <c r="Z18" t="n">
-        <v>13.48367445413693</v>
+        <v>24.12685460037765</v>
       </c>
       <c r="AA18" t="n">
-        <v>12.61724180079366</v>
+        <v>3.576912201577078</v>
       </c>
       <c r="AB18" t="n">
-        <v>23.57179829816333</v>
+        <v>13.91379964754101</v>
       </c>
       <c r="AC18" t="n">
-        <v>12.23419195653886</v>
+        <v>55.21298893026402</v>
       </c>
       <c r="AD18" t="n">
-        <v>28.65958696629237</v>
+        <v>12.40794306033599</v>
       </c>
       <c r="AE18" t="n">
-        <v>16.08696831530965</v>
+        <v>17.72240084723485</v>
       </c>
       <c r="AF18" t="n">
-        <v>10.38717390476532</v>
+        <v>32.64348350944449</v>
       </c>
       <c r="AG18" t="n">
-        <v>15.63245197457609</v>
+        <v>9.023665044736466</v>
       </c>
       <c r="AH18" t="n">
-        <v>19.69623760240693</v>
+        <v>5.651413925250248</v>
       </c>
       <c r="AI18" t="n">
-        <v>8.628987617779751</v>
+        <v>12.86207028769447</v>
       </c>
       <c r="AJ18" t="n">
-        <v>8.360538640756669</v>
+        <v>13.89712466207841</v>
       </c>
       <c r="AK18" t="n">
-        <v>1.821202960523996</v>
+        <v>1.401683395561847</v>
       </c>
       <c r="AL18" t="n">
-        <v>9.254591631889438</v>
+        <v>2.166716592667934</v>
       </c>
       <c r="AM18" t="n">
-        <v>2.945329142018659</v>
+        <v>4.563937219105705</v>
       </c>
       <c r="AN18" t="n">
-        <v>14.92830972160124</v>
+        <v>0.6031332869675444</v>
       </c>
       <c r="AO18" t="n">
-        <v>4.264474877528769</v>
+        <v>5.289922794934287</v>
       </c>
       <c r="AP18" t="n">
-        <v>4.468520295961736</v>
+        <v>6.011073973715217</v>
       </c>
       <c r="AQ18" t="n">
-        <v>4.531966658234359</v>
+        <v>2.623687559564902</v>
       </c>
       <c r="AR18" t="n">
-        <v>2.450989887752616</v>
+        <v>1.594052618693608</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.812168873682137</v>
+        <v>2.230091775944641</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.537900955699817</v>
+        <v>5.01703709901019</v>
       </c>
       <c r="AU18" t="n">
-        <v>1.021742462037924</v>
+        <v>3.046406052292994</v>
       </c>
       <c r="AV18" t="n">
-        <v>4.796641081450965</v>
+        <v>2.11784781288385</v>
       </c>
       <c r="AW18" t="n">
-        <v>2.286395863366295</v>
+        <v>3.942382714011688</v>
       </c>
       <c r="AX18" t="n">
-        <v>1.387258217756025</v>
+        <v>0.7090689762302458</v>
       </c>
     </row>
     <row r="19">
@@ -3277,148 +3277,148 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>21.26215118254199</v>
+        <v>4.285385111755961</v>
       </c>
       <c r="D19" t="n">
-        <v>22.34233321879687</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>16.11863618228922</v>
+        <v>17.95518394477013</v>
       </c>
       <c r="F19" t="n">
-        <v>12.2534765612704</v>
+        <v>12.34455583166647</v>
       </c>
       <c r="G19" t="n">
-        <v>95.22580938295523</v>
+        <v>5.655178054876699</v>
       </c>
       <c r="H19" t="n">
-        <v>24.82138583061356</v>
+        <v>33.88017906027849</v>
       </c>
       <c r="I19" t="n">
-        <v>2.282021651741156</v>
+        <v>25.589737897306</v>
       </c>
       <c r="J19" t="n">
-        <v>1.841395030673486</v>
+        <v>24.17217534389155</v>
       </c>
       <c r="K19" t="n">
-        <v>12.31762821499559</v>
+        <v>37.68330453005035</v>
       </c>
       <c r="L19" t="n">
-        <v>2.729081093633384</v>
+        <v>20.62723485790256</v>
       </c>
       <c r="M19" t="n">
-        <v>8.663244845443614</v>
+        <v>47.42614023002817</v>
       </c>
       <c r="N19" t="n">
-        <v>84.44016123525311</v>
+        <v>45.19236228132347</v>
       </c>
       <c r="O19" t="n">
-        <v>17.59125044840815</v>
+        <v>17.23974462466115</v>
       </c>
       <c r="P19" t="n">
-        <v>37.23211493851243</v>
+        <v>12.74472899466191</v>
       </c>
       <c r="Q19" t="n">
-        <v>24.50719484186576</v>
+        <v>96.69127791534112</v>
       </c>
       <c r="R19" t="n">
-        <v>101.4835697022086</v>
+        <v>87.13063459432071</v>
       </c>
       <c r="S19" t="n">
-        <v>28.75732147413954</v>
+        <v>26.62710366225172</v>
       </c>
       <c r="T19" t="n">
-        <v>35.5893910801687</v>
+        <v>79.79701084685188</v>
       </c>
       <c r="U19" t="n">
-        <v>36.42585102656515</v>
+        <v>52.5051062812455</v>
       </c>
       <c r="V19" t="n">
-        <v>23.88219170466291</v>
+        <v>41.6978504771872</v>
       </c>
       <c r="W19" t="n">
-        <v>10.70006458947396</v>
+        <v>0.05405973777087159</v>
       </c>
       <c r="X19" t="n">
-        <v>21.57775094476211</v>
+        <v>46.04336476698334</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.142449501956774</v>
+        <v>23.33289440948307</v>
       </c>
       <c r="Z19" t="n">
-        <v>3.792615295228989</v>
+        <v>12.10810181581989</v>
       </c>
       <c r="AA19" t="n">
-        <v>2.226541369828244</v>
+        <v>4.507910956829944</v>
       </c>
       <c r="AB19" t="n">
-        <v>4.654148189683352</v>
+        <v>1.80729182688787</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.492395007800662</v>
+        <v>21.01317283685844</v>
       </c>
       <c r="AD19" t="n">
-        <v>9.499662722189447</v>
+        <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>17.10472428161307</v>
+        <v>17.04188640143634</v>
       </c>
       <c r="AF19" t="n">
-        <v>4.640454287510543</v>
+        <v>32.01188885746023</v>
       </c>
       <c r="AG19" t="n">
-        <v>1.981887510567042</v>
+        <v>21.99795221688609</v>
       </c>
       <c r="AH19" t="n">
-        <v>14.65059985498497</v>
+        <v>0.1958457410645403</v>
       </c>
       <c r="AI19" t="n">
-        <v>2.287469212006749</v>
+        <v>0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>46.59741828278214</v>
+        <v>4.435141160094176</v>
       </c>
       <c r="AK19" t="n">
-        <v>2.1865938002158</v>
+        <v>3.944429403170274</v>
       </c>
       <c r="AL19" t="n">
-        <v>18.98645677645808</v>
+        <v>8.590772409136003</v>
       </c>
       <c r="AM19" t="n">
-        <v>4.833602124933531</v>
+        <v>8.082607393027956</v>
       </c>
       <c r="AN19" t="n">
-        <v>2.022362451474912</v>
+        <v>2.672647524880573</v>
       </c>
       <c r="AO19" t="n">
-        <v>1.125116306846508</v>
+        <v>2.191719141031637</v>
       </c>
       <c r="AP19" t="n">
-        <v>5.853584070852697</v>
+        <v>4.446694031181885</v>
       </c>
       <c r="AQ19" t="n">
-        <v>2.132366817817696</v>
+        <v>2.4667364875867</v>
       </c>
       <c r="AR19" t="n">
-        <v>5.897763636090773</v>
+        <v>11.39560250775736</v>
       </c>
       <c r="AS19" t="n">
-        <v>4.754990301967888</v>
+        <v>16.59638567458238</v>
       </c>
       <c r="AT19" t="n">
-        <v>13.24411420222624</v>
+        <v>4.311827787187818</v>
       </c>
       <c r="AU19" t="n">
-        <v>3.129562773352741</v>
+        <v>9.823985652324076</v>
       </c>
       <c r="AV19" t="n">
-        <v>4.770688047373787</v>
+        <v>0</v>
       </c>
       <c r="AW19" t="n">
-        <v>24.35216684408381</v>
+        <v>14.07319867189111</v>
       </c>
       <c r="AX19" t="n">
-        <v>4.738864071563395</v>
+        <v>7.469105527384878</v>
       </c>
     </row>
     <row r="20">
@@ -3429,148 +3429,148 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>32.48302038085821</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>8.417373244167791</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>26.32440134990303</v>
+        <v>2.468899520721494</v>
       </c>
       <c r="F20" t="n">
-        <v>10.92242739981908</v>
+        <v>36.11358046219497</v>
       </c>
       <c r="G20" t="n">
-        <v>31.38432281130798</v>
+        <v>39.64971077524012</v>
       </c>
       <c r="H20" t="n">
-        <v>42.06700286579715</v>
+        <v>28.77475814457994</v>
       </c>
       <c r="I20" t="n">
-        <v>79.15553297610073</v>
+        <v>227.9390789607314</v>
       </c>
       <c r="J20" t="n">
-        <v>30.06245168782688</v>
+        <v>109.298530344848</v>
       </c>
       <c r="K20" t="n">
-        <v>37.32513120656346</v>
+        <v>69.25725798785244</v>
       </c>
       <c r="L20" t="n">
-        <v>139.2793985066107</v>
+        <v>26.91495982961607</v>
       </c>
       <c r="M20" t="n">
-        <v>67.88005244905665</v>
+        <v>85.55986177871284</v>
       </c>
       <c r="N20" t="n">
-        <v>65.42404286899233</v>
+        <v>80.03243678371683</v>
       </c>
       <c r="O20" t="n">
-        <v>33.47097030881608</v>
+        <v>49.93008588266686</v>
       </c>
       <c r="P20" t="n">
-        <v>123.4470545436727</v>
+        <v>37.89397576377685</v>
       </c>
       <c r="Q20" t="n">
-        <v>70.77973542529823</v>
+        <v>57.14442971203448</v>
       </c>
       <c r="R20" t="n">
-        <v>109.9914906200246</v>
+        <v>48.67037219034538</v>
       </c>
       <c r="S20" t="n">
-        <v>35.48570166587329</v>
+        <v>93.08831747559525</v>
       </c>
       <c r="T20" t="n">
-        <v>162.7468776979564</v>
+        <v>42.43965499465565</v>
       </c>
       <c r="U20" t="n">
-        <v>71.02201062748449</v>
+        <v>37.83061953404567</v>
       </c>
       <c r="V20" t="n">
-        <v>36.10986117669996</v>
+        <v>30.16068174355127</v>
       </c>
       <c r="W20" t="n">
-        <v>99.39733229746595</v>
+        <v>48.45319201547753</v>
       </c>
       <c r="X20" t="n">
-        <v>52.40171294041871</v>
+        <v>64.18876988657418</v>
       </c>
       <c r="Y20" t="n">
-        <v>76.73161760934529</v>
+        <v>85.46105104452964</v>
       </c>
       <c r="Z20" t="n">
-        <v>59.90804545509341</v>
+        <v>56.15261991420667</v>
       </c>
       <c r="AA20" t="n">
-        <v>66.72494988309974</v>
+        <v>130.3513324665175</v>
       </c>
       <c r="AB20" t="n">
-        <v>74.91275286138492</v>
+        <v>77.72838824683421</v>
       </c>
       <c r="AC20" t="n">
-        <v>77.07033275289012</v>
+        <v>119.8292405862205</v>
       </c>
       <c r="AD20" t="n">
-        <v>130.6731421477299</v>
+        <v>78.16027877114317</v>
       </c>
       <c r="AE20" t="n">
-        <v>65.90494868660245</v>
+        <v>71.48754157875116</v>
       </c>
       <c r="AF20" t="n">
-        <v>309.6836793366904</v>
+        <v>131.5143138604242</v>
       </c>
       <c r="AG20" t="n">
-        <v>144.6886706266364</v>
+        <v>131.7473580092152</v>
       </c>
       <c r="AH20" t="n">
-        <v>118.2694025328815</v>
+        <v>215.3680201655073</v>
       </c>
       <c r="AI20" t="n">
-        <v>80.526647627803</v>
+        <v>58.35439494300771</v>
       </c>
       <c r="AJ20" t="n">
-        <v>44.02522011995447</v>
+        <v>68.86215967131686</v>
       </c>
       <c r="AK20" t="n">
-        <v>166.7206718440397</v>
+        <v>35.88692615383444</v>
       </c>
       <c r="AL20" t="n">
-        <v>12.07416834846161</v>
+        <v>82.4779796307806</v>
       </c>
       <c r="AM20" t="n">
-        <v>68.2857714817888</v>
+        <v>29.5365029027266</v>
       </c>
       <c r="AN20" t="n">
-        <v>24.77601607179836</v>
+        <v>13.49542168392127</v>
       </c>
       <c r="AO20" t="n">
-        <v>50.11222287674754</v>
+        <v>30.38109106158246</v>
       </c>
       <c r="AP20" t="n">
-        <v>18.05402756659519</v>
+        <v>34.33115113780279</v>
       </c>
       <c r="AQ20" t="n">
-        <v>23.80382833725681</v>
+        <v>15.80776850140141</v>
       </c>
       <c r="AR20" t="n">
-        <v>25.74040400180828</v>
+        <v>23.31353515965085</v>
       </c>
       <c r="AS20" t="n">
-        <v>21.61904297508757</v>
+        <v>39.00814050568587</v>
       </c>
       <c r="AT20" t="n">
-        <v>25.31662031785059</v>
+        <v>11.94201075148676</v>
       </c>
       <c r="AU20" t="n">
-        <v>19.35502827750852</v>
+        <v>27.18638364781406</v>
       </c>
       <c r="AV20" t="n">
-        <v>22.20484986678338</v>
+        <v>20.98682943796979</v>
       </c>
       <c r="AW20" t="n">
-        <v>12.58507526073241</v>
+        <v>21.74702912179964</v>
       </c>
       <c r="AX20" t="n">
-        <v>14.30227042712039</v>
+        <v>25.41211687338663</v>
       </c>
     </row>
     <row r="21">
@@ -3581,148 +3581,148 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8579508380082058</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1.010897739765581</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>20.05059575190787</v>
+        <v>1.505172341199632</v>
       </c>
       <c r="F21" t="n">
-        <v>1.872062160544746</v>
+        <v>0.5251722096264082</v>
       </c>
       <c r="G21" t="n">
-        <v>1.475199829736082</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>4.056324767056291</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>3.117928689577202</v>
+        <v>3.154087470357172</v>
       </c>
       <c r="J21" t="n">
-        <v>2.444628556844169</v>
+        <v>4.446608862160415</v>
       </c>
       <c r="K21" t="n">
-        <v>5.483635045590797</v>
+        <v>1.071893824933345</v>
       </c>
       <c r="L21" t="n">
-        <v>3.219151806348226</v>
+        <v>3.588851533757921</v>
       </c>
       <c r="M21" t="n">
-        <v>4.01804095137634</v>
+        <v>4.843042032435578</v>
       </c>
       <c r="N21" t="n">
-        <v>3.608153209830593</v>
+        <v>3.395963304697633</v>
       </c>
       <c r="O21" t="n">
-        <v>5.185903942524116</v>
+        <v>8.519500799270316</v>
       </c>
       <c r="P21" t="n">
-        <v>5.00339037415855</v>
+        <v>10.27155576252649</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.285614564616246</v>
+        <v>1.934186813607974</v>
       </c>
       <c r="R21" t="n">
-        <v>2.916820834750883</v>
+        <v>5.776100280673288</v>
       </c>
       <c r="S21" t="n">
-        <v>3.303219954583496</v>
+        <v>4.444156543788959</v>
       </c>
       <c r="T21" t="n">
-        <v>4.962461451136939</v>
+        <v>3.057941625229738</v>
       </c>
       <c r="U21" t="n">
-        <v>1.876608443853362</v>
+        <v>2.831819773269387</v>
       </c>
       <c r="V21" t="n">
-        <v>5.195567646375886</v>
+        <v>5.15822779795408</v>
       </c>
       <c r="W21" t="n">
-        <v>2.256957392723503</v>
+        <v>6.026433537771992</v>
       </c>
       <c r="X21" t="n">
-        <v>3.723860765199686</v>
+        <v>2.395177391571714</v>
       </c>
       <c r="Y21" t="n">
-        <v>4.992596667281917</v>
+        <v>3.318076569552181</v>
       </c>
       <c r="Z21" t="n">
-        <v>3.829938117492163</v>
+        <v>4.550342238069929</v>
       </c>
       <c r="AA21" t="n">
-        <v>5.270192049928925</v>
+        <v>5.222564473430551</v>
       </c>
       <c r="AB21" t="n">
-        <v>2.896532976642874</v>
+        <v>5.295127183041716</v>
       </c>
       <c r="AC21" t="n">
-        <v>4.698108595243015</v>
+        <v>9.730339143742397</v>
       </c>
       <c r="AD21" t="n">
-        <v>2.97804655790034</v>
+        <v>4.165641442431784</v>
       </c>
       <c r="AE21" t="n">
-        <v>5.429063941943943</v>
+        <v>5.817201014251626</v>
       </c>
       <c r="AF21" t="n">
-        <v>7.066763788955603</v>
+        <v>4.104511703419443</v>
       </c>
       <c r="AG21" t="n">
-        <v>3.34032833487456</v>
+        <v>6.208337168941786</v>
       </c>
       <c r="AH21" t="n">
-        <v>4.056101165482715</v>
+        <v>7.381181955438095</v>
       </c>
       <c r="AI21" t="n">
-        <v>1.722702659306295</v>
+        <v>1.259431386257315</v>
       </c>
       <c r="AJ21" t="n">
-        <v>3.813594212732313</v>
+        <v>9.99264313872632</v>
       </c>
       <c r="AK21" t="n">
-        <v>4.426772930672267</v>
+        <v>2.45664431539279</v>
       </c>
       <c r="AL21" t="n">
-        <v>4.792236316528887</v>
+        <v>3.889233294250282</v>
       </c>
       <c r="AM21" t="n">
-        <v>4.155441433700589</v>
+        <v>6.164068211121606</v>
       </c>
       <c r="AN21" t="n">
-        <v>19.02898487374884</v>
+        <v>5.276816501617061</v>
       </c>
       <c r="AO21" t="n">
-        <v>2.273678311191234</v>
+        <v>4.207190824346451</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.897399848012737</v>
+        <v>2.069314288220186</v>
       </c>
       <c r="AQ21" t="n">
-        <v>3.124405698101368</v>
+        <v>5.575671514039048</v>
       </c>
       <c r="AR21" t="n">
-        <v>2.342828143334874</v>
+        <v>0.07587910952631854</v>
       </c>
       <c r="AS21" t="n">
-        <v>4.08768215299036</v>
+        <v>1.235441113552535</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.020774362672098</v>
+        <v>0.656587723880886</v>
       </c>
       <c r="AU21" t="n">
-        <v>6.239056615671812</v>
+        <v>3.311264033358602</v>
       </c>
       <c r="AV21" t="n">
-        <v>1.202898585742348</v>
+        <v>5.056712100221408</v>
       </c>
       <c r="AW21" t="n">
-        <v>7.248215518799415</v>
+        <v>11.16607754758729</v>
       </c>
       <c r="AX21" t="n">
-        <v>0.8505120503215584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -3733,148 +3733,148 @@
         <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>11.4827497321436</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>11.61930047410211</v>
+        <v>10.92000661752796</v>
       </c>
       <c r="E22" t="n">
-        <v>31.71266731344822</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>30.68088213135665</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>12.31289796377362</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>8.157005577130898</v>
+        <v>0.1322772463596493</v>
       </c>
       <c r="I22" t="n">
-        <v>104.3184546900236</v>
+        <v>18.68273852901623</v>
       </c>
       <c r="J22" t="n">
-        <v>26.6880284733178</v>
+        <v>35.13554471811742</v>
       </c>
       <c r="K22" t="n">
-        <v>26.29091812021145</v>
+        <v>153.5074412696068</v>
       </c>
       <c r="L22" t="n">
-        <v>475.9971838790701</v>
+        <v>36.58268797275935</v>
       </c>
       <c r="M22" t="n">
-        <v>80.25913551277945</v>
+        <v>50.38308775786796</v>
       </c>
       <c r="N22" t="n">
-        <v>79.06536412489622</v>
+        <v>110.7830380725344</v>
       </c>
       <c r="O22" t="n">
-        <v>16.16735852038114</v>
+        <v>23.46393163250178</v>
       </c>
       <c r="P22" t="n">
-        <v>19.78648206578914</v>
+        <v>86.34809335656428</v>
       </c>
       <c r="Q22" t="n">
-        <v>52.99857403544691</v>
+        <v>59.16306721773419</v>
       </c>
       <c r="R22" t="n">
-        <v>211.6072003330283</v>
+        <v>14.15983805939141</v>
       </c>
       <c r="S22" t="n">
-        <v>36.70571920132335</v>
+        <v>91.38993666546509</v>
       </c>
       <c r="T22" t="n">
-        <v>61.7447590492877</v>
+        <v>69.50243973746223</v>
       </c>
       <c r="U22" t="n">
-        <v>37.48626282916077</v>
+        <v>56.99907154041188</v>
       </c>
       <c r="V22" t="n">
-        <v>73.44688965947128</v>
+        <v>114.227302271595</v>
       </c>
       <c r="W22" t="n">
-        <v>94.88661966535524</v>
+        <v>50.85697743976626</v>
       </c>
       <c r="X22" t="n">
-        <v>80.94860156316145</v>
+        <v>73.99961986152817</v>
       </c>
       <c r="Y22" t="n">
-        <v>52.93279297577597</v>
+        <v>33.63881045727022</v>
       </c>
       <c r="Z22" t="n">
-        <v>43.95618272533926</v>
+        <v>27.60527257300191</v>
       </c>
       <c r="AA22" t="n">
-        <v>57.20872382970532</v>
+        <v>39.49007088303595</v>
       </c>
       <c r="AB22" t="n">
-        <v>122.1578962915057</v>
+        <v>27.3445096484562</v>
       </c>
       <c r="AC22" t="n">
-        <v>64.20927667230424</v>
+        <v>55.53963650237642</v>
       </c>
       <c r="AD22" t="n">
-        <v>38.71769917289856</v>
+        <v>66.95062133596278</v>
       </c>
       <c r="AE22" t="n">
-        <v>95.53421248638823</v>
+        <v>63.32021120830966</v>
       </c>
       <c r="AF22" t="n">
-        <v>38.69623905906561</v>
+        <v>66.20095573255476</v>
       </c>
       <c r="AG22" t="n">
-        <v>39.21523779892657</v>
+        <v>59.82903713049601</v>
       </c>
       <c r="AH22" t="n">
-        <v>66.95376350394129</v>
+        <v>46.82889305566658</v>
       </c>
       <c r="AI22" t="n">
-        <v>147.9058629895028</v>
+        <v>49.30477084003623</v>
       </c>
       <c r="AJ22" t="n">
-        <v>102.7182835527967</v>
+        <v>48.0602162988982</v>
       </c>
       <c r="AK22" t="n">
-        <v>41.12263496036924</v>
+        <v>37.29574841572263</v>
       </c>
       <c r="AL22" t="n">
-        <v>14.14125125116276</v>
+        <v>68.9245812955501</v>
       </c>
       <c r="AM22" t="n">
-        <v>25.68904657372732</v>
+        <v>35.14880813492344</v>
       </c>
       <c r="AN22" t="n">
-        <v>15.51961433309351</v>
+        <v>35.09457842874396</v>
       </c>
       <c r="AO22" t="n">
-        <v>37.43134474540894</v>
+        <v>13.98077276298652</v>
       </c>
       <c r="AP22" t="n">
-        <v>21.38426709664599</v>
+        <v>23.18339121383462</v>
       </c>
       <c r="AQ22" t="n">
-        <v>21.21068600799982</v>
+        <v>18.46376076205965</v>
       </c>
       <c r="AR22" t="n">
-        <v>14.79673234009418</v>
+        <v>18.37478926610883</v>
       </c>
       <c r="AS22" t="n">
-        <v>15.38090458926093</v>
+        <v>23.46792709508224</v>
       </c>
       <c r="AT22" t="n">
-        <v>17.06683622837385</v>
+        <v>19.02800063693651</v>
       </c>
       <c r="AU22" t="n">
-        <v>15.75838094319539</v>
+        <v>11.86579479485942</v>
       </c>
       <c r="AV22" t="n">
-        <v>16.9364519813611</v>
+        <v>8.01217476480109</v>
       </c>
       <c r="AW22" t="n">
-        <v>7.86998915764303</v>
+        <v>11.85004266463759</v>
       </c>
       <c r="AX22" t="n">
-        <v>10.16884428971169</v>
+        <v>4.33909085966724</v>
       </c>
     </row>
     <row r="23">
@@ -3885,148 +3885,148 @@
         <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>19.96173218754758</v>
+        <v>7.179006182421514</v>
       </c>
       <c r="D23" t="n">
-        <v>3.670615573323074</v>
+        <v>7.616133235107059</v>
       </c>
       <c r="E23" t="n">
-        <v>13.29062462474353</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>22.35547959559932</v>
+        <v>13.42060248775498</v>
       </c>
       <c r="G23" t="n">
-        <v>10.86388053928645</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>2.993233841496129</v>
+        <v>29.57494553135779</v>
       </c>
       <c r="I23" t="n">
-        <v>15.88948630328</v>
+        <v>27.56245901527666</v>
       </c>
       <c r="J23" t="n">
-        <v>32.0550208411664</v>
+        <v>73.80285547152343</v>
       </c>
       <c r="K23" t="n">
-        <v>18.01370009221986</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>20.16118770913855</v>
+        <v>0.8549971660127085</v>
       </c>
       <c r="M23" t="n">
-        <v>73.43490244885523</v>
+        <v>46.95607794464097</v>
       </c>
       <c r="N23" t="n">
-        <v>27.16208717068352</v>
+        <v>20.16042749930848</v>
       </c>
       <c r="O23" t="n">
-        <v>48.96410967784438</v>
+        <v>51.07264106155802</v>
       </c>
       <c r="P23" t="n">
-        <v>58.6906889307978</v>
+        <v>25.95556567350741</v>
       </c>
       <c r="Q23" t="n">
-        <v>25.19013838520432</v>
+        <v>122.5397180745383</v>
       </c>
       <c r="R23" t="n">
-        <v>51.70625742745183</v>
+        <v>178.9411952305355</v>
       </c>
       <c r="S23" t="n">
-        <v>82.10808283106954</v>
+        <v>36.99148318165071</v>
       </c>
       <c r="T23" t="n">
-        <v>17.73088925229867</v>
+        <v>67.2277594727055</v>
       </c>
       <c r="U23" t="n">
-        <v>73.97550415296971</v>
+        <v>47.26863126247442</v>
       </c>
       <c r="V23" t="n">
-        <v>16.63120725721832</v>
+        <v>27.23103069798143</v>
       </c>
       <c r="W23" t="n">
-        <v>21.66547043586738</v>
+        <v>36.30238471223979</v>
       </c>
       <c r="X23" t="n">
-        <v>24.76340730448668</v>
+        <v>7.980090299858526</v>
       </c>
       <c r="Y23" t="n">
-        <v>50.29444839330298</v>
+        <v>80.67225864610658</v>
       </c>
       <c r="Z23" t="n">
-        <v>19.41185008957811</v>
+        <v>9.605567702450312</v>
       </c>
       <c r="AA23" t="n">
-        <v>20.55512373484904</v>
+        <v>64.62959709900795</v>
       </c>
       <c r="AB23" t="n">
-        <v>13.3595607670814</v>
+        <v>5.52267573336837</v>
       </c>
       <c r="AC23" t="n">
-        <v>74.03246223660723</v>
+        <v>33.08304183980572</v>
       </c>
       <c r="AD23" t="n">
-        <v>23.96601729971225</v>
+        <v>27.47840292312354</v>
       </c>
       <c r="AE23" t="n">
-        <v>44.58597991754014</v>
+        <v>58.78051063217644</v>
       </c>
       <c r="AF23" t="n">
-        <v>22.20456987077348</v>
+        <v>52.16828003691285</v>
       </c>
       <c r="AG23" t="n">
-        <v>5.337677785941052</v>
+        <v>22.92094124562286</v>
       </c>
       <c r="AH23" t="n">
-        <v>22.14507944975826</v>
+        <v>0</v>
       </c>
       <c r="AI23" t="n">
-        <v>10.20845940285954</v>
+        <v>21.22165913598108</v>
       </c>
       <c r="AJ23" t="n">
-        <v>16.68731261981523</v>
+        <v>11.69499257745558</v>
       </c>
       <c r="AK23" t="n">
-        <v>54.13389186603472</v>
+        <v>52.75058148665889</v>
       </c>
       <c r="AL23" t="n">
-        <v>20.47053006393569</v>
+        <v>29.71567658112209</v>
       </c>
       <c r="AM23" t="n">
-        <v>51.82223922449195</v>
+        <v>32.88455966079952</v>
       </c>
       <c r="AN23" t="n">
-        <v>19.6448287533654</v>
+        <v>38.89812255710245</v>
       </c>
       <c r="AO23" t="n">
-        <v>14.3142859080587</v>
+        <v>35.87413860771812</v>
       </c>
       <c r="AP23" t="n">
-        <v>16.91149073232335</v>
+        <v>22.39997361935144</v>
       </c>
       <c r="AQ23" t="n">
-        <v>27.78305211149044</v>
+        <v>17.76175041502336</v>
       </c>
       <c r="AR23" t="n">
-        <v>5.003718963030961</v>
+        <v>31.17680446241589</v>
       </c>
       <c r="AS23" t="n">
-        <v>26.89201104315358</v>
+        <v>5.608938921267556</v>
       </c>
       <c r="AT23" t="n">
-        <v>8.118833017209822</v>
+        <v>25.86357685309716</v>
       </c>
       <c r="AU23" t="n">
-        <v>24.20058761652514</v>
+        <v>40.22966305512576</v>
       </c>
       <c r="AV23" t="n">
-        <v>7.348370583023307</v>
+        <v>4.346183250035804</v>
       </c>
       <c r="AW23" t="n">
-        <v>6.396684090625388</v>
+        <v>22.06970016943493</v>
       </c>
       <c r="AX23" t="n">
-        <v>36.09873299740885</v>
+        <v>18.51889826837138</v>
       </c>
     </row>
     <row r="24">
@@ -4037,148 +4037,148 @@
         <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>1.880992868671596</v>
+        <v>4.809876454460503</v>
       </c>
       <c r="D24" t="n">
-        <v>1.37328071515552</v>
+        <v>2.425683961529343</v>
       </c>
       <c r="E24" t="n">
-        <v>6.851054825368604</v>
+        <v>6.893174430048833</v>
       </c>
       <c r="F24" t="n">
-        <v>23.76226326558541</v>
+        <v>2.155771142169654</v>
       </c>
       <c r="G24" t="n">
-        <v>21.59728314271658</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>11.3443973865332</v>
+        <v>49.73809761689705</v>
       </c>
       <c r="I24" t="n">
-        <v>38.63090350583106</v>
+        <v>13.29602143787181</v>
       </c>
       <c r="J24" t="n">
-        <v>1.072310595356858</v>
+        <v>9.60789580579981</v>
       </c>
       <c r="K24" t="n">
-        <v>21.92432408637154</v>
+        <v>10.11391226005493</v>
       </c>
       <c r="L24" t="n">
-        <v>5.157779266391518</v>
+        <v>11.1459348300035</v>
       </c>
       <c r="M24" t="n">
-        <v>7.925919558964415</v>
+        <v>13.83453114678805</v>
       </c>
       <c r="N24" t="n">
-        <v>5.901449435121897</v>
+        <v>24.76271864173835</v>
       </c>
       <c r="O24" t="n">
-        <v>38.36970067036214</v>
+        <v>27.09752152020778</v>
       </c>
       <c r="P24" t="n">
-        <v>32.47307216184686</v>
+        <v>78.83254940753706</v>
       </c>
       <c r="Q24" t="n">
-        <v>19.74841085882315</v>
+        <v>24.87902136684327</v>
       </c>
       <c r="R24" t="n">
-        <v>48.21068775583385</v>
+        <v>16.88105238961024</v>
       </c>
       <c r="S24" t="n">
-        <v>8.361276180681502</v>
+        <v>34.15681383569144</v>
       </c>
       <c r="T24" t="n">
-        <v>23.16055159272777</v>
+        <v>34.73743695632895</v>
       </c>
       <c r="U24" t="n">
-        <v>22.8872916661686</v>
+        <v>20.81359923304016</v>
       </c>
       <c r="V24" t="n">
-        <v>19.11302035537251</v>
+        <v>6.679415000691539</v>
       </c>
       <c r="W24" t="n">
-        <v>18.437924873094</v>
+        <v>45.87517828014083</v>
       </c>
       <c r="X24" t="n">
-        <v>25.98818583197504</v>
+        <v>40.29725014237277</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.44802218116542</v>
+        <v>11.80749124979298</v>
       </c>
       <c r="Z24" t="n">
-        <v>16.19180248621513</v>
+        <v>8.693841823605212</v>
       </c>
       <c r="AA24" t="n">
-        <v>14.14890285272123</v>
+        <v>18.34563474654935</v>
       </c>
       <c r="AB24" t="n">
-        <v>5.274543265719417</v>
+        <v>11.7435297039893</v>
       </c>
       <c r="AC24" t="n">
-        <v>22.60871848944749</v>
+        <v>19.11689025984114</v>
       </c>
       <c r="AD24" t="n">
-        <v>22.10921643213704</v>
+        <v>17.25879482689333</v>
       </c>
       <c r="AE24" t="n">
-        <v>6.731934811155094</v>
+        <v>3.542048160490524</v>
       </c>
       <c r="AF24" t="n">
-        <v>14.50547623813692</v>
+        <v>17.00809006847206</v>
       </c>
       <c r="AG24" t="n">
-        <v>13.94542881034845</v>
+        <v>12.20692300439038</v>
       </c>
       <c r="AH24" t="n">
-        <v>21.471007472493</v>
+        <v>21.30985191723102</v>
       </c>
       <c r="AI24" t="n">
-        <v>15.29091679199271</v>
+        <v>8.253195606301118</v>
       </c>
       <c r="AJ24" t="n">
-        <v>12.29368973307261</v>
+        <v>11.6740119712788</v>
       </c>
       <c r="AK24" t="n">
-        <v>14.03765280244968</v>
+        <v>12.4468212038563</v>
       </c>
       <c r="AL24" t="n">
-        <v>11.08800950477142</v>
+        <v>8.803413350078165</v>
       </c>
       <c r="AM24" t="n">
-        <v>6.987660222212645</v>
+        <v>3.506427910729343</v>
       </c>
       <c r="AN24" t="n">
-        <v>2.309042714040626</v>
+        <v>3.895015467718974</v>
       </c>
       <c r="AO24" t="n">
-        <v>3.946247277253826</v>
+        <v>3.222844664740374</v>
       </c>
       <c r="AP24" t="n">
-        <v>5.956270723405996</v>
+        <v>1.037885347838343</v>
       </c>
       <c r="AQ24" t="n">
-        <v>11.46010594938307</v>
+        <v>3.665467548184315</v>
       </c>
       <c r="AR24" t="n">
-        <v>4.920517304677837</v>
+        <v>12.73457163691201</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.885750170935954</v>
+        <v>2.520473509178903</v>
       </c>
       <c r="AT24" t="n">
-        <v>4.632355072331626</v>
+        <v>6.38062139971018</v>
       </c>
       <c r="AU24" t="n">
-        <v>0.6304236031505641</v>
+        <v>1.889942517885705</v>
       </c>
       <c r="AV24" t="n">
-        <v>27.51776828271689</v>
+        <v>0</v>
       </c>
       <c r="AW24" t="n">
-        <v>0.6364171125742912</v>
+        <v>3.633318087566948</v>
       </c>
       <c r="AX24" t="n">
-        <v>2.69013064369612</v>
+        <v>0.413717446283441</v>
       </c>
     </row>
     <row r="25">
@@ -4189,148 +4189,148 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>38.19606976067044</v>
+        <v>12.3953152735451</v>
       </c>
       <c r="D25" t="n">
-        <v>7.218265788381912</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>12.67196326453816</v>
+        <v>2.565338068851903</v>
       </c>
       <c r="F25" t="n">
-        <v>7.987859210827582</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.025987897302646</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>19.14939405260236</v>
+        <v>26.67044211856202</v>
       </c>
       <c r="I25" t="n">
-        <v>7.854135586277155</v>
+        <v>32.68640444368697</v>
       </c>
       <c r="J25" t="n">
-        <v>1.18570181707036</v>
+        <v>29.68705263175591</v>
       </c>
       <c r="K25" t="n">
-        <v>7.528032734532955</v>
+        <v>36.07197551428204</v>
       </c>
       <c r="L25" t="n">
-        <v>38.85650192158479</v>
+        <v>9.247801281884517</v>
       </c>
       <c r="M25" t="n">
-        <v>8.36790755466272</v>
+        <v>77.00233238855373</v>
       </c>
       <c r="N25" t="n">
-        <v>49.83253626774942</v>
+        <v>10.88893032857221</v>
       </c>
       <c r="O25" t="n">
-        <v>71.48639850043338</v>
+        <v>25.27487391194332</v>
       </c>
       <c r="P25" t="n">
-        <v>4.966986601037239</v>
+        <v>49.7605928521673</v>
       </c>
       <c r="Q25" t="n">
-        <v>54.92211727871721</v>
+        <v>12.15776594587481</v>
       </c>
       <c r="R25" t="n">
-        <v>26.79368037713815</v>
+        <v>46.8081059460773</v>
       </c>
       <c r="S25" t="n">
-        <v>80.51612910878032</v>
+        <v>14.72950899511119</v>
       </c>
       <c r="T25" t="n">
-        <v>59.10929139362179</v>
+        <v>46.07435360800741</v>
       </c>
       <c r="U25" t="n">
-        <v>99.60602844501993</v>
+        <v>38.26779567091921</v>
       </c>
       <c r="V25" t="n">
-        <v>39.76780022948423</v>
+        <v>59.94001237922163</v>
       </c>
       <c r="W25" t="n">
-        <v>9.639515328373754</v>
+        <v>65.55351290798676</v>
       </c>
       <c r="X25" t="n">
-        <v>3.177707893564897</v>
+        <v>59.04045926749614</v>
       </c>
       <c r="Y25" t="n">
-        <v>35.23304881040196</v>
+        <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>84.81472826718118</v>
+        <v>18.70229982883639</v>
       </c>
       <c r="AA25" t="n">
-        <v>11.60324153340361</v>
+        <v>18.33990185016134</v>
       </c>
       <c r="AB25" t="n">
-        <v>8.301378353142825</v>
+        <v>19.93211769209195</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.919338603755364</v>
+        <v>5.068200284145834</v>
       </c>
       <c r="AD25" t="n">
-        <v>18.51362309774948</v>
+        <v>2.341158649559622</v>
       </c>
       <c r="AE25" t="n">
-        <v>7.253842784130308</v>
+        <v>0.5361786913829808</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.6789104461109441</v>
+        <v>58.11445966446916</v>
       </c>
       <c r="AG25" t="n">
-        <v>6.008313209857233</v>
+        <v>17.50338310965203</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.9881197844605425</v>
+        <v>8.643522668348359</v>
       </c>
       <c r="AI25" t="n">
-        <v>3.858706033779424</v>
+        <v>0</v>
       </c>
       <c r="AJ25" t="n">
-        <v>22.35861013815122</v>
+        <v>12.00403643838382</v>
       </c>
       <c r="AK25" t="n">
-        <v>8.38021666214229</v>
+        <v>0.6695277998624429</v>
       </c>
       <c r="AL25" t="n">
-        <v>5.639099932978168</v>
+        <v>17.21161043881314</v>
       </c>
       <c r="AM25" t="n">
-        <v>3.738551383768835</v>
+        <v>2.350513311992656</v>
       </c>
       <c r="AN25" t="n">
-        <v>24.00415607310201</v>
+        <v>3.755013241248821</v>
       </c>
       <c r="AO25" t="n">
-        <v>17.71906208028737</v>
+        <v>2.353983060793065</v>
       </c>
       <c r="AP25" t="n">
-        <v>5.473760494890682</v>
+        <v>7.940150624754926</v>
       </c>
       <c r="AQ25" t="n">
-        <v>3.721202213969262</v>
+        <v>4.297956911936884</v>
       </c>
       <c r="AR25" t="n">
-        <v>5.116912084646328</v>
+        <v>0.693590110306437</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.9387997760618805</v>
+        <v>5.452591592612388</v>
       </c>
       <c r="AT25" t="n">
-        <v>7.176458119271442</v>
+        <v>5.342631420995628</v>
       </c>
       <c r="AU25" t="n">
-        <v>4.73335238431622</v>
+        <v>11.25364438523915</v>
       </c>
       <c r="AV25" t="n">
-        <v>4.904846736150985</v>
+        <v>3.240811525357947</v>
       </c>
       <c r="AW25" t="n">
-        <v>5.388320818148937</v>
+        <v>23.17016225019509</v>
       </c>
       <c r="AX25" t="n">
-        <v>8.269843786125044</v>
+        <v>16.50004584463966</v>
       </c>
     </row>
     <row r="26">
@@ -4341,148 +4341,148 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>7.506376394964189</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>24.38994819453889</v>
+        <v>18.98904354372037</v>
       </c>
       <c r="E26" t="n">
-        <v>41.92134554517413</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>24.295681385001</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>30.10204769499499</v>
+        <v>21.15549276923391</v>
       </c>
       <c r="H26" t="n">
-        <v>9.525424913327946</v>
+        <v>7.123694964415659</v>
       </c>
       <c r="I26" t="n">
-        <v>50.19274592026062</v>
+        <v>50.06858595092918</v>
       </c>
       <c r="J26" t="n">
-        <v>160.4491922888176</v>
+        <v>5.089155692832797</v>
       </c>
       <c r="K26" t="n">
-        <v>398.699522677173</v>
+        <v>3.059836370882934</v>
       </c>
       <c r="L26" t="n">
-        <v>70.01637689511918</v>
+        <v>139.724236194706</v>
       </c>
       <c r="M26" t="n">
-        <v>27.01390079324734</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>120.1911929249375</v>
+        <v>57.64741530077404</v>
       </c>
       <c r="O26" t="n">
-        <v>116.9783900055659</v>
+        <v>55.75558891183084</v>
       </c>
       <c r="P26" t="n">
-        <v>43.16528619119467</v>
+        <v>46.86446951628376</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.84731284885493</v>
+        <v>6.313289044898617</v>
       </c>
       <c r="R26" t="n">
-        <v>37.35117914728904</v>
+        <v>58.24169604032456</v>
       </c>
       <c r="S26" t="n">
-        <v>79.17661074205549</v>
+        <v>50.20164622085283</v>
       </c>
       <c r="T26" t="n">
-        <v>92.84546280349996</v>
+        <v>1.148482593628664</v>
       </c>
       <c r="U26" t="n">
-        <v>42.52044795166196</v>
+        <v>48.27617035991526</v>
       </c>
       <c r="V26" t="n">
-        <v>199.4671132643548</v>
+        <v>49.14831556748022</v>
       </c>
       <c r="W26" t="n">
-        <v>40.56780050710139</v>
+        <v>26.51115860886672</v>
       </c>
       <c r="X26" t="n">
-        <v>111.4358909410309</v>
+        <v>61.52969434839363</v>
       </c>
       <c r="Y26" t="n">
-        <v>92.34163404308633</v>
+        <v>85.97155825765458</v>
       </c>
       <c r="Z26" t="n">
-        <v>57.69077341168584</v>
+        <v>109.1232642073262</v>
       </c>
       <c r="AA26" t="n">
-        <v>68.04995757975402</v>
+        <v>66.25694222097867</v>
       </c>
       <c r="AB26" t="n">
-        <v>57.75683604735365</v>
+        <v>101.5022993642808</v>
       </c>
       <c r="AC26" t="n">
-        <v>77.5015402912931</v>
+        <v>123.7769193264788</v>
       </c>
       <c r="AD26" t="n">
-        <v>124.812816598045</v>
+        <v>88.27209956292468</v>
       </c>
       <c r="AE26" t="n">
-        <v>99.07330572343041</v>
+        <v>88.99272196956716</v>
       </c>
       <c r="AF26" t="n">
-        <v>66.04702382590861</v>
+        <v>130.0142085045818</v>
       </c>
       <c r="AG26" t="n">
-        <v>136.9235206087886</v>
+        <v>149.6600984301425</v>
       </c>
       <c r="AH26" t="n">
-        <v>74.07551206464554</v>
+        <v>182.0530414724673</v>
       </c>
       <c r="AI26" t="n">
-        <v>71.77570182848891</v>
+        <v>115.5094771092887</v>
       </c>
       <c r="AJ26" t="n">
-        <v>54.20020827553491</v>
+        <v>41.82600788517353</v>
       </c>
       <c r="AK26" t="n">
-        <v>44.07033177417006</v>
+        <v>64.93259543653348</v>
       </c>
       <c r="AL26" t="n">
-        <v>65.96131628270578</v>
+        <v>98.89685304076181</v>
       </c>
       <c r="AM26" t="n">
-        <v>44.33418897653482</v>
+        <v>48.27137519739355</v>
       </c>
       <c r="AN26" t="n">
-        <v>43.88796955710853</v>
+        <v>48.19682526825682</v>
       </c>
       <c r="AO26" t="n">
-        <v>28.08370405045386</v>
+        <v>12.70623572025303</v>
       </c>
       <c r="AP26" t="n">
-        <v>22.53682608095874</v>
+        <v>32.81951946760079</v>
       </c>
       <c r="AQ26" t="n">
-        <v>28.78081437065156</v>
+        <v>56.9425332804063</v>
       </c>
       <c r="AR26" t="n">
-        <v>30.09686783464105</v>
+        <v>13.35802564183256</v>
       </c>
       <c r="AS26" t="n">
-        <v>16.76828360757938</v>
+        <v>20.46511913515947</v>
       </c>
       <c r="AT26" t="n">
-        <v>16.81497968036782</v>
+        <v>14.33289204727035</v>
       </c>
       <c r="AU26" t="n">
-        <v>20.47202326585503</v>
+        <v>22.3440021989398</v>
       </c>
       <c r="AV26" t="n">
-        <v>31.96453275893253</v>
+        <v>11.40467671531354</v>
       </c>
       <c r="AW26" t="n">
-        <v>18.09768012767611</v>
+        <v>15.27932330845246</v>
       </c>
       <c r="AX26" t="n">
-        <v>17.5538020980386</v>
+        <v>26.45153541654783</v>
       </c>
     </row>
     <row r="27">
@@ -4493,148 +4493,148 @@
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>3.779391824417329</v>
+        <v>3.410139229675057</v>
       </c>
       <c r="D27" t="n">
-        <v>8.041078510827655</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>3.020714592723161</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.03579681666090206</v>
+        <v>2.841026501330101</v>
       </c>
       <c r="G27" t="n">
-        <v>7.07688609899033</v>
+        <v>3.90008659223431</v>
       </c>
       <c r="H27" t="n">
-        <v>4.870372114667075</v>
+        <v>0.7098161517738396</v>
       </c>
       <c r="I27" t="n">
-        <v>4.073366727806399</v>
+        <v>1.920094812142697</v>
       </c>
       <c r="J27" t="n">
-        <v>2.377833459362994</v>
+        <v>2.984373594963907</v>
       </c>
       <c r="K27" t="n">
-        <v>1.553897598264736</v>
+        <v>4.111352936009411</v>
       </c>
       <c r="L27" t="n">
-        <v>1.641172223460282</v>
+        <v>2.741230675078755</v>
       </c>
       <c r="M27" t="n">
-        <v>8.53899076342714</v>
+        <v>2.102893078779268</v>
       </c>
       <c r="N27" t="n">
-        <v>1.612203105543452</v>
+        <v>5.608867865709218</v>
       </c>
       <c r="O27" t="n">
-        <v>4.243131179836722</v>
+        <v>5.079273295381194</v>
       </c>
       <c r="P27" t="n">
-        <v>12.15984271901447</v>
+        <v>3.506851450349552</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.794163526435044</v>
+        <v>3.326615748655629</v>
       </c>
       <c r="R27" t="n">
-        <v>6.511301297864097</v>
+        <v>2.503139502558595</v>
       </c>
       <c r="S27" t="n">
-        <v>1.373203142849202</v>
+        <v>6.358245881223595</v>
       </c>
       <c r="T27" t="n">
-        <v>4.074189558621067</v>
+        <v>1.139493129984488</v>
       </c>
       <c r="U27" t="n">
-        <v>0.7545160808349731</v>
+        <v>2.308589588312653</v>
       </c>
       <c r="V27" t="n">
-        <v>5.022583075586171</v>
+        <v>6.080265641573099</v>
       </c>
       <c r="W27" t="n">
-        <v>4.729792955691805</v>
+        <v>5.965861257896085</v>
       </c>
       <c r="X27" t="n">
-        <v>1.226329146996206</v>
+        <v>4.986183297104865</v>
       </c>
       <c r="Y27" t="n">
-        <v>2.780621784651907</v>
+        <v>4.884115442141916</v>
       </c>
       <c r="Z27" t="n">
-        <v>3.611094751271645</v>
+        <v>6.243557167789538</v>
       </c>
       <c r="AA27" t="n">
-        <v>3.264692364057078</v>
+        <v>6.236064421731371</v>
       </c>
       <c r="AB27" t="n">
-        <v>8.030103529011777</v>
+        <v>4.14996275963926</v>
       </c>
       <c r="AC27" t="n">
-        <v>5.013081266312902</v>
+        <v>2.607823774166065</v>
       </c>
       <c r="AD27" t="n">
-        <v>2.357223263427085</v>
+        <v>6.78940724095</v>
       </c>
       <c r="AE27" t="n">
-        <v>7.276349005081713</v>
+        <v>5.828028925814563</v>
       </c>
       <c r="AF27" t="n">
-        <v>4.099354616314896</v>
+        <v>6.303615371869269</v>
       </c>
       <c r="AG27" t="n">
-        <v>7.044496899478005</v>
+        <v>4.237089383682306</v>
       </c>
       <c r="AH27" t="n">
-        <v>6.03697122925302</v>
+        <v>10.58751019446644</v>
       </c>
       <c r="AI27" t="n">
-        <v>13.72468834478109</v>
+        <v>7.117088866772064</v>
       </c>
       <c r="AJ27" t="n">
-        <v>10.629927569163</v>
+        <v>10.22354695458038</v>
       </c>
       <c r="AK27" t="n">
-        <v>6.49953889972266</v>
+        <v>4.400835541140783</v>
       </c>
       <c r="AL27" t="n">
-        <v>4.082125919492254</v>
+        <v>3.145565196049402</v>
       </c>
       <c r="AM27" t="n">
-        <v>13.46873147185571</v>
+        <v>6.254630292070186</v>
       </c>
       <c r="AN27" t="n">
-        <v>1.381838661127971</v>
+        <v>2.661340978552654</v>
       </c>
       <c r="AO27" t="n">
-        <v>3.719493539044059</v>
+        <v>6.796813356450617</v>
       </c>
       <c r="AP27" t="n">
-        <v>3.913848925422903</v>
+        <v>3.589500570577362</v>
       </c>
       <c r="AQ27" t="n">
-        <v>2.396241191331163</v>
+        <v>3.297269294800925</v>
       </c>
       <c r="AR27" t="n">
-        <v>3.419022013804124</v>
+        <v>1.857408685879548</v>
       </c>
       <c r="AS27" t="n">
-        <v>5.655773335913292</v>
+        <v>2.467873322300868</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.884623237454639</v>
+        <v>3.241197745006829</v>
       </c>
       <c r="AU27" t="n">
-        <v>1.752298151921637</v>
+        <v>3.485425712140754</v>
       </c>
       <c r="AV27" t="n">
-        <v>0.9834433456540862</v>
+        <v>2.521008640587302</v>
       </c>
       <c r="AW27" t="n">
-        <v>3.141902926391434</v>
+        <v>2.026688347225652</v>
       </c>
       <c r="AX27" t="n">
-        <v>6.789522010242888</v>
+        <v>3.191294421494561</v>
       </c>
     </row>
     <row r="28">
@@ -4645,148 +4645,148 @@
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>12.38147158430874</v>
+        <v>12.49714535207974</v>
       </c>
       <c r="D28" t="n">
-        <v>6.640843920998565</v>
+        <v>7.273839464966668</v>
       </c>
       <c r="E28" t="n">
-        <v>25.67834043160864</v>
+        <v>11.60676733525219</v>
       </c>
       <c r="F28" t="n">
-        <v>29.76227603083432</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>32.47956744772002</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>11.59340824890255</v>
+        <v>174.7793810656971</v>
       </c>
       <c r="I28" t="n">
-        <v>6.454562322300398</v>
+        <v>1.879993524525666</v>
       </c>
       <c r="J28" t="n">
-        <v>39.360436886197</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>12.98582426536867</v>
+        <v>85.81286393933377</v>
       </c>
       <c r="L28" t="n">
-        <v>99.5158327339938</v>
+        <v>68.23486564595561</v>
       </c>
       <c r="M28" t="n">
-        <v>85.85071755389453</v>
+        <v>57.93032398770714</v>
       </c>
       <c r="N28" t="n">
-        <v>137.2953708093691</v>
+        <v>19.14001373951251</v>
       </c>
       <c r="O28" t="n">
-        <v>49.0459932365496</v>
+        <v>19.24185443330703</v>
       </c>
       <c r="P28" t="n">
-        <v>27.89617234227372</v>
+        <v>45.81648906557001</v>
       </c>
       <c r="Q28" t="n">
-        <v>85.34450985516671</v>
+        <v>73.39917266278242</v>
       </c>
       <c r="R28" t="n">
-        <v>24.53893313955722</v>
+        <v>60.81603665028715</v>
       </c>
       <c r="S28" t="n">
-        <v>38.60475578850783</v>
+        <v>38.93305730884102</v>
       </c>
       <c r="T28" t="n">
-        <v>16.43322710624375</v>
+        <v>37.10370552009476</v>
       </c>
       <c r="U28" t="n">
-        <v>63.73800340805138</v>
+        <v>42.73074858489203</v>
       </c>
       <c r="V28" t="n">
-        <v>39.01069525398969</v>
+        <v>45.09210690111784</v>
       </c>
       <c r="W28" t="n">
-        <v>88.47986300920441</v>
+        <v>14.72694175934696</v>
       </c>
       <c r="X28" t="n">
-        <v>44.5213103662478</v>
+        <v>85.95514361480537</v>
       </c>
       <c r="Y28" t="n">
-        <v>52.58537005424762</v>
+        <v>91.98137360042499</v>
       </c>
       <c r="Z28" t="n">
-        <v>74.19461507551061</v>
+        <v>73.77433890508512</v>
       </c>
       <c r="AA28" t="n">
-        <v>75.57983613836852</v>
+        <v>51.50326825942994</v>
       </c>
       <c r="AB28" t="n">
-        <v>94.30240886537392</v>
+        <v>28.29242859796418</v>
       </c>
       <c r="AC28" t="n">
-        <v>46.27954753267263</v>
+        <v>54.78489318729836</v>
       </c>
       <c r="AD28" t="n">
-        <v>93.86288637712234</v>
+        <v>189.71781181192</v>
       </c>
       <c r="AE28" t="n">
-        <v>47.28955338854641</v>
+        <v>14.94410247430744</v>
       </c>
       <c r="AF28" t="n">
-        <v>46.3510883688897</v>
+        <v>94.51842730381354</v>
       </c>
       <c r="AG28" t="n">
-        <v>96.72560306589284</v>
+        <v>125.2962354782877</v>
       </c>
       <c r="AH28" t="n">
-        <v>50.01736055020292</v>
+        <v>56.85936635510413</v>
       </c>
       <c r="AI28" t="n">
-        <v>36.40833145841713</v>
+        <v>20.36086656365958</v>
       </c>
       <c r="AJ28" t="n">
-        <v>25.96493067824278</v>
+        <v>22.99769722077628</v>
       </c>
       <c r="AK28" t="n">
-        <v>45.27535055732341</v>
+        <v>43.6705471171414</v>
       </c>
       <c r="AL28" t="n">
-        <v>48.88525691820464</v>
+        <v>35.48070780373816</v>
       </c>
       <c r="AM28" t="n">
-        <v>27.31706828087066</v>
+        <v>14.60699928903965</v>
       </c>
       <c r="AN28" t="n">
-        <v>39.72922580613476</v>
+        <v>36.703144266665</v>
       </c>
       <c r="AO28" t="n">
-        <v>12.62927190048994</v>
+        <v>15.77867244672755</v>
       </c>
       <c r="AP28" t="n">
-        <v>12.37383709529353</v>
+        <v>37.89648537596898</v>
       </c>
       <c r="AQ28" t="n">
-        <v>23.3723658354501</v>
+        <v>27.0071127125322</v>
       </c>
       <c r="AR28" t="n">
-        <v>8.003033135679441</v>
+        <v>10.93955553048225</v>
       </c>
       <c r="AS28" t="n">
-        <v>14.13408074789539</v>
+        <v>9.710777070315361</v>
       </c>
       <c r="AT28" t="n">
-        <v>13.1816364843279</v>
+        <v>13.77437501035955</v>
       </c>
       <c r="AU28" t="n">
-        <v>8.977458279118469</v>
+        <v>2.762028170019587</v>
       </c>
       <c r="AV28" t="n">
-        <v>10.72285532128459</v>
+        <v>10.10877627301654</v>
       </c>
       <c r="AW28" t="n">
-        <v>10.92321682023941</v>
+        <v>10.76416627040595</v>
       </c>
       <c r="AX28" t="n">
-        <v>4.839814532743552</v>
+        <v>11.11257894766573</v>
       </c>
     </row>
     <row r="29">
@@ -4797,148 +4797,148 @@
         <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>20.34388912055783</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>15.88290691540887</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>11.62900748770737</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>4.973378323871954</v>
+        <v>0.3594764163642403</v>
       </c>
       <c r="G29" t="n">
-        <v>3.817425202622695</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>12.22031936050999</v>
+        <v>30.19576099624583</v>
       </c>
       <c r="I29" t="n">
-        <v>111.6976348709165</v>
+        <v>24.37668759067189</v>
       </c>
       <c r="J29" t="n">
-        <v>14.1951134771963</v>
+        <v>42.37051080618975</v>
       </c>
       <c r="K29" t="n">
-        <v>18.14854265442363</v>
+        <v>155.0487587989403</v>
       </c>
       <c r="L29" t="n">
-        <v>6.291234482969043</v>
+        <v>45.04398313315111</v>
       </c>
       <c r="M29" t="n">
-        <v>123.0700469446776</v>
+        <v>45.63898356656707</v>
       </c>
       <c r="N29" t="n">
-        <v>30.91700070818325</v>
+        <v>51.74907981902977</v>
       </c>
       <c r="O29" t="n">
-        <v>76.71536051637845</v>
+        <v>102.9230694471873</v>
       </c>
       <c r="P29" t="n">
-        <v>172.8358503859696</v>
+        <v>21.72535365521001</v>
       </c>
       <c r="Q29" t="n">
-        <v>26.26168650226714</v>
+        <v>117.196375125462</v>
       </c>
       <c r="R29" t="n">
-        <v>67.80182073036063</v>
+        <v>107.6508913065288</v>
       </c>
       <c r="S29" t="n">
-        <v>56.29758798611775</v>
+        <v>23.17724498952607</v>
       </c>
       <c r="T29" t="n">
-        <v>31.3575193694795</v>
+        <v>33.30642623167889</v>
       </c>
       <c r="U29" t="n">
-        <v>65.29194446079845</v>
+        <v>40.01836942057402</v>
       </c>
       <c r="V29" t="n">
-        <v>62.90995666448707</v>
+        <v>67.44397128633712</v>
       </c>
       <c r="W29" t="n">
-        <v>67.05229560687806</v>
+        <v>68.54077217218716</v>
       </c>
       <c r="X29" t="n">
-        <v>36.78035171812212</v>
+        <v>37.26576318467698</v>
       </c>
       <c r="Y29" t="n">
-        <v>48.48009281320101</v>
+        <v>55.42673488823262</v>
       </c>
       <c r="Z29" t="n">
-        <v>12.20616042506384</v>
+        <v>51.01437339813214</v>
       </c>
       <c r="AA29" t="n">
-        <v>20.85830522383357</v>
+        <v>40.38077756231561</v>
       </c>
       <c r="AB29" t="n">
-        <v>41.98959987607012</v>
+        <v>29.69249480025533</v>
       </c>
       <c r="AC29" t="n">
-        <v>69.16458138022701</v>
+        <v>12.11911921103069</v>
       </c>
       <c r="AD29" t="n">
-        <v>25.30258579910636</v>
+        <v>0</v>
       </c>
       <c r="AE29" t="n">
-        <v>59.4483730333359</v>
+        <v>3.792051136616006</v>
       </c>
       <c r="AF29" t="n">
-        <v>27.7036473443725</v>
+        <v>13.3514739100408</v>
       </c>
       <c r="AG29" t="n">
-        <v>9.945983402942245</v>
+        <v>16.88653144359452</v>
       </c>
       <c r="AH29" t="n">
-        <v>58.22019994950327</v>
+        <v>18.94914618340699</v>
       </c>
       <c r="AI29" t="n">
-        <v>12.81140869393017</v>
+        <v>44.81100008226531</v>
       </c>
       <c r="AJ29" t="n">
-        <v>20.29914713814539</v>
+        <v>0</v>
       </c>
       <c r="AK29" t="n">
-        <v>9.081749034644009</v>
+        <v>36.73994405123516</v>
       </c>
       <c r="AL29" t="n">
-        <v>13.63637509694372</v>
+        <v>17.0437381889047</v>
       </c>
       <c r="AM29" t="n">
-        <v>20.58372050464528</v>
+        <v>45.12330808970665</v>
       </c>
       <c r="AN29" t="n">
-        <v>11.7229048155894</v>
+        <v>45.43763585110695</v>
       </c>
       <c r="AO29" t="n">
-        <v>32.45128989549513</v>
+        <v>10.09208489908428</v>
       </c>
       <c r="AP29" t="n">
-        <v>22.26838021352222</v>
+        <v>20.99328165655695</v>
       </c>
       <c r="AQ29" t="n">
-        <v>25.15174895722929</v>
+        <v>34.80788137579489</v>
       </c>
       <c r="AR29" t="n">
-        <v>16.11977060832207</v>
+        <v>5.072841721682038</v>
       </c>
       <c r="AS29" t="n">
-        <v>19.70480009890754</v>
+        <v>23.43400334101369</v>
       </c>
       <c r="AT29" t="n">
-        <v>12.99945564664259</v>
+        <v>18.4022099545459</v>
       </c>
       <c r="AU29" t="n">
-        <v>88.6218532931792</v>
+        <v>37.11047436033071</v>
       </c>
       <c r="AV29" t="n">
-        <v>19.44239532664072</v>
+        <v>21.49067173473395</v>
       </c>
       <c r="AW29" t="n">
-        <v>8.988040647162338</v>
+        <v>28.51132931548511</v>
       </c>
       <c r="AX29" t="n">
-        <v>30.85998387247181</v>
+        <v>46.97545069629384</v>
       </c>
     </row>
     <row r="30">
@@ -4949,148 +4949,148 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4589876805097739</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>4.883050140327633</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>1.376898307485577</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>5.091028541107176</v>
+        <v>1.508128339182072</v>
       </c>
       <c r="G30" t="n">
-        <v>18.37728545933973</v>
+        <v>4.189342555848264</v>
       </c>
       <c r="H30" t="n">
-        <v>9.936389859037412</v>
+        <v>13.80525164637907</v>
       </c>
       <c r="I30" t="n">
-        <v>13.01849419996373</v>
+        <v>5.769208511654271</v>
       </c>
       <c r="J30" t="n">
-        <v>32.00384716634594</v>
+        <v>62.78188839578603</v>
       </c>
       <c r="K30" t="n">
-        <v>8.349560458688465</v>
+        <v>3.742804392063972</v>
       </c>
       <c r="L30" t="n">
-        <v>13.87082354957118</v>
+        <v>9.742247581393213</v>
       </c>
       <c r="M30" t="n">
-        <v>51.90394424262465</v>
+        <v>33.75795211696858</v>
       </c>
       <c r="N30" t="n">
-        <v>9.732600946236877</v>
+        <v>101.2718789201316</v>
       </c>
       <c r="O30" t="n">
-        <v>54.76588927718664</v>
+        <v>24.29463809365112</v>
       </c>
       <c r="P30" t="n">
-        <v>6.128163477088617</v>
+        <v>20.31206625038244</v>
       </c>
       <c r="Q30" t="n">
-        <v>53.69811504836962</v>
+        <v>13.03173140455088</v>
       </c>
       <c r="R30" t="n">
-        <v>12.0133293353406</v>
+        <v>33.01439606690909</v>
       </c>
       <c r="S30" t="n">
-        <v>36.84989832198708</v>
+        <v>53.79045706642162</v>
       </c>
       <c r="T30" t="n">
-        <v>14.27530030389124</v>
+        <v>13.32628052642568</v>
       </c>
       <c r="U30" t="n">
-        <v>11.28801338821781</v>
+        <v>54.11708061457075</v>
       </c>
       <c r="V30" t="n">
-        <v>32.40596548724633</v>
+        <v>18.46277938473287</v>
       </c>
       <c r="W30" t="n">
-        <v>12.52077197952554</v>
+        <v>12.38769602857399</v>
       </c>
       <c r="X30" t="n">
-        <v>13.03107825805671</v>
+        <v>80.70113226254489</v>
       </c>
       <c r="Y30" t="n">
-        <v>34.14702778252586</v>
+        <v>16.35853047437498</v>
       </c>
       <c r="Z30" t="n">
-        <v>20.95178788701423</v>
+        <v>17.66166182985482</v>
       </c>
       <c r="AA30" t="n">
-        <v>29.19997240987262</v>
+        <v>31.19959347294025</v>
       </c>
       <c r="AB30" t="n">
-        <v>34.0182340587821</v>
+        <v>13.85176740446263</v>
       </c>
       <c r="AC30" t="n">
-        <v>12.74349766132957</v>
+        <v>12.12653962116588</v>
       </c>
       <c r="AD30" t="n">
-        <v>14.994875768602</v>
+        <v>12.32851806837844</v>
       </c>
       <c r="AE30" t="n">
-        <v>12.9566391855103</v>
+        <v>12.91783355456021</v>
       </c>
       <c r="AF30" t="n">
-        <v>24.54131297396976</v>
+        <v>8.721653534868208</v>
       </c>
       <c r="AG30" t="n">
-        <v>7.795031265603042</v>
+        <v>9.057742723616986</v>
       </c>
       <c r="AH30" t="n">
-        <v>8.874201835198907</v>
+        <v>17.5565164027743</v>
       </c>
       <c r="AI30" t="n">
-        <v>9.094290988523689</v>
+        <v>3.416965686645186</v>
       </c>
       <c r="AJ30" t="n">
-        <v>5.730237562124485</v>
+        <v>17.67982945785491</v>
       </c>
       <c r="AK30" t="n">
-        <v>15.23527526884001</v>
+        <v>7.277730968671136</v>
       </c>
       <c r="AL30" t="n">
-        <v>9.049805767298267</v>
+        <v>6.52359879749502</v>
       </c>
       <c r="AM30" t="n">
-        <v>4.205075467183494</v>
+        <v>12.18775363964388</v>
       </c>
       <c r="AN30" t="n">
-        <v>2.137402507451377</v>
+        <v>6.779516684662124</v>
       </c>
       <c r="AO30" t="n">
-        <v>1.924606436475781</v>
+        <v>4.300254967320804</v>
       </c>
       <c r="AP30" t="n">
-        <v>3.979456527397014</v>
+        <v>2.59863173285497</v>
       </c>
       <c r="AQ30" t="n">
-        <v>3.146119081012608</v>
+        <v>4.551740379011469</v>
       </c>
       <c r="AR30" t="n">
-        <v>6.982226000923373</v>
+        <v>2.38991575683225</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.18461538423953</v>
+        <v>3.91332508754465</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.7807299537035081</v>
+        <v>5.039466390844979</v>
       </c>
       <c r="AU30" t="n">
-        <v>0.5211357525966642</v>
+        <v>1.408151237227329</v>
       </c>
       <c r="AV30" t="n">
-        <v>4.206928266039324</v>
+        <v>5.057191122068637</v>
       </c>
       <c r="AW30" t="n">
-        <v>0.6317251362623599</v>
+        <v>3.940312563590086</v>
       </c>
       <c r="AX30" t="n">
-        <v>1.719319449585632</v>
+        <v>1.272440965118397</v>
       </c>
     </row>
     <row r="31">
@@ -5101,148 +5101,148 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>15.97521620493436</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>13.10362673570632</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>7.00200713567234</v>
+        <v>24.14186073013811</v>
       </c>
       <c r="F31" t="n">
-        <v>20.69132292651196</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>52.29958033989944</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>10.0785459717193</v>
+        <v>19.11008352423921</v>
       </c>
       <c r="I31" t="n">
-        <v>8.072880631744258</v>
+        <v>20.96336089786261</v>
       </c>
       <c r="J31" t="n">
-        <v>21.94102831018916</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>256.9111931371866</v>
+        <v>47.73441026001035</v>
       </c>
       <c r="L31" t="n">
-        <v>8.461711421940354</v>
+        <v>2.553698957518531</v>
       </c>
       <c r="M31" t="n">
-        <v>51.10616511555125</v>
+        <v>12.19215809774489</v>
       </c>
       <c r="N31" t="n">
-        <v>104.6453889797426</v>
+        <v>12.09117850782319</v>
       </c>
       <c r="O31" t="n">
-        <v>14.66538626643622</v>
+        <v>44.98606356379979</v>
       </c>
       <c r="P31" t="n">
-        <v>39.37476922739815</v>
+        <v>33.2556988033546</v>
       </c>
       <c r="Q31" t="n">
-        <v>49.42500006608514</v>
+        <v>40.24378611475851</v>
       </c>
       <c r="R31" t="n">
-        <v>9.278601853634187</v>
+        <v>23.48045420859757</v>
       </c>
       <c r="S31" t="n">
-        <v>104.9089246477914</v>
+        <v>33.99458650676455</v>
       </c>
       <c r="T31" t="n">
-        <v>5.250489429595123</v>
+        <v>23.67258929595536</v>
       </c>
       <c r="U31" t="n">
-        <v>45.1478229467922</v>
+        <v>30.06129179520734</v>
       </c>
       <c r="V31" t="n">
-        <v>89.04684695999107</v>
+        <v>55.11702468880282</v>
       </c>
       <c r="W31" t="n">
-        <v>17.78845212158268</v>
+        <v>16.89157144291897</v>
       </c>
       <c r="X31" t="n">
-        <v>15.98923079298463</v>
+        <v>20.18513140392396</v>
       </c>
       <c r="Y31" t="n">
-        <v>5.239729702586529</v>
+        <v>0</v>
       </c>
       <c r="Z31" t="n">
-        <v>13.53100999574706</v>
+        <v>5.01480860646389</v>
       </c>
       <c r="AA31" t="n">
-        <v>14.67391606981783</v>
+        <v>0</v>
       </c>
       <c r="AB31" t="n">
-        <v>5.768095334643943</v>
+        <v>7.769681695707582</v>
       </c>
       <c r="AC31" t="n">
-        <v>12.20070309905767</v>
+        <v>5.371755952272601</v>
       </c>
       <c r="AD31" t="n">
-        <v>12.40134700289813</v>
+        <v>4.341464987641871</v>
       </c>
       <c r="AE31" t="n">
-        <v>5.386964082164579</v>
+        <v>7.244093390360038</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.7820021843140345</v>
+        <v>16.82306438702698</v>
       </c>
       <c r="AG31" t="n">
-        <v>9.850371442141842</v>
+        <v>9.279398161108565</v>
       </c>
       <c r="AH31" t="n">
-        <v>28.55626030231904</v>
+        <v>14.46098772694654</v>
       </c>
       <c r="AI31" t="n">
-        <v>2.99987050536313</v>
+        <v>15.6692896732035</v>
       </c>
       <c r="AJ31" t="n">
-        <v>11.89998019149567</v>
+        <v>10.83230648630724</v>
       </c>
       <c r="AK31" t="n">
-        <v>4.684163748298152</v>
+        <v>6.792570029597152</v>
       </c>
       <c r="AL31" t="n">
-        <v>4.117108361243448</v>
+        <v>34.36739394784523</v>
       </c>
       <c r="AM31" t="n">
-        <v>7.954794179675737</v>
+        <v>2.365386610384076</v>
       </c>
       <c r="AN31" t="n">
-        <v>2.504291056021148</v>
+        <v>7.965337377264451</v>
       </c>
       <c r="AO31" t="n">
-        <v>8.087904459367696</v>
+        <v>1.028577123492922</v>
       </c>
       <c r="AP31" t="n">
-        <v>5.00289542690227</v>
+        <v>16.23655091726404</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.5664991862507753</v>
+        <v>5.542392813690196</v>
       </c>
       <c r="AR31" t="n">
-        <v>4.906048842458005</v>
+        <v>3.247339688611421</v>
       </c>
       <c r="AS31" t="n">
-        <v>17.02501630737828</v>
+        <v>7.335659736307203</v>
       </c>
       <c r="AT31" t="n">
-        <v>4.824893681097482</v>
+        <v>0</v>
       </c>
       <c r="AU31" t="n">
-        <v>2.091703848377884</v>
+        <v>10.95146253931025</v>
       </c>
       <c r="AV31" t="n">
-        <v>6.228102674079627</v>
+        <v>4.725148178905191</v>
       </c>
       <c r="AW31" t="n">
-        <v>6.001113053382497</v>
+        <v>3.183580538299059</v>
       </c>
       <c r="AX31" t="n">
-        <v>8.912777279737318</v>
+        <v>6.189506078911618</v>
       </c>
     </row>
   </sheetData>
